--- a/Condensed Music Data Keys and Time Coded CURRENT.xlsx
+++ b/Condensed Music Data Keys and Time Coded CURRENT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="741">
   <si>
     <t>Piece Title</t>
   </si>
@@ -603,9 +603,6 @@
     <t>epic, romantic, landscape, sailing, navigating, exploration, exploring</t>
   </si>
   <si>
-    <t xml:space="preserve">resolute, noble, strong, </t>
-  </si>
-  <si>
     <t>Sports</t>
   </si>
   <si>
@@ -615,9 +612,6 @@
     <t>Meditative, Meditation, documentary, drama, spiritual, nature, crystals, chakras, spirit, om, space, fine art, museum, exhibit, calm, relaxing, chill, slow, ambient, ambiant, ambiance, ambience</t>
   </si>
   <si>
-    <t>content, calm, chill, dreamy, laid-back, lethargic, pleasant, relaxed</t>
-  </si>
-  <si>
     <t>Phalaenopsis</t>
   </si>
   <si>
@@ -630,412 +624,361 @@
     <t>Diskettamine</t>
   </si>
   <si>
+    <t>Game, Video game, 8bit, chiptune, intense, Fast, Speedy, Hyper, Excited, Happy</t>
+  </si>
+  <si>
     <t>Changing Levels</t>
   </si>
   <si>
-    <t>Intense, videogamey,</t>
-  </si>
-  <si>
     <t>Ambient Fluidity</t>
   </si>
   <si>
-    <t>Videogame, game boy, chiptune, 8-bit, zelda, mario, amiga, commodore, tracker, caffeinated, coffee</t>
-  </si>
-  <si>
-    <t>Caffeinated, Excited, Happy</t>
+    <t xml:space="preserve">liquid, water, meditation, swelling, fluid, </t>
   </si>
   <si>
     <t>The Metronome of Fate</t>
   </si>
   <si>
-    <t xml:space="preserve">liquid, water, meditation, swelling, fluid, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">meditative, relaxing, chill, </t>
+    <t xml:space="preserve">Hoverbike, Chase, Cyberpunk, Sci-fi, Escape, Speeder, Superhero, Marvel, DC Comics, Comic book, </t>
   </si>
   <si>
     <t>RIP Current Trend</t>
   </si>
   <si>
-    <t xml:space="preserve">Hoverbike, Chase, Cyberpunk, Sci-fi, Escape, Speeder, Superhero, Marvel, DC Comics, Comic book, </t>
-  </si>
-  <si>
-    <t>Adventurous, Active, Anxious, Building, Cool, Dangerous, Dark, Driving, Exciting, Energetic, Omenous, Suspense</t>
+    <t>Ocean, Africa, Ethnic, Island, Oasis, Beach, Tropical</t>
   </si>
   <si>
     <t>Why do I Try so hard when Everybody Else just Lies</t>
   </si>
   <si>
-    <t>Ocean, Africa, Ethnic, Island, Oasis, Beach, Tropical</t>
-  </si>
-  <si>
-    <t>Happy, Introspective, Cheerful, Uplifting</t>
+    <t>Hip hop, indie, synth, synthpop, whiny, annoying, experimental, pop</t>
   </si>
   <si>
     <t>Doors are Opening</t>
   </si>
   <si>
-    <t>Hip hop, indie, synth, synthpop, whiny, annoying, experimental, pop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complaining, Happy, Upbeat, </t>
+    <t xml:space="preserve">Breakup, open relationship, lost love, I miss you, missing somebody, tropical, beach, ethnic, breaking up, drama, ocean, island, relationship problems, relationship, possibilities, new love, melancholy, jungle, rainforest, </t>
   </si>
   <si>
     <t>Purple Heart</t>
   </si>
   <si>
-    <t xml:space="preserve">Breakup, open relationship, lost love, I miss you, missing somebody, tropical, beach, ethnic, breaking up, drama, ocean, island, relationship problems, relationship, possibilities, new love, melancholy, jungle, rainforest, </t>
-  </si>
-  <si>
-    <t>Carefree, Positive, Romantic, Cool, Hopeful, Sentimental</t>
+    <t>military, funeral, tragic, noble, death, taps, grave, mission, army</t>
   </si>
   <si>
     <t>Zodiactivate</t>
   </si>
   <si>
-    <t>military, funeral, tragic, noble, death, taps, grave, mission, army</t>
-  </si>
-  <si>
-    <t>noble, melancholy, sad, grave</t>
+    <t>crime, drama, tension, drone, dark, eerie, cinematic, trailer, movie, score, video game, dark, scary, intense, dramatic, moody, spiderman, batman, bat man, gotham, spiderman 2, superhero, marvel, dc comics, comics, waiting, wait, build, buildup</t>
   </si>
   <si>
     <t>Mystic Flute</t>
   </si>
   <si>
-    <t>crime, drama, tension, drone, dark, eerie, cinematic, trailer, movie, score, video game, dark, scary, intense, dramatic, moody, spiderman, batman, bat man, gotham, spiderman 2, superhero, marvel, dc comics, comics, waiting, wait, build, buildup</t>
-  </si>
-  <si>
-    <t>dramatic, dark, schizophrenic, eerie, epic, mysterious, suspenseful, ominous, anxious, driving,</t>
+    <t xml:space="preserve">Native, Native American, Tribal, Mystery, Volcano, Island, Ethnic, Flute, Spirit, Ghosts, Ancestors, Documentary, Death, Tribe, Ritual, Hopi, </t>
   </si>
   <si>
     <t>Quadrivium</t>
   </si>
   <si>
-    <t xml:space="preserve">Native, Native American, Tribal, Mystery, Volcano, Island, Ethnic, Flute, Spirit, Ghosts, Ancestors, Documentary, Death, Tribe, Ritual, Hopi, </t>
-  </si>
-  <si>
-    <t>Brooding, Dark, Spooky, Meditative, Melancholy</t>
+    <t>Temptation Island, build, buildup, tension, tense, breakup, fight, voting, judgement, judging, dark, forensic, forensics, ambient, ambiant, ambience, ambiance csi, crime scene, action, puzzle, clue, scifi , run, running, escape</t>
   </si>
   <si>
     <t>30 Melody</t>
   </si>
   <si>
-    <t>Temptation Island, build, buildup, tension, tense, breakup, fight, voting, judgement, judging, dark, forensic, forensics, ambient, ambiant, ambience, ambiance csi, crime scene, action, puzzle, clue, scifi , run, running, escape</t>
-  </si>
-  <si>
-    <t>Dark, tense, tension, moody, suspenseful, builds, buildup, waiting, wait, reveal, eerie, spooky, moody, anxious, brooding, dramatic, intense, conflicted, judging, ominous, spooky, stormy,</t>
+    <t>Lonely, Chinese, eastern, erhu, solo, acoustic, hollow, empty, gloomy, magic, magical, magic spell, enchanted, forest, narnia, harry potter, china, japan, asia, asian, orchestra, orchestral</t>
   </si>
   <si>
     <t>Hot Red</t>
   </si>
   <si>
-    <t>Lonely, Chinese, eastern, erhu, solo, acoustic, hollow, empty, gloomy, magic, magical, magic spell, enchanted, forest, narnia, harry potter, china, japan, asia, asian, orchestra, orchestral</t>
-  </si>
-  <si>
-    <t>calm, dreamy, magical, melancholy, searching, romantic, ambient</t>
+    <t>Summer, Morning, Waking up, Sunrise, Ocean, Beach, Waves, Bunjee Jumping, Skydiving, Adventure, Arcade, Sepia</t>
+  </si>
+  <si>
+    <t>Chill, Adventurous, Cool, Exciting, Fun, Happy, Hopeful, Sweet, Upbeat, Young, Energetic</t>
   </si>
   <si>
     <t>Demon</t>
   </si>
   <si>
-    <t>Summer, Morning, Waking up, Sunrise, Ocean, Beach, Waves, Bunjee Jumping, Skydiving, Adventure, Arcade, Sepia</t>
-  </si>
-  <si>
-    <t>Chill, Adventurous, Cool, Exciting, Fun, Happy, Hopeful, Sweet, Upbeat, Young, Energetic</t>
+    <t>tropical, driving, maserati, car, party, grinding, party, summer, beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driving </t>
+  </si>
+  <si>
+    <t>Confident</t>
   </si>
   <si>
     <t>Sylvan Tragedy</t>
   </si>
   <si>
-    <t>tropical, driving, maserati, car, party, grinding, party, summer, beach</t>
-  </si>
-  <si>
-    <t>sexy, glamorous, driving, hot</t>
+    <t>Erhu, reflective, magical, magic, drama, tragedy, sad, depressing, chinese, china, eastern, orchestra, orchestral, big, sweeping, melody, japan, magic spell, enchanted, death, heartbreak, heartbroken</t>
   </si>
   <si>
     <t>Retrofunk</t>
   </si>
   <si>
-    <t>Erhu, reflective, magical, magic, drama, tragedy, sad, depressing, chinese, china, eastern, orchestra, orchestral, big, sweeping, melody, japan, magic spell, enchanted, death, heartbreak, heartbroken</t>
-  </si>
-  <si>
-    <t>sad, tragic, magical, dreamy, mysterious, romantic</t>
+    <t>Video game, tron, chiptune, hard, fast, hyper, speedy, battle, boss, funk, funky</t>
   </si>
   <si>
     <t>Pull the Trigger</t>
   </si>
   <si>
-    <t>Video game, tron, chiptune, hard, fast, hyper, speedy, battle, boss, funk, funky</t>
-  </si>
-  <si>
-    <t>Funky, driving, videogame</t>
+    <t>pop, groove, romance, kiss, relationship, gun, shoot</t>
   </si>
   <si>
     <t>Asymmetric War</t>
   </si>
   <si>
-    <t>pop, groove, romance, kiss, relationship, gun, shoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">romantic, exciting, </t>
+    <t>Cinematic, trailer, movie, score, video game, dark, scary, intense, dramatic, moody, spiderman, batman, bat man, gotham, spiderman 2, superhero, marvel, dc comics, comic book, supervillain, super, deadpool, acoustic, epic</t>
   </si>
   <si>
     <t>Sunny Side Love</t>
   </si>
   <si>
-    <t>Cinematic, trailer, movie, score, video game, dark, scary, intense, dramatic, moody, spiderman, batman, bat man, gotham, spiderman 2, superhero, marvel, dc comics, comic book, supervillain, super, deadpool, acoustic, epic</t>
-  </si>
-  <si>
-    <t>anxious, dark, determined, dramatic, brooding, intense, ominous, tense, suspenseful, dangerous</t>
+    <t>Sunny, Working, hard work, rock, acoustic, guitar, piano, reality</t>
   </si>
   <si>
     <t>Sea Light</t>
   </si>
   <si>
-    <t>Sunny, Working, hard work, rock, acoustic, guitar, piano, reality</t>
-  </si>
-  <si>
-    <t>Encouraging, uplifting, hopeful</t>
+    <t>Sunrise, Peace, Light, Choir, Coming Home, Realization, Quiet, Relaxed, Ocean, Sea, Beach, Nature, Documentary, Morning, Waking up, Drone, Ambience, Ambient</t>
   </si>
   <si>
     <t>Bright and Shiny</t>
   </si>
   <si>
-    <t>Sunrise, Peace, Light, Choir, Coming Home, Realization, Quiet, Relaxed, Ocean, Sea, Beach, Nature, Documentary, Morning, Waking up, Drone, Ambience, Ambient</t>
-  </si>
-  <si>
-    <t>Chill, Joyful, Happy, Meditative, Relaxed, Positive</t>
+    <t>Cheerful, Uplifting, Low-budget, EDM, repetitive, slow, confident</t>
+  </si>
+  <si>
+    <t>Confident, Solid, Happy, Hopeful</t>
   </si>
   <si>
     <t>For Amber</t>
   </si>
   <si>
-    <t>Cheerful, Uplifting, Low-budget, EDM, repetitive, slow, confident</t>
-  </si>
-  <si>
-    <t>Confident, Solid, Happy, Hopeful</t>
+    <t>christian, uplifting, optimistic, bouncy, synthpop</t>
   </si>
   <si>
     <t>Drive Thru</t>
   </si>
   <si>
-    <t>christian, uplifting, optimistic, bouncy, synthpop</t>
-  </si>
-  <si>
-    <t>happy, uplifiting, optimistic, cheerful</t>
+    <t>upbeat, funny, weird, happy, food, hungry, eating, fast food, dinner, lunch</t>
   </si>
   <si>
     <t>Platinum Flow</t>
   </si>
   <si>
-    <t>upbeat, funny, weird, happy, food, hungry, eating, fast food, dinner, lunch</t>
-  </si>
-  <si>
-    <t>Happy, Cheerful, Flirty</t>
+    <t>landscape, main title, cinematic, epic, orchestral, anticipation, waiting, motion, exploration</t>
+  </si>
+  <si>
+    <t>epic, romantic, exciting</t>
   </si>
   <si>
     <t>Corporate Minimalism 2</t>
   </si>
   <si>
-    <t>landscape, main title, cinematic, epic, orchestral, anticipation, waiting, motion, exploration</t>
-  </si>
-  <si>
-    <t>epic, romantic, exciting</t>
+    <t>Corporate, acoustic, uplifting, innovative, innovation, exciting, motivational, inspiring</t>
+  </si>
+  <si>
+    <t>Innovative, Inspirational, cheerful, confident, energetic, positive</t>
   </si>
   <si>
     <t>Busy Bee</t>
   </si>
   <si>
-    <t>Corporate, acoustic, uplifting, innovative, innovation, exciting, motivational, inspiring</t>
-  </si>
-  <si>
-    <t>Innovative, Inspirational, cheerful, confident, energetic, positive</t>
+    <t>Busy, Manic, Caffeinated, Upbeat, Cheerful, Working, Cleaning, Spring Cleaning, cleaning house, Active</t>
+  </si>
+  <si>
+    <t>Active, Cheerful, Busy, Happy</t>
   </si>
   <si>
     <t>Agate Sculpture</t>
   </si>
   <si>
-    <t>Busy, Manic, Caffeinated, Upbeat, Cheerful, Working, Cleaning, Spring Cleaning, cleaning house, Active</t>
-  </si>
-  <si>
-    <t>Active, Cheerful, Busy, Happy</t>
+    <t>Ambient, Morning, daybreak, video game, menu, main menu, waking up</t>
+  </si>
+  <si>
+    <t>cheerful, content, chill, relaxed</t>
   </si>
   <si>
     <t>Vivaldi Summer Presto</t>
   </si>
   <si>
-    <t>Ambient, Morning, daybreak, video game, menu, main menu, waking up</t>
-  </si>
-  <si>
-    <t>cheerful, content, chill, relaxed</t>
+    <t>Classical, classy, cheerful, upbeat, nature, traditional, vivaldi, antonion</t>
+  </si>
+  <si>
+    <t>zippy, fast, cheerful, upbeat</t>
   </si>
   <si>
     <t>Spring - Japan Dreaming 16</t>
   </si>
   <si>
-    <t>Classical, classy, cheerful, upbeat, nature, traditional, vivaldi, antonion</t>
-  </si>
-  <si>
-    <t>zippy, fast, cheerful, upbeat</t>
+    <t>Morning, Springtime, Art Exhibit, Birds, Birdcalls, Peaceful, Spring, Nature, Documentary, Ambient, Ambiance, Drone, Abstract, Idyllic, Relaxing, Mountains, Countryside</t>
+  </si>
+  <si>
+    <t>Chill, Joyful, Meditative, Moody, Positive, Relaxed, Melancholy</t>
   </si>
   <si>
     <t>Bicycle and a Parasol</t>
   </si>
   <si>
-    <t>Morning, Springtime, Art Exhibit, Birds, Birdcalls, Peaceful, Spring, Nature, Documentary, Ambient, Ambiance, Drone, Abstract, Idyllic, Relaxing, Mountains, Countryside</t>
-  </si>
-  <si>
-    <t>Chill, Joyful, Meditative, Moody, Positive, Relaxed, Melancholy</t>
+    <t>Nostalgic, 1920s, piano solo, sepia, black and white, old, ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lonesome, Nostalgic, </t>
   </si>
   <si>
     <t>I Got a Parking Ticket my Life is Over</t>
   </si>
   <si>
-    <t>Nostalgic, 1920s, piano solo, sepia, black and white, old, ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lonesome, Nostalgic, </t>
+    <t>Dark, Tension, Lurching, intense, drama, dramatic, intensity, Requiem, Dream</t>
+  </si>
+  <si>
+    <t>Herpy Derpy, Evil, Dark, Dramatic</t>
   </si>
   <si>
     <t>Corporate Minimalism</t>
   </si>
   <si>
-    <t>Dark, Tension, Lurching, intense, drama, dramatic, intensity, Requiem, Dream</t>
-  </si>
-  <si>
-    <t>Herpy Derpy, Evil, Dark, Dramatic</t>
+    <t xml:space="preserve">corporate, acoustic, inspirational, motivational, corporation, drug commercial, ad, advertisement, fast, speedy, quick, high tech, hi tech, technology, bay area, startup, keynote, speech, minimal, minimalist, minimalism </t>
   </si>
   <si>
     <t>Chocolate Chip Cookie Dough</t>
   </si>
   <si>
-    <t xml:space="preserve">corporate, acoustic, inspirational, motivational, corporation, drug commercial, ad, advertisement, fast, speedy, quick, high tech, hi tech, technology, bay area, startup, keynote, speech, minimal, minimalist, minimalism </t>
+    <t>Ice cream, Ice cream truck, magic, toys, playful, shopping, futurebass, wobble, coffee shop, toy factory</t>
+  </si>
+  <si>
+    <t>Bouncy, Cool, Fun, Happy, Joyful, Light, Uplifting, Sweet, Playful, Cheerful</t>
   </si>
   <si>
     <t>Angelic Painting</t>
   </si>
   <si>
-    <t>Ice cream, Ice cream truck, magic, toys, playful, shopping, futurebass, wobble, coffee shop, toy factory</t>
-  </si>
-  <si>
-    <t>Bouncy, Cool, Fun, Happy, Joyful, Light, Uplifting, Sweet, Playful, Cheerful</t>
+    <t>Wholesome, sweet, reminiscent, memories, memory, nostalgic, childhood, child, video game, toys, toy store, sweet, kind, nostalgia, game, warmth, warm, cheerful, acoustic</t>
+  </si>
+  <si>
+    <t>nostalgic, content, chill, cheerful, happy, hopeful, peaceful, pleasant, uplifting, relaxed, sweet, whimsical</t>
   </si>
   <si>
     <t>Alone on the Sand</t>
   </si>
   <si>
-    <t>Wholesome, sweet, reminiscent, memories, memory, nostalgic, childhood, child, video game, toys, toy store, sweet, kind, nostalgia, game, warmth, warm, cheerful, acoustic</t>
-  </si>
-  <si>
-    <t>nostalgic, content, chill, cheerful, happy, hopeful, peaceful, pleasant, uplifting, relaxed, sweet, whimsical</t>
+    <t xml:space="preserve">Lonely, Uncertain, Dark, Waiting, Creepy, Spooky, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lonely, Uncertain, Curious, Moody, Melancholy </t>
   </si>
   <si>
     <t>Ruminations</t>
   </si>
   <si>
-    <t xml:space="preserve">Lonely, Uncertain, Dark, Waiting, Creepy, Spooky, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lonely, Uncertain, Curious, Moody, Melancholy </t>
+    <t>rain, gloomy, depressing, anticipation, verdict, courtroom, underscore, crying, tears, orphan</t>
+  </si>
+  <si>
+    <t>gloomy, melancholy, depressing, dark, sad</t>
   </si>
   <si>
     <t>Eight Bit Simplicity</t>
   </si>
   <si>
-    <t>rain, gloomy, depressing, anticipation, verdict, courtroom, underscore, crying, tears, orphan</t>
-  </si>
-  <si>
-    <t>gloomy, melancholy, depressing, dark, sad</t>
+    <t>Videogame, game boy, chiptune, 8-bit, zelda, mario, amiga, commodore, tracker, perpetual motion</t>
+  </si>
+  <si>
+    <t>Contented, Happy</t>
   </si>
   <si>
     <t>Mountain Refuge</t>
   </si>
   <si>
-    <t>Videogame, game boy, chiptune, 8-bit, zelda, mario, amiga, commodore, tracker, perpetual motion</t>
-  </si>
-  <si>
-    <t>Contented, Happy</t>
+    <t>old record, old, french, france, morning, mountains, manor, refuge, idyllic, arrival, peace, serenity, serene, parasol, soda pop, dog, mountain range, Nature, Lake,</t>
+  </si>
+  <si>
+    <t>Calm, Dreamy, Nostalgic, Relaxing, Romantic, Melancholy, Sentimental, whimsical</t>
   </si>
   <si>
     <t>Divine Mission</t>
   </si>
   <si>
-    <t>old record, old, french, france, morning, mountains, manor, refuge, idyllic, arrival, peace, serenity, serene, parasol, soda pop, dog, mountain range, Nature, Lake,</t>
-  </si>
-  <si>
-    <t>Calm, Dreamy, Nostalgic, Relaxing, Romantic, Melancholy, Sentimental, whimsical</t>
+    <t xml:space="preserve">Corporate, Innovative, Insprational, motoric, motion, inspiration, cello, melody, car, lexus, luxury, suv, luxurious, premium, commercial, ad, advertisement, medical, drug, medication, </t>
+  </si>
+  <si>
+    <t>building, confident, cool, driving, energetic, epic, exciting, smooth, inspirational</t>
   </si>
   <si>
     <t>Going Up</t>
   </si>
   <si>
-    <t xml:space="preserve">Corporate, Innovative, Insprational, motoric, motion, inspiration, cello, melody, car, lexus, luxury, suv, luxurious, premium, commercial, ad, advertisement, medical, drug, medication, </t>
-  </si>
-  <si>
-    <t>building, confident, cool, driving, energetic, epic, exciting, smooth, inspirational</t>
+    <t>Commercial, Modern, Hip hop, EDM, Club, Driving at night, Driving, Pop Beat, Squirrel Vocals, Smoking, Smoky</t>
+  </si>
+  <si>
+    <t>Relaxed, Mysterious, Dark, Cool, Sexy, Romantic, Sultry</t>
   </si>
   <si>
     <t>Ready to Go</t>
   </si>
   <si>
-    <t>Commercial, Modern, Hip hop, EDM, Club, Driving at night, Driving, Pop Beat, Squirrel Vocals, Smoking, Smoky</t>
-  </si>
-  <si>
-    <t>Relaxed, Mysterious, Dark, Cool, Sexy, Romantic, Sultry</t>
+    <t>beach, summer, tropical, pop, tropical house, house, epic, anthem, party, cycle, drinking, cocaine, island, hawaii, ocean, vacation, travel, upbeat, temptation</t>
+  </si>
+  <si>
+    <t>joyful, cheerful, upbeat, party, epic, carefree, fun, glamorous, happy, playful, upbeat</t>
   </si>
   <si>
     <t>Cyclotron</t>
   </si>
   <si>
-    <t>beach, summer, tropical, pop, tropical house, house, epic, anthem, party, cycle, drinking, cocaine, island, hawaii, ocean, vacation, travel, upbeat, temptation</t>
-  </si>
-  <si>
-    <t>joyful, cheerful, upbeat, party, epic, carefree, fun, glamorous, happy, playful, upbeat</t>
+    <t>Chase, Running, Tesion, Excited, Getaway, Car chase, Escaping the Scene, Bank Robbery, Motorcycle</t>
+  </si>
+  <si>
+    <t>Excited, Anxious, Intense, Running, Fearful,</t>
   </si>
   <si>
     <t>Reliable Contact</t>
   </si>
   <si>
-    <t>Chase, Running, Tesion, Excited, Getaway, Car chase, Escaping the Scene, Bank Robbery, Motorcycle</t>
-  </si>
-  <si>
-    <t>Excited, Anxious, Intense, Running, Fearful,</t>
+    <t>Dance, Chase, Chase Scene, Drug Dealing, Spies, Spy, Synth Bass, New Wave, Spying, Club, Disco, Discotheque Detective, Investigator, Investigation, Secret Agent, Operation, Operative, 1980s, 1980, EDM, Electronic Dance Music, Electronic, 80s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneaky, Dark, Moody, Mysterious, Resolute, Driving, Determined, Powerful, </t>
   </si>
   <si>
     <t>Arierre</t>
   </si>
   <si>
-    <t>Dance, Chase, Chase Scene, Drug Dealing, Spies, Spy, Synth Bass, New Wave, Spying, Club, Disco, Discotheque Detective, Investigator, Investigation, Secret Agent, Operation, Operative, 1980s, 1980, EDM, Electronic Dance Music, Electronic, 80s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sneaky, Dark, Moody, Mysterious, Resolute, Driving, Determined, Powerful, </t>
+    <t>Tell-Tale Heart, Evil, Murder, Robbery, Escape, Serial Killer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scary, Intense, Evil, Brooding, Dark, </t>
   </si>
   <si>
     <t>17 Keynote</t>
   </si>
   <si>
-    <t>Tell-Tale Heart, Evil, Murder, Robbery, Escape, Serial Killer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scary, Intense, Evil, Brooding, Dark, </t>
+    <t>innovative, uplifting, motivational, corporate, keynote, speech, technology, innovation, high tech</t>
+  </si>
+  <si>
+    <t>motivational, inspiring</t>
   </si>
   <si>
     <t>Sweet Tart (Euphoria</t>
   </si>
   <si>
-    <t>innovative, uplifting, motivational, corporate, keynote, speech, technology, innovation, high tech</t>
-  </si>
-  <si>
-    <t>motivational, inspiring</t>
+    <t xml:space="preserve">Commercial, Candy, Sweet Tarts, Cute, Sweet, Anime, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cute, Uplifting, Relaxing, </t>
   </si>
   <si>
     <t>Cosmic Information Party</t>
   </si>
   <si>
-    <t xml:space="preserve">Commercial, Candy, Sweet Tarts, Cute, Sweet, Anime, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cute, Uplifting, Relaxing, </t>
+    <t>Childish, Owl City, melodic, cheerful, cute, bubbly, video game, casual game, gamer</t>
+  </si>
+  <si>
+    <t>Happy, Uplifting, cheerful</t>
   </si>
   <si>
     <t>Adventure Begins</t>
@@ -1044,607 +987,598 @@
     <t>D</t>
   </si>
   <si>
-    <t>Childish, Owl City, melodic, cheerful, cute, bubbly, video game, casual game, gamer</t>
-  </si>
-  <si>
-    <t>Happy, Uplifting, cheerful</t>
+    <t>Pokemon, Adventure, journey, traveling, excitement, digimon, anime, animation, cartoon, beginning, pokemon battle, video game, gamer, gaming, game boy, nintendo, battle, ship, sailing, gaming, acoustic, epic</t>
+  </si>
+  <si>
+    <t>adventurous, cheerful, confident, determined, epic, excited, fun, victorious</t>
   </si>
   <si>
     <t>Bird of Paradise</t>
   </si>
   <si>
-    <t>Pokemon, Adventure, journey, traveling, excitement, digimon, anime, animation, cartoon, beginning, pokemon battle, video game, gamer, gaming, game boy, nintendo, battle, ship, sailing, gaming, acoustic, epic</t>
-  </si>
-  <si>
-    <t>adventurous, cheerful, confident, determined, epic, excited, fun, victorious</t>
+    <t>cinematic, cartoon, general midi, old, retro, romance, romantic, heart-wrenching</t>
+  </si>
+  <si>
+    <t>moody, uplifting</t>
   </si>
   <si>
     <t>Luxe (Defining Moment)</t>
   </si>
   <si>
-    <t>cinematic, cartoon, general midi, old, retro, romance, romantic, heart-wrenching</t>
-  </si>
-  <si>
-    <t>moody, uplifting</t>
+    <t xml:space="preserve">Commercial, Car, Driving, Fast, Majestic, Epic, EDM, Dance Music, Luxury, </t>
+  </si>
+  <si>
+    <t>Majestic, Epic, Awesome, Thrilling, Exciting</t>
   </si>
   <si>
     <t>Grabbing Stars</t>
   </si>
   <si>
-    <t xml:space="preserve">Commercial, Car, Driving, Fast, Majestic, Epic, EDM, Dance Music, Luxury, </t>
-  </si>
-  <si>
-    <t>Majestic, Epic, Awesome, Thrilling, Exciting</t>
+    <t>Videogame, game boy, chiptune, 8-bit, zelda, mario, amiga, commodore, tracker</t>
+  </si>
+  <si>
+    <t>Hard, Caffeinated, Intense</t>
   </si>
   <si>
     <t>Silicon Heart</t>
   </si>
   <si>
-    <t>Videogame, game boy, chiptune, 8-bit, zelda, mario, amiga, commodore, tracker</t>
-  </si>
-  <si>
-    <t>Hard, Caffeinated, Intense</t>
+    <t>Trailer, cinematic, marvel, sci-fi, crime, heist, chase, chase scene, dc comics, jason bourne, bourne, spy, motorcycle, car chase, 007, james bond, science fiction, criminal</t>
+  </si>
+  <si>
+    <t>dark, determined, dramatic, brooding, intense, ominous, tense, suspenseful, dangerous, active, driving, tense</t>
   </si>
   <si>
     <t>Turbulence of Self</t>
   </si>
   <si>
-    <t>Trailer, cinematic, marvel, sci-fi, crime, heist, chase, chase scene, dc comics, jason bourne, bourne, spy, motorcycle, car chase, 007, james bond, science fiction, criminal</t>
-  </si>
-  <si>
-    <t>dark, determined, dramatic, brooding, intense, ominous, tense, suspenseful, dangerous, active, driving, tense</t>
+    <t xml:space="preserve">Drama, Action, Fight, Chinese, Japanese, kung fu, ninja, crouching tiger hidden dragon, sword, katana, scrapping, chase scene, chase, long, throwing star, kimono, karate, chaos, chaotic, atonal, harsh, acoustic, epic, tension, waiting, wait, </t>
+  </si>
+  <si>
+    <t>dangerous, aggressive, gloomy, mysterious, ominous, sad, dramatic, dark, epic</t>
   </si>
   <si>
     <t>Epic Commitment</t>
   </si>
   <si>
-    <t xml:space="preserve">Drama, Action, Fight, Chinese, Japanese, kung fu, ninja, crouching tiger hidden dragon, sword, katana, scrapping, chase scene, chase, long, throwing star, kimono, karate, chaos, chaotic, atonal, harsh, acoustic, epic, tension, waiting, wait, </t>
-  </si>
-  <si>
-    <t>dangerous, aggressive, gloomy, mysterious, ominous, sad, dramatic, dark, epic</t>
+    <t xml:space="preserve">Epic, Orchestra, Game of Thrones, Main Theme, Title Theme, Thematic, Orchestral, Melody, Melodic, </t>
+  </si>
+  <si>
+    <t>Uplifting, Epic, Romantic, Heroic, Confident, Dramatic, Exciting, Inspirational</t>
   </si>
   <si>
     <t>Timewaster</t>
   </si>
   <si>
-    <t xml:space="preserve">Epic, Orchestra, Game of Thrones, Main Theme, Title Theme, Thematic, Orchestral, Melody, Melodic, </t>
-  </si>
-  <si>
-    <t>Uplifting, Epic, Romantic, Heroic, Confident, Dramatic, Exciting, Inspirational</t>
+    <t>tropical, piano, synth, lead, melody, underscore, cheap, quick, pop, pop music, groove, thrills, synthesizer, chill, youtube, instagram, tiktok, tik tok, uplifting, bouncy, calm, casual, every day, cheerful happy, easy, fun, happy, joyful, light, optimistic, positive, soft, video game</t>
+  </si>
+  <si>
+    <t>Annoying, chill, fun, happy</t>
   </si>
   <si>
     <t>Airship Discovery</t>
   </si>
   <si>
-    <t>tropical, piano, synth, lead, melody, underscore, cheap, quick, pop, pop music, groove, thrills, synthesizer, chill, youtube, instagram, tiktok, tik tok, uplifting, bouncy, calm, casual, every day, cheerful happy, easy, fun, happy, joyful, light, optimistic, positive, soft, video game</t>
-  </si>
-  <si>
-    <t>Annoying, chill, fun, happy</t>
+    <t>epic, anime, animation, sweeping, score</t>
+  </si>
+  <si>
+    <t>triumphant, joyful, epic, happy</t>
   </si>
   <si>
     <t>The Glowing Forest - The Hero</t>
   </si>
   <si>
-    <t>epic, anime, animation, sweeping, score</t>
-  </si>
-  <si>
-    <t>triumphant, joyful, epic, happy</t>
+    <t>Magic, Forest, Potion, Riding, Horses, Peter Pan, Neverland, Ride, Hero, Heroic</t>
+  </si>
+  <si>
+    <t>Dramatic, Magical, Mysterious, Whimsical, Driving, Heroic</t>
   </si>
   <si>
     <t>Skellig</t>
   </si>
   <si>
-    <t>Magic, Forest, Potion, Riding, Horses, Peter Pan, Neverland, Ride, Hero, Heroic</t>
-  </si>
-  <si>
-    <t>Dramatic, Magical, Mysterious, Whimsical, Driving, Heroic</t>
+    <t>Irish, Documentary, Romantic, Romance, Majestic, Sweeping, Grandeur, Lonely, Isolated, Epic, Grand</t>
+  </si>
+  <si>
+    <t>Grand, Epic, Magical, Romantic</t>
   </si>
   <si>
     <t>Hermes the Hermit Crab</t>
   </si>
   <si>
-    <t>Irish, Documentary, Romantic, Romance, Majestic, Sweeping, Grandeur, Lonely, Isolated, Epic, Grand</t>
-  </si>
-  <si>
-    <t>Grand, Epic, Magical, Romantic</t>
+    <t>beach, happy, carefree, ocean, island, summer, videogame, caribbean, latin</t>
+  </si>
+  <si>
+    <t>happy, carefree, latin, chill, joyful</t>
   </si>
   <si>
     <t>Bounce the Boss</t>
   </si>
   <si>
-    <t>beach, happy, carefree, ocean, island, summer, videogame, caribbean, latin</t>
-  </si>
-  <si>
-    <t>happy, carefree, latin, chill, joyful</t>
+    <t>Fun, Retro, Slow</t>
   </si>
   <si>
     <t>A Beach Margarita</t>
   </si>
   <si>
-    <t>Fun, Retro, Slow</t>
+    <t>beach, happy, carefree, ocean, island, summer, indie, margarita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relaxed, joyful, upbeat, </t>
   </si>
   <si>
     <t>Our Love's Like an Apple</t>
   </si>
   <si>
-    <t>beach, happy, carefree, ocean, island, summer, indie, margarita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relaxed, joyful, upbeat, </t>
+    <t>Romance, Romantic, Apple, Sweet, Cute, Cutesy, Solo, Guitar/vocal</t>
+  </si>
+  <si>
+    <t>Romantic, Happy</t>
   </si>
   <si>
     <t>Squareliner</t>
   </si>
   <si>
-    <t>Romance, Romantic, Apple, Sweet, Cute, Cutesy, Solo, Guitar/vocal</t>
-  </si>
-  <si>
-    <t>Romantic, Happy</t>
+    <t>hardcore, heavy, metal, truck, action, extreme sports, atv, commercial, hard-hitting, rock, heavy metal, football, wrestling, sports, sport, ad, advertisement, hard core, skating, skateboard, skateboarding, red bull, energy drink, muddin</t>
+  </si>
+  <si>
+    <t>aggressive, dark, angry, confident, cool, determined, motivated, strong, triumphant</t>
   </si>
   <si>
     <t>The Glowing Forest - Riding</t>
   </si>
   <si>
-    <t>hardcore, heavy, metal, truck, action, extreme sports, atv, commercial, hard-hitting, rock, heavy metal, football, wrestling, sports, sport, ad, advertisement, hard core, skating, skateboard, skateboarding, red bull, energy drink, muddin</t>
-  </si>
-  <si>
-    <t>aggressive, dark, angry, confident, cool, determined, motivated, strong, triumphant</t>
-  </si>
-  <si>
     <t>Headwinds</t>
   </si>
   <si>
+    <t>Dramatic, Hybrid, Epic, melodic, videogame, adventure, adventurous, Superhero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark, Dramatic, Heroic </t>
+  </si>
+  <si>
     <t>Otro Narcorrido</t>
   </si>
   <si>
-    <t>Dramatic, Hybrid, Epic, melodic, videogame, adventure, adventurous, Superhero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark, Dramatic, Heroic </t>
+    <t>drugs, narco, latin, latin america, cartel, pablo escobar, cocaine</t>
+  </si>
+  <si>
+    <t>dark, moody, melancholy</t>
   </si>
   <si>
     <t>Moodflower Nocturne</t>
   </si>
   <si>
-    <t>drugs, narco, latin, latin america, cartel, pablo escobar, cocaine</t>
-  </si>
-  <si>
-    <t>dark, moody, melancholy</t>
+    <t xml:space="preserve">Classical, Nocturne, Chopin, Ravel, Live, Real Piano, </t>
+  </si>
+  <si>
+    <t>Moody, Eerie, Dramatic, Romantic</t>
   </si>
   <si>
     <t>Set Sail, Lover</t>
   </si>
   <si>
-    <t xml:space="preserve">Classical, Nocturne, Chopin, Ravel, Live, Real Piano, </t>
-  </si>
-  <si>
-    <t>Moody, Eerie, Dramatic, Romantic</t>
+    <t>heart-wrenching, poignant, gray, misty, haunting, hopeful, hope, slow, largo, score, drama, dramatic, death, heartbreak, heartbroken, romance, romantic, moment, reality tv, acoustic</t>
+  </si>
+  <si>
+    <t>dramatic, lonely, heartbroken, emotional, sad, melancholy, contemplative, dark</t>
   </si>
   <si>
     <t>Glass Soul</t>
   </si>
   <si>
-    <t>heart-wrenching, poignant, gray, misty, haunting, hopeful, hope, slow, largo, score, drama, dramatic, death, heartbreak, heartbroken, romance, romantic, moment, reality tv, acoustic</t>
-  </si>
-  <si>
-    <t>dramatic, lonely, heartbroken, emotional, sad, melancholy, contemplative, dark</t>
+    <t>Glassy, hip hop, beat, sedate, rap, glass, shiny, tik tok, instagram, hangover, hung over, hiphop, edm, relaxed, melancholy, low, lil nas x, ethereal, surreal</t>
+  </si>
+  <si>
+    <t>calm, chill, cool, contemplative, laid-back, lonely, pensive, reflective, smooth</t>
   </si>
   <si>
     <t>March to Infinity</t>
   </si>
   <si>
-    <t>Glassy, hip hop, beat, sedate, rap, glass, shiny, tik tok, instagram, hangover, hung over, hiphop, edm, relaxed, melancholy, low, lil nas x, ethereal, surreal</t>
-  </si>
-  <si>
-    <t>calm, chill, cool, contemplative, laid-back, lonely, pensive, reflective, smooth</t>
+    <t>Heroic, Resolute</t>
   </si>
   <si>
     <t>You Are Victorious</t>
   </si>
   <si>
-    <t>Heroic, Resolute</t>
+    <t>Ecstatic, uplifting, cheerful</t>
   </si>
   <si>
     <t>Resolution and Wisdom</t>
   </si>
   <si>
-    <t>Ecstatic, uplifting, cheerful</t>
+    <t>Tragic, tragedy, sad, sadness, lonely, reflective, remorseful, regret, remorse, regret, heartbreak, poignant, romantic, romance, slow, breakup, death, acoustic,</t>
+  </si>
+  <si>
+    <t>calm, contemplative, sad, dramatic, melancholy, loss, moody, pensive, thoughtful</t>
   </si>
   <si>
     <t>Minstrel's Theme</t>
   </si>
   <si>
-    <t>Tragic, tragedy, sad, sadness, lonely, reflective, remorseful, regret, remorse, regret, heartbreak, poignant, romantic, romance, slow, breakup, death, acoustic,</t>
-  </si>
-  <si>
-    <t>calm, contemplative, sad, dramatic, melancholy, loss, moody, pensive, thoughtful</t>
+    <t>medieval, history, fantasy, architecture, art, castle, larp, photography, knight, middleages, reenactment, travel, vikings, cosplay, medievaltimes, mittelalter, viking, sword, warrior, knights, europe, medievalart, larping, armor, gothic, medievalarchitecture, nature, pagan, medievalworld, travelphotography, picoftheday, medievale, castles, france, church, larper, middleage, medioevo, history, medievalhistory, italia, italy, photooftheday, handmade, medievalreenactment, archery, costume, germany, photo, landscape, instagood, illustration, historical, drawing, mittelaltermarkt, moyenage, arthistory, castle, cosplay, arte, davinci, milan, portrait, elizabethan, leonardodavinci, thcenturyfashion, queenelizabethi, marystuart, jewellery, handmade, fallforcostume, anneboylen, elizabethan, handmadejewellery, houseoftudor, tudorstyle, elizabethandress, historicaljewellery, masterjakobus, michelangelo, tudorfashion, hechoamano, madeinspain, historicaljewelry, deutscherenaissance, valdeloire, aristocrat, aristocracy, peon, lord, king, tyrant, tyranny, village, villager, bard, minstrel,</t>
+  </si>
+  <si>
+    <t>peaceful, melancholy, magical, noble, relaxed, positive</t>
   </si>
   <si>
     <t>Puffin Passion</t>
   </si>
   <si>
-    <t>medieval, history, fantasy, architecture, art, castle, larp, photography, knight, middleages, reenactment, travel, vikings, cosplay, medievaltimes, mittelalter, viking, sword, warrior, knights, europe, medievalart, larping, armor, gothic, medievalarchitecture, nature, pagan, medievalworld, travelphotography, picoftheday, medievale, castles, france, church, larper, middleage, medioevo, history, medievalhistory, italia, italy, photooftheday, handmade, medievalreenactment, archery, costume, germany, photo, landscape, instagood, illustration, historical, drawing, mittelaltermarkt, moyenage, arthistory, castle, cosplay, arte, davinci, milan, portrait, elizabethan, leonardodavinci, thcenturyfashion, queenelizabethi, marystuart, jewellery, handmade, fallforcostume, anneboylen, elizabethan, handmadejewellery, houseoftudor, tudorstyle, elizabethandress, historicaljewellery, masterjakobus, michelangelo, tudorfashion, hechoamano, madeinspain, historicaljewelry, deutscherenaissance, valdeloire, aristocrat, aristocracy, peon, lord, king, tyrant, tyranny, village, villager, bard, minstrel,</t>
-  </si>
-  <si>
-    <t>peaceful, melancholy, magical, noble, relaxed, positive</t>
+    <t xml:space="preserve">irish, ireland, score, documentary, medical, creation, painting, medicine, house, nature, natural, discovery, animal planet, building things, construction, cheerful, happy, industrious, nature documentary, history channel, puffins, puffin   </t>
+  </si>
+  <si>
+    <t>cheerful, adventurous, fun, happy, light, industrious, nature, active, exciting</t>
   </si>
   <si>
     <t>Adularescence</t>
   </si>
   <si>
-    <t xml:space="preserve">irish, ireland, score, documentary, medical, creation, painting, medicine, house, nature, natural, discovery, animal planet, building things, construction, cheerful, happy, industrious, nature documentary, history channel, puffins, puffin   </t>
-  </si>
-  <si>
-    <t>cheerful, adventurous, fun, happy, light, industrious, nature, active, exciting</t>
+    <t>Beach, tropical, chill, beach, island, pop, ocean, Temptation Island, reality tv, reality show</t>
+  </si>
+  <si>
+    <t>Chill, relaxed, upbeat, happy, cheerful, low-key, carefree</t>
   </si>
   <si>
     <t>A Deep Dark Dirge</t>
   </si>
   <si>
-    <t>Beach, tropical, chill, beach, island, pop, ocean, Temptation Island, reality tv, reality show</t>
-  </si>
-  <si>
-    <t>Chill, relaxed, upbeat, happy, cheerful, low-key, carefree</t>
+    <t xml:space="preserve">Dark, Epic, Ominous, brooding, </t>
   </si>
   <si>
     <t>Subterranean Ambiance 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Dark, Epic, Ominous, brooding, </t>
+    <t>Ambient, Ambiant, Ambiance, Ambience, Erhu, Chinese, Eastern, China, loop, background, underscore, melancholy, sad, dark, gloomy, searching, lonely, idle, empty, quiet, deep, calm, contemplative, cool, melancholic, dreamy, ethereal, haunting, hypnotic, magical, mournful, mystical, peaceful, reflective, romantic, smooth, tranquil, piano, strings, violin, orchestra</t>
+  </si>
+  <si>
+    <t>Idle, Reflective, Waiting, Dreamy, Chill</t>
   </si>
   <si>
     <t>Subterranean Ambiance 3</t>
   </si>
   <si>
-    <t>Ambient, Ambiant, Ambiance, Ambience, Erhu, Chinese, Eastern, China, loop, background, underscore, melancholy, sad, dark, gloomy, searching, lonely, idle, empty, quiet, deep, calm, contemplative, cool, melancholic, dreamy, ethereal, haunting, hypnotic, magical, mournful, mystical, peaceful, reflective, romantic, smooth, tranquil, piano, strings, violin, orchestra</t>
-  </si>
-  <si>
-    <t>Idle, Reflective, Waiting, Dreamy, Chill</t>
-  </si>
-  <si>
     <t>Birds</t>
   </si>
   <si>
+    <t xml:space="preserve">Irish, Documentary, Romantic, Romance, Industrious, Active, Uplifting, Pastoral, Sweet, </t>
+  </si>
+  <si>
+    <t>Cheerful, Industrious, Uplifting</t>
+  </si>
+  <si>
     <t>Nepenthes</t>
   </si>
   <si>
-    <t xml:space="preserve">Irish, Documentary, Romantic, Romance, Industrious, Active, Uplifting, Pastoral, Sweet, </t>
-  </si>
-  <si>
-    <t>Cheerful, Industrious, Uplifting</t>
+    <t xml:space="preserve">Uplfiting, Content, Melodic, Cheerful, casual, everyday, home improvement, </t>
+  </si>
+  <si>
+    <t>Cheerful, happy, uplifting</t>
   </si>
   <si>
     <t>Prisoner of Love - Obsession</t>
   </si>
   <si>
-    <t xml:space="preserve">Uplfiting, Content, Melodic, Cheerful, casual, everyday, home improvement, </t>
-  </si>
-  <si>
-    <t>Cheerful, happy, uplifting</t>
+    <t>Drama, Tension, Drums, Percussion, Breakup, fight, lovers, quarrel, suspense, lover, temptation, epic, hang drum, beach, island, tropical, summer, love</t>
+  </si>
+  <si>
+    <t>confident, energetic, driving, epic, exciting, tense, dark, dramatic</t>
   </si>
   <si>
     <t>Wicked Gambit</t>
   </si>
   <si>
-    <t>Drama, Tension, Drums, Percussion, Breakup, fight, lovers, quarrel, suspense, lover, temptation, epic, hang drum, beach, island, tropical, summer, love</t>
-  </si>
-  <si>
-    <t>confident, energetic, driving, epic, exciting, tense, dark, dramatic</t>
+    <t>Dark, dramatic, tense, reality tv, tension, action, drama, dramatic</t>
+  </si>
+  <si>
+    <t>Intense, Dramatic, Angry</t>
   </si>
   <si>
     <t>Adagvng</t>
   </si>
   <si>
-    <t>Dark, dramatic, tense, reality tv, tension, action, drama, dramatic</t>
-  </si>
-  <si>
-    <t>Intense, Dramatic, Angry</t>
+    <t>Heavy, Hiphop, beat, beats, hip hop, dark, trap, party, drinking, partying, rap, rapper, angry, aggressive, confident, cool, determined, disturbing, dramatic, energetic, evil, groovy, intense, ominous, foreboding, powerful, strange, suspense urban, synthesiser, drum machine, piano, Gangster</t>
+  </si>
+  <si>
+    <t>Dark, Hardcore, Heavy</t>
   </si>
   <si>
     <t>Lime Lacroix</t>
   </si>
   <si>
-    <t>Heavy, Hiphop, beat, beats, hip hop, dark, trap, party, drinking, partying, rap, rapper, angry, aggressive, confident, cool, determined, disturbing, dramatic, energetic, evil, groovy, intense, ominous, foreboding, powerful, strange, suspense urban, synthesiser, drum machine, piano, Gangster</t>
-  </si>
-  <si>
-    <t>Dark, Hardcore, Heavy</t>
+    <t>Trailer, Epic, Commercial, Superhero, Marvel, DC, Batman, Spiderman, Spiderman 2, Flying, Batmobile, Chase Sequence,</t>
+  </si>
+  <si>
+    <t>Intense, Driving, Epic, Dark, Moody, Majestic,</t>
   </si>
   <si>
     <t>Deep Melancholy</t>
   </si>
   <si>
-    <t>Trailer, Epic, Commercial, Superhero, Marvel, DC, Batman, Spiderman, Spiderman 2, Flying, Batmobile, Chase Sequence,</t>
-  </si>
-  <si>
-    <t>Intense, Driving, Epic, Dark, Moody, Majestic,</t>
+    <t>Serenade, Cello Solo, Breakup, Death, Sadness, Memories, Lonely</t>
+  </si>
+  <si>
+    <t>Sad, Regretful, Melancholy, Deep, Blue, Lonely</t>
   </si>
   <si>
     <t>Arise</t>
   </si>
   <si>
-    <t>Serenade, Cello Solo, Breakup, Death, Sadness, Memories, Lonely</t>
-  </si>
-  <si>
-    <t>Sad, Regretful, Melancholy, Deep, Blue, Lonely</t>
+    <t>Disco, Discotheque, New Wave, Cocaine, Party, Ghostbusters, Retro, Throwback, 1980s, 1980, 80s, Synth, Synth Brass, Saturday Night Fever, DJ, Disc Jockey, Synth Pop</t>
+  </si>
+  <si>
+    <t>Confident, Cool, Nostalgic, Driving, Party, Smooth, Strong, Upbeat</t>
   </si>
   <si>
     <t>Electrum</t>
   </si>
   <si>
-    <t>Disco, Discotheque, New Wave, Cocaine, Party, Ghostbusters, Retro, Throwback, 1980s, 1980, 80s, Synth, Synth Brass, Saturday Night Fever, DJ, Disc Jockey, Synth Pop</t>
-  </si>
-  <si>
-    <t>Confident, Cool, Nostalgic, Driving, Party, Smooth, Strong, Upbeat</t>
+    <t xml:space="preserve">Corporate, Uplifting, Cheesy, Tacky, Epic, </t>
+  </si>
+  <si>
+    <t>Happy, Inspirational, Motivational</t>
   </si>
   <si>
     <t>Puffin Ditty</t>
   </si>
   <si>
-    <t xml:space="preserve">Corporate, Uplifting, Cheesy, Tacky, Epic, </t>
-  </si>
-  <si>
-    <t>Happy, Inspirational, Motivational</t>
-  </si>
-  <si>
     <t>Shopping Spree</t>
   </si>
   <si>
+    <t xml:space="preserve">Corporate, generic, piano, rock, shopping, boring, bland, everyday, </t>
+  </si>
+  <si>
+    <t>Everyday, bland, content, happy</t>
+  </si>
+  <si>
     <t>Battle Ships</t>
   </si>
   <si>
-    <t xml:space="preserve">Corporate, generic, piano, rock, shopping, boring, bland, everyday, </t>
-  </si>
-  <si>
-    <t>Everyday, bland, content, happy</t>
+    <t>Adventure, adventurous, pirates, pokemon, action, comics, cartoons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventurous, exciting, anticipatory, </t>
   </si>
   <si>
     <t>Evenfall</t>
   </si>
   <si>
-    <t>Adventure, adventurous, pirates, pokemon, action, comics, cartoons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adventurous, exciting, anticipatory, </t>
+    <t>Loss, Tragedy, Breakup, Romance, Nostalgia, Cheating, Remember, Childhood, Remembering</t>
+  </si>
+  <si>
+    <t>Gloomy, Melancholy, Moody, Romantic, Dark, Mourning, Sad</t>
   </si>
   <si>
     <t>Tourmaline</t>
   </si>
   <si>
-    <t>Loss, Tragedy, Breakup, Romance, Nostalgia, Cheating, Remember, Childhood, Remembering</t>
-  </si>
-  <si>
-    <t>Gloomy, Melancholy, Moody, Romantic, Dark, Mourning, Sad</t>
+    <t>indie, boys, upbeat, electronic, pop, electronica, PC, Music, videogame, uplifting, cheerful, sweet, cheerful happy, bouncy, calm, fun, happy, joyful, light, playful, positive, video game, drum machine, synthesiser, electric piano, friendly, cute, electronica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy, Nostalgic, </t>
   </si>
   <si>
     <t>Peaceful Curiosity</t>
   </si>
   <si>
-    <t>indie, boys, upbeat, electronic, pop, electronica, PC, Music, videogame, uplifting, cheerful, sweet, cheerful happy, bouncy, calm, fun, happy, joyful, light, playful, positive, video game, drum machine, synthesiser, electric piano, friendly, cute, electronica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy, Nostalgic, </t>
+    <t>water level, underwater, water, waterfall, submarine, meditation, ambient, ambiant, ambience, ambiance peace, peaceful, swimming, fish, sunset, evening, dusk, sweet, relaxing, chill, content, happy, nail salon, spa, massage, theme park, amusement park, game, video game, videogame, gamer, gaming, playstation, nintendo, xbox</t>
+  </si>
+  <si>
+    <t>calm, cheerful, chill, content, dreamy, happy, hopeful, laidback, magical, peaceful, pleasant, relaxing, uplifting</t>
   </si>
   <si>
     <t>Beginning of Something Beautiful, The</t>
   </si>
   <si>
-    <t>water level, underwater, water, waterfall, submarine, meditation, ambient, ambiant, ambience, ambiance peace, peaceful, swimming, fish, sunset, evening, dusk, sweet, relaxing, chill, content, happy, nail salon, spa, massage, theme park, amusement park, game, video game, videogame, gamer, gaming, playstation, nintendo, xbox</t>
-  </si>
-  <si>
-    <t>calm, cheerful, chill, content, dreamy, happy, hopeful, laidback, magical, peaceful, pleasant, relaxing, uplifting</t>
+    <t>Wholesome, sweet, reminiscent, memories, memory, nostalgic, childhood, child, video game, toys, toy store, sweet, kind, nostalgia, game, cheerful, warmth, acoustic</t>
   </si>
   <si>
     <t>Get Jacked</t>
   </si>
   <si>
-    <t>Wholesome, sweet, reminiscent, memories, memory, nostalgic, childhood, child, video game, toys, toy store, sweet, kind, nostalgia, game, cheerful, warmth, acoustic</t>
+    <t>Workout, hardcore, epic, tension, tense, rocky, boxing, wrestling, hero, heroic, waiting, anticipation, fight, competition, competitive, drama, time, ticking clock, edm, football, sports, superbowl, extreme sports, skydiving, x-games</t>
+  </si>
+  <si>
+    <t>Tense, Heroic, Confident, Dark, Driving, Energetic, Exciting, Suspenseful, Tense, Aggressive</t>
   </si>
   <si>
     <t>Good Morning Bill</t>
   </si>
   <si>
-    <t>Workout, hardcore, epic, tension, tense, rocky, boxing, wrestling, hero, heroic, waiting, anticipation, fight, competition, competitive, drama, time, ticking clock, edm, football, sports, superbowl, extreme sports, skydiving, x-games</t>
-  </si>
-  <si>
-    <t>Tense, Heroic, Confident, Dark, Driving, Energetic, Exciting, Suspenseful, Tense, Aggressive</t>
+    <t>Bright, Ethereal, Meditative, Meditation, Relaxing, Waking Up, Morning, Sunrise</t>
+  </si>
+  <si>
+    <t>Relaxed, Uplifting, Chill</t>
   </si>
   <si>
     <t>New King</t>
   </si>
   <si>
-    <t>Bright, Ethereal, Meditative, Meditation, Relaxing, Waking Up, Morning, Sunrise</t>
-  </si>
-  <si>
-    <t>Relaxed, Uplifting, Chill</t>
+    <t xml:space="preserve">Reckoning, Arrival, Military, Medieval, Epic, King, Regal, Royal, Star Wars, March, Coronation, Court, Kingdom </t>
+  </si>
+  <si>
+    <t>Noble, Epic, Resolute, Romantic, Triumphant</t>
   </si>
   <si>
     <t>The Ripple Effect</t>
   </si>
   <si>
-    <t xml:space="preserve">Reckoning, Arrival, Military, Medieval, Epic, King, Regal, Royal, Star Wars, March, Coronation, Court, Kingdom </t>
-  </si>
-  <si>
-    <t>Noble, Epic, Resolute, Romantic, Triumphant</t>
+    <t>Spooky, Eerie, horror, crime, romantic, traveling, smoke, fog, overcast</t>
+  </si>
+  <si>
+    <t>moody, spooky, eerie</t>
   </si>
   <si>
     <t>Firewine</t>
   </si>
   <si>
-    <t>Spooky, Eerie, horror, crime, romantic, traveling, smoke, fog, overcast</t>
-  </si>
-  <si>
-    <t>moody, spooky, eerie</t>
+    <t>Jazz, Piano solo, keyboard solo, solo, lick, smooth, smooth jazz, jazzy, smoky, jazz club, club, speakeasy, romance, coffee, coffee shop, shopping, upscale, shopping mall, acoustic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laid-back, cool, glamorous, positive, relaxed, chill, </t>
   </si>
   <si>
     <t>Ascendancy</t>
   </si>
   <si>
-    <t>Jazz, Piano solo, keyboard solo, solo, lick, smooth, smooth jazz, jazzy, smoky, jazz club, club, speakeasy, romance, coffee, coffee shop, shopping, upscale, shopping mall, acoustic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laid-back, cool, glamorous, positive, relaxed, chill, </t>
+    <t xml:space="preserve">Fight, Sports, Boxing, Victory, Trap, Hip Hop, Fighting, MMA, Win, Winning </t>
+  </si>
+  <si>
+    <t>Adventurous, Aggressive, Active, Competitive, Confident, Determined, Energetic</t>
   </si>
   <si>
     <t>Heavy Waves</t>
   </si>
   <si>
-    <t xml:space="preserve">Fight, Sports, Boxing, Victory, Trap, Hip Hop, Fighting, MMA, Win, Winning </t>
-  </si>
-  <si>
-    <t>Adventurous, Aggressive, Active, Competitive, Confident, Determined, Energetic</t>
+    <t xml:space="preserve">Dungeon, Dark, Evil, Trudging, intense, heavy, chain gang, hard work, monsters, </t>
+  </si>
+  <si>
+    <t>Dark, Epic, Ominous, anxious</t>
   </si>
   <si>
     <t>Imagine Ecuador</t>
   </si>
   <si>
-    <t xml:space="preserve">Dungeon, Dark, Evil, Trudging, intense, heavy, chain gang, hard work, monsters, </t>
-  </si>
-  <si>
-    <t>Dark, Epic, Ominous, anxious</t>
+    <t>tropicalhouse, deephouse, housemusic, dj, progressivehouse, tropical, edm, futurehouse, house, tropicalvibes, kygo, electronicmusic, architecture, kygomusic, reggaemusic, newmusic, hardstyle, nudisco, dj, dubstep, trance, techhouse, homedecor, dancemusic, techno, producer, interiordesign, interior, design, kygo, cheerful,, tropical, island, beach, sunset, reef, coral, ecuador, waves, ocean, sea, dolphin, scuba diving, snorkeling, submarine, kayak, kayaking, surfing, freedom, stunnas, sunglasses, shades, cabana, tiki, gecko, lizard, parrot, parrots, island, hawaii, caribbean, south pacific , temptation island, temptation, paradise, volcano, parasailing, paragliding, hang gliding, margarita</t>
+  </si>
+  <si>
+    <t>carefree, cheerful, fun, happy, joyful, carefree, adventurous</t>
   </si>
   <si>
     <t>Cheerful Arcade</t>
   </si>
   <si>
-    <t>tropicalhouse, deephouse, housemusic, dj, progressivehouse, tropical, edm, futurehouse, house, tropicalvibes, kygo, electronicmusic, architecture, kygomusic, reggaemusic, newmusic, hardstyle, nudisco, dj, dubstep, trance, techhouse, homedecor, dancemusic, techno, producer, interiordesign, interior, design, kygo, cheerful,, tropical, island, beach, sunset, reef, coral, ecuador, waves, ocean, sea, dolphin, scuba diving, snorkeling, submarine, kayak, kayaking, surfing, freedom, stunnas, sunglasses, shades, cabana, tiki, gecko, lizard, parrot, parrots, island, hawaii, caribbean, south pacific , temptation island, temptation, paradise, volcano, parasailing, paragliding, hang gliding, margarita</t>
-  </si>
-  <si>
-    <t>carefree, cheerful, fun, happy, joyful, carefree, adventurous</t>
+    <t>video game, manic, caffeine, speedy, zippy, hyper</t>
+  </si>
+  <si>
+    <t>cheerful, happy, hyper</t>
   </si>
   <si>
     <t>Dance Fever</t>
   </si>
   <si>
-    <t>video game, manic, caffeine, speedy, zippy, hyper</t>
-  </si>
-  <si>
-    <t>cheerful, happy, hyper</t>
+    <t>Videogame, game boy, chiptune, 8-bit, zelda, mario, amiga, commodore, tracker, hyperpop, club, pop, Wiggly</t>
+  </si>
+  <si>
+    <t>Retro, Fun</t>
   </si>
   <si>
     <t>Why Go</t>
   </si>
   <si>
-    <t>Videogame, game boy, chiptune, 8-bit, zelda, mario, amiga, commodore, tracker, hyperpop, club, pop, Wiggly</t>
-  </si>
-  <si>
-    <t>Retro, Fun</t>
+    <t>Tropical, Beach, Island, Temptation Island, Tropic, House, Upbeat, Dorian Mode, EDM, South Pacific, Kygo, Plucks, Paradise, Kava, Fiji, Vanuatu, club, relaxing, tanning, coconuts</t>
+  </si>
+  <si>
+    <t>Cheerful, Upbeat, Chill, Relaxed</t>
   </si>
   <si>
     <t>Enter the Toy Factory</t>
   </si>
   <si>
-    <t>Tropical, Beach, Island, Temptation Island, Tropic, House, Upbeat, Dorian Mode, EDM, South Pacific, Kygo, Plucks, Paradise, Kava, Fiji, Vanuatu, club, relaxing, tanning, coconuts</t>
-  </si>
-  <si>
-    <t>Cheerful, Upbeat, Chill, Relaxed</t>
+    <t>christmas, xmas, christmas tree, christmas decor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Charlie Brown</t>
+  </si>
+  <si>
+    <t>Cheerful, Happy, Festive, Joyful, Playful, Fun, Nostalgic</t>
   </si>
   <si>
     <t>Prisoner of Love - Passion</t>
   </si>
   <si>
-    <t>christmas, xmas, christmas tree, christmas decor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Charlie Brown</t>
-  </si>
-  <si>
-    <t>Cheerful, Happy, Festive, Joyful, Playful, Fun, Nostalgic</t>
+    <t>Drama, sad, breakup, lonely, depressed, temptation, expectation, suspense, fight, quarrel, lovers, love, introspective</t>
+  </si>
+  <si>
+    <t>sad, depressed, lonely, introspective, melancholy</t>
   </si>
   <si>
     <t>Call me Nemo</t>
   </si>
   <si>
-    <t>Drama, sad, breakup, lonely, depressed, temptation, expectation, suspense, fight, quarrel, lovers, love, introspective</t>
-  </si>
-  <si>
-    <t>sad, depressed, lonely, introspective, melancholy</t>
+    <t>Hiphop, hip hop, beat, beats, rap, sale, plucked, heavy, alternative, aggressive, big, confident, cool, driving, epic, groovy, ominous, powerful, urban, strings, synthesiser, drum machine, sail</t>
+  </si>
+  <si>
+    <t>Plodding, Moody, Determined, Solid, Confident</t>
   </si>
   <si>
     <t>Folk Melody</t>
   </si>
   <si>
-    <t>Hiphop, hip hop, beat, beats, rap, sale, plucked, heavy, alternative, aggressive, big, confident, cool, driving, epic, groovy, ominous, powerful, urban, strings, synthesiser, drum machine, sail</t>
-  </si>
-  <si>
-    <t>Plodding, Moody, Determined, Solid, Confident</t>
+    <t xml:space="preserve">Wedding, Romantic, Slow, melody, melodic, sweet, folk, folk song, pastorale, pastoral, romance, nostalgic, reminiscent, marriage, pachelbel, cartoon, sweetness, home, home sweet home, frontier, main theme, theme, melodic, melody, </t>
+  </si>
+  <si>
+    <t>uplifting, calm, romantic, hopeful, thoughtful, sentimental</t>
   </si>
   <si>
     <t>A Capital Idea</t>
   </si>
   <si>
-    <t xml:space="preserve">Wedding, Romantic, Slow, melody, melodic, sweet, folk, folk song, pastorale, pastoral, romance, nostalgic, reminiscent, marriage, pachelbel, cartoon, sweetness, home, home sweet home, frontier, main theme, theme, melodic, melody, </t>
-  </si>
-  <si>
-    <t>uplifting, calm, romantic, hopeful, thoughtful, sentimental</t>
+    <t xml:space="preserve">Sneaky, Quirky, Funny, Odd, </t>
+  </si>
+  <si>
+    <t>Funny, Silly, Sneaky</t>
   </si>
   <si>
     <t>Subterranean Ambiance 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sneaky, Quirky, Funny, Odd, </t>
-  </si>
-  <si>
-    <t>Funny, Silly, Sneaky</t>
-  </si>
-  <si>
     <t>34 Attack</t>
   </si>
   <si>
+    <t>Action, sports, trucks, extreme, extreme sports, beer, rock, muddin' commercial</t>
+  </si>
+  <si>
+    <t>Heavy, Hardcore, Motivational</t>
+  </si>
+  <si>
     <t>A Bigger, Brighter Christmas</t>
   </si>
   <si>
-    <t>Action, sports, trucks, extreme, extreme sports, beer, rock, muddin' commercial</t>
-  </si>
-  <si>
-    <t>Heavy, Hardcore, Motivational</t>
+    <t>Gifts, Christmas, Candy, Christmas Tree, Xmas, Presents, Celebration,</t>
+  </si>
+  <si>
+    <t>Cheerful, Happy, Joyous, Celebratory</t>
   </si>
   <si>
     <t>Lazy Christmas</t>
   </si>
   <si>
-    <t>Gifts, Christmas, Candy, Christmas Tree, Xmas, Presents, Celebration,</t>
-  </si>
-  <si>
-    <t>Cheerful, Happy, Joyous, Celebratory</t>
+    <t xml:space="preserve">christmas, xmas, christmas tree, christmas decor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Charlie Brown, dope, the beatles, maxwell's silver hammer, lazy, content, laidback, beatles, </t>
+  </si>
+  <si>
+    <t>Cheerful, Happy, Chill, Lethargic, Relaxing, Whimsical</t>
   </si>
   <si>
     <t>Mining Town Shuffle</t>
   </si>
   <si>
-    <t xml:space="preserve">christmas, xmas, christmas tree, christmas decor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Charlie Brown, dope, the beatles, maxwell's silver hammer, lazy, content, laidback, beatles, </t>
-  </si>
-  <si>
-    <t>Cheerful, Happy, Chill, Lethargic, Relaxing, Whimsical</t>
+    <t>Videogame, game boy, chiptune, 8-bit, zelda, mario, amiga, commodore, tracker, contrapuntal</t>
+  </si>
+  <si>
+    <t>Happy, Silly, cute</t>
   </si>
   <si>
     <t>A Green Adventure</t>
   </si>
   <si>
-    <t>Videogame, game boy, chiptune, 8-bit, zelda, mario, amiga, commodore, tracker, contrapuntal</t>
-  </si>
-  <si>
-    <t>Happy, Silly, cute</t>
+    <t>Pokemon, Adventure, march, journey, traveling, excitement, digimon, anime, animation, cartoon, beginning, pokemon battle, video game, gamer, gaming, game boy, nintendo, japanese, dorky, young, childish, andante, walking speed, acoustic, epic</t>
   </si>
   <si>
     <t>Pixel Party</t>
   </si>
   <si>
-    <t>Pokemon, Adventure, march, journey, traveling, excitement, digimon, anime, animation, cartoon, beginning, pokemon battle, video game, gamer, gaming, game boy, nintendo, japanese, dorky, young, childish, andante, walking speed, acoustic, epic</t>
+    <t>Happy, Cheerful, Sparkly</t>
   </si>
   <si>
     <t>A Big Bouncy Christmas</t>
   </si>
   <si>
-    <t>Happy, Cheerful, Sparkly</t>
+    <t>christmas, xmas, christmastree, christmasdecor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Christmas, Shopping, Black Friday, Presents, Gifts, Christmas Tree, Candles, Feast, Mall, Charlie Brown</t>
+  </si>
+  <si>
+    <t>Cheerful, Happy, Cute, Festive, Joyful, Playful, Silly, Fun</t>
   </si>
   <si>
     <t>Alexandria's Arctic Adventure</t>
-  </si>
-  <si>
-    <t>christmas, xmas, christmastree, christmasdecor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Christmas, Shopping, Black Friday, Presents, Gifts, Christmas Tree, Candles, Feast, Mall, Charlie Brown</t>
-  </si>
-  <si>
-    <t>Cheerful, Happy, Cute, Festive, Joyful, Playful, Silly, Fun</t>
-  </si>
-  <si>
-    <t>An Unresolved Conclusion</t>
   </si>
   <si>
     <t xml:space="preserve">Adventure, travel, journey, hiking, epic, orchestra, orchestral, acoustic, expansive, nature, natural, documentary, traditional, inspiring, elevated, transcendant, motivational, Depth, big, confident, determined, discovery, hopeful, inspirational, optimistic, pompous, romantic, video game, strings, violin, oboe, horns, flutes, double bass, cello, brass, bassoon @@ -1654,34 +1588,34 @@
     <t>Quirky, Adventurous, Fun</t>
   </si>
   <si>
+    <t>An Unresolved Conclusion</t>
+  </si>
+  <si>
+    <t>Godfather, Horror, Dark, Revelation, Evil,</t>
+  </si>
+  <si>
+    <t>Creepy, Spooky, Evil, Depressing</t>
+  </si>
+  <si>
     <t>Action Christmas</t>
   </si>
   <si>
-    <t>Godfather, Horror, Dark, Revelation, Evil,</t>
-  </si>
-  <si>
-    <t>Creepy, Spooky, Evil, Depressing</t>
+    <t xml:space="preserve">christmas, xmas, christmastree, christmasdecor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Christmas, Shopping, Black Friday, Presents, Gifts, Christmas Tree, Candles, Feast, Mall, Mega Tree, Tree Lighting, Reveal, Big Moment, Spy, Mission, Mission Impossible, Sneaky, Quirky, Sneak, Agent, </t>
+  </si>
+  <si>
+    <t>Cheerful, Festive, Joyful, Energetic, Excited, Fun, Playful, Intense, Sneaky</t>
   </si>
   <si>
     <t>Trivium</t>
   </si>
   <si>
-    <t xml:space="preserve">christmas, xmas, christmastree, christmasdecor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Christmas, Shopping, Black Friday, Presents, Gifts, Christmas Tree, Candles, Feast, Mall, Mega Tree, Tree Lighting, Reveal, Big Moment, Spy, Mission, Mission Impossible, Sneaky, Quirky, Sneak, Agent, </t>
-  </si>
-  <si>
-    <t>Cheerful, Festive, Joyful, Energetic, Excited, Fun, Playful, Intense, Sneaky</t>
+    <t xml:space="preserve">Temptation Island, build, buildup, tension, tense, breakup, fight, voting, judgement, judging, dark, forensic, forensics, ambient, ambiant, ambience, ambiance csi, crime scene, action, puzzle, clue, scifi, drama, mood, texture, deep, halloween, </t>
+  </si>
+  <si>
+    <t>Dark, tense, tension, moody, suspenseful, builds, buildup, waiting, wait, reveal, eerie, spooky, moody, anxious, brooding, dramatic, intense, conflicted, judging, ominous, spooky,</t>
   </si>
   <si>
     <t>6/8 Chiptune Dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temptation Island, build, buildup, tension, tense, breakup, fight, voting, judgement, judging, dark, forensic, forensics, ambient, ambiant, ambience, ambiance csi, crime scene, action, puzzle, clue, scifi, drama, mood, texture, deep, halloween, </t>
-  </si>
-  <si>
-    <t>Dark, tense, tension, moody, suspenseful, builds, buildup, waiting, wait, reveal, eerie, spooky, moody, anxious, brooding, dramatic, intense, conflicted, judging, ominous, spooky,</t>
-  </si>
-  <si>
-    <t>Herpy Derpy Halloween</t>
   </si>
   <si>
     <t xml:space="preserve">6/8, chiptune, 8bit, retro, old school, nintendo, playstation, video game, game, games, gamer, gameboy, dungeon, rpg, rts, real time strategy, strategy, youtube, instagram, tik tok, tiktok, calm, dark, fun, haunting, ominous, foreboding, suspense, tension, synthesiser, drum machine, hypnotic, high tech @@ -1691,253 +1625,250 @@
     <t>Dark, Moody, Evil</t>
   </si>
   <si>
+    <t>Herpy Derpy Halloween</t>
+  </si>
+  <si>
+    <t>Halloween, dorky, silly, comedy / quirky, ghosts, goblins, pumpkin, omenous, joke, fun, funny</t>
+  </si>
+  <si>
+    <t>Spooky, Dorky, Halloween</t>
+  </si>
+  <si>
     <t>A Grand Conclusion</t>
   </si>
   <si>
-    <t>Halloween, dorky, silly, comedy / quirky, ghosts, goblins, pumpkin, omenous, joke, fun, funny</t>
-  </si>
-  <si>
-    <t>Spooky, Dorky, Halloween</t>
+    <t xml:space="preserve">Drama, Moody, Unresolved, Melodic, Dramatic, Medieval, Game of Thrones, </t>
+  </si>
+  <si>
+    <t>Epic, Melancholy, Unhappy, Tortured, Uncertain, Unresolved</t>
   </si>
   <si>
     <t>Block Buggit</t>
   </si>
   <si>
+    <t>Wobble, Dubstep, Bass Music, Video game, Fox Stevenson, Commercial, Future, Futurebass, Future House</t>
+  </si>
+  <si>
+    <t>Driving, Intense, Futuristic, aggressive, energetic, excited, fun, powerful</t>
+  </si>
+  <si>
     <t>Music Box</t>
   </si>
   <si>
-    <t xml:space="preserve">Drama, Moody, Unresolved, Melodic, Dramatic, Medieval, Game of Thrones, </t>
-  </si>
-  <si>
-    <t>Epic, Melancholy, Unhappy, Tortured, Uncertain, Unresolved</t>
+    <t>childish, cute, sweet, whimsical, kids, music box</t>
+  </si>
+  <si>
+    <t>cute, happy, whimsical</t>
   </si>
   <si>
     <t>As the Forest Burns</t>
   </si>
   <si>
-    <t>Wobble, Dubstep, Bass Music, Video game, Fox Stevenson, Commercial, Future, Futurebass, Future House</t>
-  </si>
-  <si>
-    <t>Driving, Intense, Futuristic, aggressive, energetic, excited, fun, powerful</t>
+    <t>Intense, Stressful, Erhu, Chinese, Eastern, Traditional, Drama, Dramatic, Death, Torture, Suspense, Suspenseful, Big, Explosion, Fire, Dying, Chase, Chase Scene, Sequence, Crying, Screaming, angry, aggressive, cool, dark, disturbing, energetic, epic, heavy, magical, foreboding, scary, tension, video game</t>
+  </si>
+  <si>
+    <t>Intense, Stressful, Aggressive, Angry</t>
   </si>
   <si>
     <t>Bees and Caffeine</t>
   </si>
   <si>
-    <t>childish, cute, sweet, whimsical, kids, music box</t>
-  </si>
-  <si>
-    <t>cute, happy, whimsical</t>
+    <t>Indie, independent, chimes, chaotic, bouncy, bright, cheerful happy, fun, happy, hopeful, joyful, lively, magical, playful, positive, uplifting, video game, Electronica, Charli, British, energetic, upbeat, Cheerful, spazzy</t>
+  </si>
+  <si>
+    <t>Happy, Uplifting, Cheerful</t>
   </si>
   <si>
     <t>Building our Village</t>
   </si>
   <si>
-    <t>Intense, Stressful, Erhu, Chinese, Eastern, Traditional, Drama, Dramatic, Death, Torture, Suspense, Suspenseful, Big, Explosion, Fire, Dying, Chase, Chase Scene, Sequence, Crying, Screaming, angry, aggressive, cool, dark, disturbing, energetic, epic, heavy, magical, foreboding, scary, tension, video game</t>
-  </si>
-  <si>
-    <t>Intense, Stressful, Aggressive, Angry</t>
+    <t>resolute, confident, peaceful, adventurous, active, noble, positive</t>
   </si>
   <si>
     <t>Reckoning</t>
   </si>
   <si>
-    <t>Indie, independent, chimes, chaotic, bouncy, bright, cheerful happy, fun, happy, hopeful, joyful, lively, magical, playful, positive, uplifting, video game, Electronica, Charli, British, energetic, upbeat, Cheerful, spazzy</t>
-  </si>
-  <si>
-    <t>Happy, Uplifting, Cheerful</t>
+    <t>Waiting, Reckoning, Final Decision, Excitment, military, competition, anticipation, giddy, climactic, epic, triumphant, chef, cooking, game, game show, winning, anticipatory</t>
+  </si>
+  <si>
+    <t>Excited, Triumphant, Confident, Epic, noble, resolute, tense</t>
   </si>
   <si>
     <t>An Aberration</t>
   </si>
   <si>
-    <t>resolute, confident, peaceful, adventurous, active, noble, positive</t>
+    <t>Quirky, sneaky, silly, spooky, halloween, cute, funny, depressed, drug commercial, antidepressant, drug, commercial, insurance, cleaning products, advertisement, ad, bass clarinet, costume, fun, acoustic</t>
+  </si>
+  <si>
+    <t>quirky, creepy, fun, laid-back, fun, festive, mysterious, silly</t>
   </si>
   <si>
     <t>Bursting with Spirit</t>
   </si>
   <si>
-    <t>Waiting, Reckoning, Final Decision, Excitment, military, competition, anticipation, giddy, climactic, epic, triumphant, chef, cooking, game, game show, winning, anticipatory</t>
-  </si>
-  <si>
-    <t>Excited, Triumphant, Confident, Epic, noble, resolute, tense</t>
+    <t>Passionate, Intense, Fun</t>
   </si>
   <si>
     <t>Frenzied Fury</t>
   </si>
   <si>
-    <t>Quirky, sneaky, silly, spooky, halloween, cute, funny, depressed, drug commercial, antidepressant, drug, commercial, insurance, cleaning products, advertisement, ad, bass clarinet, costume, fun, acoustic</t>
-  </si>
-  <si>
-    <t>quirky, creepy, fun, laid-back, fun, festive, mysterious, silly</t>
+    <t>Videogame, game boy, chiptune, 8-bit, zelda, mario, amiga, commodore, tracker, sparkly, manic</t>
+  </si>
+  <si>
+    <t>Caffeinated, Excited, Fun</t>
   </si>
   <si>
     <t>Bicycle Ride</t>
   </si>
   <si>
-    <t>Passionate, Intense, Fun</t>
+    <t>Video game, bike ride, bike, rpg, zelda, roleplay, innocent, sweet, sugary, kind</t>
+  </si>
+  <si>
+    <t>uplifting, cheerful, happy, content, contented</t>
   </si>
   <si>
     <t>Wreaths and Candles</t>
   </si>
   <si>
-    <t>Videogame, game boy, chiptune, 8-bit, zelda, mario, amiga, commodore, tracker, sparkly, manic</t>
-  </si>
-  <si>
-    <t>Caffeinated, Excited, Fun</t>
+    <t>christmas, xmas, christmas tree, christmas decor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Charlie Brown, Church, church service, sleighride, sledding, snowflakes, powder, ice skating</t>
+  </si>
+  <si>
+    <t>Cheerful, Happy, Sentimental, Hopeful, Nostalgic, Romantic</t>
   </si>
   <si>
     <t>Deck the Afterburners</t>
   </si>
   <si>
-    <t>Video game, bike ride, bike, rpg, zelda, roleplay, innocent, sweet, sugary, kind</t>
-  </si>
-  <si>
-    <t>uplifting, cheerful, happy, content, contented</t>
+    <t xml:space="preserve">christmas, xmas, christmas tree, christmas decor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Charlie Brown, speedy, quick, manic, mania, light speed, rocket, fast, </t>
+  </si>
+  <si>
+    <t>Cheerful, Happy Cute, Festive, Joyful, Energetic, Excited, Fun, Playful</t>
   </si>
   <si>
     <t>Space Cats</t>
   </si>
   <si>
-    <t>christmas, xmas, christmas tree, christmas decor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Charlie Brown, Church, church service, sleighride, sledding, snowflakes, powder, ice skating</t>
-  </si>
-  <si>
-    <t>Cheerful, Happy, Sentimental, Hopeful, Nostalgic, Romantic</t>
+    <t xml:space="preserve">silly, cute, video game, arcade, gamey, videogame, nintendo, nyan cat, nyan, cat, spazzy, random, innocent, fun, adorable, wacky, weird, spastic, neon, bright, colorful, swing, fast, slow, speedy, quick, </t>
+  </si>
+  <si>
+    <t>cute, bouncy, cheerful, epic, fun, playful, positive, whimsical, youthful</t>
   </si>
   <si>
     <t>Zipping Down the Runway</t>
   </si>
   <si>
-    <t xml:space="preserve">christmas, xmas, christmas tree, christmas decor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Charlie Brown, speedy, quick, manic, mania, light speed, rocket, fast, </t>
-  </si>
-  <si>
-    <t>Cheerful, Happy Cute, Festive, Joyful, Energetic, Excited, Fun, Playful</t>
+    <t>Cheerful, Happy</t>
   </si>
   <si>
     <t>Magical Glade</t>
   </si>
   <si>
-    <t xml:space="preserve">silly, cute, video game, arcade, gamey, videogame, nintendo, nyan cat, nyan, cat, spazzy, random, innocent, fun, adorable, wacky, weird, spastic, neon, bright, colorful, swing, fast, slow, speedy, quick, </t>
-  </si>
-  <si>
-    <t>cute, bouncy, cheerful, epic, fun, playful, positive, whimsical, youthful</t>
+    <t>Magic, pastoral, tension, tense, magic, magical, asian, asia, eastern, china, chinese, neoexpressionist, expressionism, impressionism, romance, romantic era, debussy, acoustic, instrumental, live, piano solo, solo piano, solo, pastorale, animation, cartoon</t>
+  </si>
+  <si>
+    <t>Magical, romantic, dreamy, mysterious, uplifting, warm, calm, whimsical</t>
   </si>
   <si>
     <t>Lonesome Shore</t>
   </si>
   <si>
-    <t>Cheerful, Happy</t>
+    <t>Fog, Shoreline, Ships Sailing by, Shadows, Gray, Lighthouse</t>
+  </si>
+  <si>
+    <t>Contemplative, Ambient, Spooky, Lonely, Curious,</t>
   </si>
   <si>
     <t>Keynote</t>
   </si>
   <si>
-    <t>Magic, pastoral, tension, tense, magic, magical, asian, asia, eastern, china, chinese, neoexpressionist, expressionism, impressionism, romance, romantic era, debussy, acoustic, instrumental, live, piano solo, solo piano, solo, pastorale, animation, cartoon</t>
-  </si>
-  <si>
-    <t>Magical, romantic, dreamy, mysterious, uplifting, warm, calm, whimsical</t>
+    <t>Corporate, keynote, introduction, presentation, speech, corporation, commercial, innovative, innovation</t>
+  </si>
+  <si>
+    <t>Inspiring, Inspirational, Uplifting</t>
   </si>
   <si>
     <t>Wildflower</t>
   </si>
   <si>
-    <t>Fog, Shoreline, Ships Sailing by, Shadows, Gray, Lighthouse</t>
-  </si>
-  <si>
-    <t>Contemplative, Ambient, Spooky, Lonely, Curious,</t>
+    <t xml:space="preserve">ad, advertisement, commercial, cute, innocent, waltz, adorable, children, child, kid, fun, dance, ballet, dancing, insurance, medical, drug, medicine, medication, sweet, young, childish, dorky, derp  </t>
+  </si>
+  <si>
+    <t>innocent, cute, bouncy, carefree, cheerful, fun, happy, peaceful, playful, whimsical, uplifting</t>
   </si>
   <si>
     <t>Igneous Rock</t>
   </si>
   <si>
-    <t>Corporate, keynote, introduction, presentation, speech, corporation, commercial, innovative, innovation</t>
-  </si>
-  <si>
-    <t>Inspiring, Inspirational, Uplifting</t>
+    <t>Happy, Fun, Busy</t>
   </si>
   <si>
     <t>Omen</t>
   </si>
   <si>
-    <t xml:space="preserve">ad, advertisement, commercial, cute, innocent, waltz, adorable, children, child, kid, fun, dance, ballet, dancing, insurance, medical, drug, medicine, medication, sweet, young, childish, dorky, derp  </t>
-  </si>
-  <si>
-    <t>innocent, cute, bouncy, carefree, cheerful, fun, happy, peaceful, playful, whimsical, uplifting</t>
+    <t>Fanfare, melancholic, royal, royalty, king, queen, game of thrones, reality tv, medieval, castle, lord of the rings, uplifting, moody, mmo, rts, rpg, gamer, gaming, title, game show,</t>
+  </si>
+  <si>
+    <t>brooding, emotional, epic, dark, building, confident, dramatic, uplifting</t>
   </si>
   <si>
     <t>Attack of the Horsemen</t>
   </si>
   <si>
-    <t>Happy, Fun, Busy</t>
+    <t>Attack, Dramatic, War, Riding, Horses, LOTR, Lord of the Rings, Knights, RPG, Age of Empires</t>
+  </si>
+  <si>
+    <t>Dangerous, Menacing, Dramatic, Mean</t>
   </si>
   <si>
     <t>Tragedy in a Bright new Era</t>
   </si>
   <si>
-    <t>Fanfare, melancholic, royal, royalty, king, queen, game of thrones, reality tv, medieval, castle, lord of the rings, uplifting, moody, mmo, rts, rpg, gamer, gaming, title, game show,</t>
-  </si>
-  <si>
-    <t>brooding, emotional, epic, dark, building, confident, dramatic, uplifting</t>
+    <t>Lonely, Lonesome, Depressing, Tragic, tragedy, sad, death, heartbreak</t>
+  </si>
+  <si>
+    <t>Moody, Sad, Melancholy</t>
   </si>
   <si>
     <t>Alien Farmhouse</t>
   </si>
   <si>
-    <t>Attack, Dramatic, War, Riding, Horses, LOTR, Lord of the Rings, Knights, RPG, Age of Empires</t>
-  </si>
-  <si>
-    <t>Dangerous, Menacing, Dramatic, Mean</t>
-  </si>
-  <si>
     <t>Fever Dream</t>
   </si>
   <si>
-    <t>Lonely, Lonesome, Depressing, Tragic, tragedy, sad, death, heartbreak</t>
-  </si>
-  <si>
-    <t>Moody, Sad, Melancholy</t>
+    <t>horror, murder, scary, creepy, terror, demented, disturbed, ghosts</t>
+  </si>
+  <si>
+    <t>terror, fear, scared, demented, disturbed</t>
   </si>
   <si>
     <t>Fierce Efficiency</t>
   </si>
   <si>
+    <t xml:space="preserve">epic, trailer, sci-fi, space ship, launch, landing, spy, mission, heist, break-in, chase, landscape, mountains </t>
+  </si>
+  <si>
+    <t>exciting, confident, cool, inspirational, victorious, energetic, sports, news</t>
+  </si>
+  <si>
     <t>Christmas Candy</t>
   </si>
   <si>
-    <t>horror, murder, scary, creepy, terror, demented, disturbed, ghosts</t>
-  </si>
-  <si>
-    <t>terror, fear, scared, demented, disturbed</t>
+    <t>christmas, xmas, christmas tree, christmas decor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Charlie Brown, candy, romance, christmas eve, Sleigh,</t>
+  </si>
+  <si>
+    <t>Cheerful, Happy, Sentimental, Nostalgic, Hopeful, Inspirational, Relaxing, Romantic, Whimsical</t>
   </si>
   <si>
     <t>Spider Dance</t>
   </si>
   <si>
-    <t xml:space="preserve">epic, trailer, sci-fi, space ship, launch, landing, spy, mission, heist, break-in, chase, landscape, mountains </t>
-  </si>
-  <si>
-    <t>exciting, confident, cool, inspirational, victorious, energetic, sports, news</t>
+    <t>Silly, sneaky, cute, strawberry shortcake, cheerful, puzzle, video game, puzzle game</t>
+  </si>
+  <si>
+    <t>Sneaky, quirky, silly, comedy, fun, funny</t>
   </si>
   <si>
     <t>Eastern Heartbreak</t>
-  </si>
-  <si>
-    <t>christmas, xmas, christmas tree, christmas decor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Charlie Brown, candy, romance, christmas eve, Sleigh,</t>
-  </si>
-  <si>
-    <t>Cheerful, Happy, Sentimental, Nostalgic, Hopeful, Inspirational, Relaxing, Romantic, Whimsical</t>
-  </si>
-  <si>
-    <t>Pastoral Sweets</t>
-  </si>
-  <si>
-    <t>Silly, sneaky, cute, strawberry shortcake, cheerful, puzzle, video game, puzzle game</t>
-  </si>
-  <si>
-    <t>Sneaky, quirky, silly, comedy, fun, funny</t>
-  </si>
-  <si>
-    <t>Goofy Energy</t>
   </si>
   <si>
     <t xml:space="preserve">Eastern, Chinese, Romance, Heartbreak, Breakup, Sadness, Heartwrenching, depressing, Japanese, Erhu, Live, Acoustic, orchestra, orchestral, score, underscore, romantic, magic, magical, calm, contemplative, down, melancholic, dramatic, elegant, ethereal, haunting, melancholy, mournful, passionate, powerful, reflective, tension, strings, cello, double bass, violin, horns, piano @@ -1947,76 +1878,82 @@
     <t>Sad, Tragic, Heartbreaking</t>
   </si>
   <si>
+    <t>Pastoral Sweets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet, nostalgic, motion, childhood, adventure, outdoors, magic, magical, wholesome, bonding, friendship, forest, woods, cartoon, animation, excitement, </t>
+  </si>
+  <si>
+    <t>nostalgic, content, chill, cheerful, happy, hopeful, peaceful, pleasant, uplifting, relaxed, sweet, whimsical, magical</t>
+  </si>
+  <si>
+    <t>Goofy Energy</t>
+  </si>
+  <si>
+    <t>Quirky, cute, wholesome, sneaky, silly, magical, magic, plucked, plucked strings, pizzicato, commercial, advertisement, ad, random, adorable, nostalgic, health, narnia, sweet, lovely</t>
+  </si>
+  <si>
+    <t>magical, emotional, hopeful, intrigued, thoughtful, whimsical, uplifting</t>
+  </si>
+  <si>
     <t>Sled Run</t>
   </si>
   <si>
-    <t xml:space="preserve">Sweet, nostalgic, motion, childhood, adventure, outdoors, magic, magical, wholesome, bonding, friendship, forest, woods, cartoon, animation, excitement, </t>
-  </si>
-  <si>
-    <t>nostalgic, content, chill, cheerful, happy, hopeful, peaceful, pleasant, uplifting, relaxed, sweet, whimsical, magical</t>
+    <t xml:space="preserve">christmas, xmas, christmastree, christmasdecor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Christmas, Shopping, Black Friday, Presents, Gifts, Christmas Tree, Candles, Feast, Mall, Mega Tree, Tree Lighting, Reveal, Big Moment, </t>
+  </si>
+  <si>
+    <t>Cheerful, Happy, Cute, Festive, Joyful, Energetic, Excited, Fun, Playful</t>
   </si>
   <si>
     <t>Tree Lighting</t>
   </si>
   <si>
-    <t>Quirky, cute, wholesome, sneaky, silly, magical, magic, plucked, plucked strings, pizzicato, commercial, advertisement, ad, random, adorable, nostalgic, health, narnia, sweet, lovely</t>
-  </si>
-  <si>
-    <t>magical, emotional, hopeful, intrigued, thoughtful, whimsical, uplifting</t>
-  </si>
-  <si>
     <t>The Glowing Forest - Potion</t>
   </si>
   <si>
-    <t xml:space="preserve">christmas, xmas, christmastree, christmasdecor, handmade, love, merry christmas, santa, winter, christmas time, gift, christmas gifts, holidays, holiday, gifts, christmas is coming, navidad, christmas decorations, santa claus, snow, christmas gift, noel, art, christmas lights, family, Christmas, Shopping, Black Friday, Presents, Gifts, Christmas Tree, Candles, Feast, Mall, Mega Tree, Tree Lighting, Reveal, Big Moment, </t>
-  </si>
-  <si>
-    <t>Cheerful, Happy, Cute, Festive, Joyful, Energetic, Excited, Fun, Playful</t>
+    <t xml:space="preserve">Magic, Forest, Potion, Dreaming, Dreamland, Sleepy, Peter Pan, Neverland, </t>
+  </si>
+  <si>
+    <t>Magical, Relaxed, Calm, Content, Hopeful, Laidback, Whimsical</t>
   </si>
   <si>
     <t>Aquiver</t>
   </si>
   <si>
+    <t>Corporate, Intro, Introduction, Stinger, Bumper, Logo, Sound Logo, Corporation, innovative, innovation, inspirational, inspiration, inspire, short, miniature, mini, commercial, advertisement, ad, acoustic</t>
+  </si>
+  <si>
+    <t>inspirational, cheerful, dreamy, epic, hopeful, inspirational, intrigued, pleasant, positive, smooth, uplifting</t>
+  </si>
+  <si>
     <t>Satellite Fragger</t>
   </si>
   <si>
-    <t xml:space="preserve">Magic, Forest, Potion, Dreaming, Dreamland, Sleepy, Peter Pan, Neverland, </t>
-  </si>
-  <si>
-    <t>Magical, Relaxed, Calm, Content, Hopeful, Laidback, Whimsical</t>
+    <t>Aliens, space, sci-fi, science fiction, phrygian, terror, stinger, intro, introduction, helicopter, dramatic, shock horror, supervillain, superhero, marvel, dc comics, comic, action, weapon, laser, attack, space ship, space craft, ufo, flying saucer, game, gaming, video game, spy, 007, james bond</t>
+  </si>
+  <si>
+    <t>aggressive, dark, epic, ominous, suspenseful, tense, strong</t>
   </si>
   <si>
     <t>Timeline Drift</t>
   </si>
   <si>
-    <t>Corporate, Intro, Introduction, Stinger, Bumper, Logo, Sound Logo, Corporation, innovative, innovation, inspirational, inspiration, inspire, short, miniature, mini, commercial, advertisement, ad, acoustic</t>
-  </si>
-  <si>
-    <t>inspirational, cheerful, dreamy, epic, hopeful, inspirational, intrigued, pleasant, positive, smooth, uplifting</t>
+    <t>sci-fi, science fiction, planet, space, aliens, introduction, intro, stinger, bumper, game, video game, videogame, gamey, gamer, space ship, ufo, flying saucer, jungle, volcano, eerie, weird, out of tune, detuned, quarter tone, time travel, dimension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark, epic, ominous, suspenseful, tense, eerie, brooding, mysterious, ominous </t>
   </si>
   <si>
     <t>Bubble Universe</t>
   </si>
   <si>
-    <t>Aliens, space, sci-fi, science fiction, phrygian, terror, stinger, intro, introduction, helicopter, dramatic, shock horror, supervillain, superhero, marvel, dc comics, comic, action, weapon, laser, attack, space ship, space craft, ufo, flying saucer, game, gaming, video game, spy, 007, james bond</t>
-  </si>
-  <si>
-    <t>aggressive, dark, epic, ominous, suspenseful, tense, strong</t>
+    <t>tropical, alien, sci-fi, scifi, weird, planet, space ship, island, beach</t>
   </si>
   <si>
     <t>She's a Devil</t>
   </si>
   <si>
-    <t>sci-fi, science fiction, planet, space, aliens, introduction, intro, stinger, bumper, game, video game, videogame, gamey, gamer, space ship, ufo, flying saucer, jungle, volcano, eerie, weird, out of tune, detuned, quarter tone, time travel, dimension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark, epic, ominous, suspenseful, tense, eerie, brooding, mysterious, ominous </t>
-  </si>
-  <si>
     <t>Snowfall</t>
-  </si>
-  <si>
-    <t>tropical, alien, sci-fi, scifi, weird, planet, space ship, island, beach</t>
   </si>
   <si>
     <t>Core Ignition</t>
@@ -2392,6 +2329,9 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2403,9 +2343,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6470,14 +6407,22 @@
       <c r="M54" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="N54" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T54" s="2">
         <v>5.0</v>
       </c>
@@ -6489,7 +6434,7 @@
       </c>
       <c r="AA54" s="9"/>
       <c r="AB54" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC54" s="7">
         <v>18.0</v>
@@ -6497,7 +6442,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B55" s="2">
         <v>2.0</v>
@@ -6533,16 +6478,24 @@
         <v>0.0</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T55" s="2">
         <v>7.0</v>
       </c>
@@ -6555,7 +6508,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B56" s="2">
         <v>3.0</v>
@@ -6591,16 +6544,26 @@
         <v>11.0</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R56" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T56" s="2">
         <v>13.0</v>
       </c>
@@ -6613,7 +6576,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B57" s="2">
         <v>6.0</v>
@@ -6648,13 +6611,25 @@
       <c r="L57" s="2">
         <v>0.0</v>
       </c>
-      <c r="M57" s="4"/>
+      <c r="M57" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="N57" s="4"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
+      <c r="O57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T57" s="2">
         <v>3.0</v>
       </c>
@@ -6667,7 +6642,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B58" s="2">
         <v>6.0</v>
@@ -6705,14 +6680,22 @@
       <c r="M58" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N58" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T58" s="2">
         <v>3.0</v>
       </c>
@@ -6725,7 +6708,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B59" s="2">
         <v>2.0</v>
@@ -6760,30 +6743,38 @@
       <c r="L59" s="2">
         <v>0.0</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
+      <c r="M59" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R59" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T59" s="2">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="U59" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="V59" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B60" s="2">
         <v>4.0</v>
@@ -6818,22 +6809,30 @@
       <c r="L60" s="2">
         <v>34.0</v>
       </c>
-      <c r="M60" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="N60" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
+      <c r="M60" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="N60" s="5"/>
+      <c r="O60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T60" s="2">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="U60" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V60" s="1">
         <v>0.0</v>
@@ -6841,7 +6840,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B61" s="2">
         <v>3.0</v>
@@ -6876,22 +6875,30 @@
       <c r="L61" s="2">
         <v>20.0</v>
       </c>
-      <c r="M61" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
+      <c r="M61" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N61" s="5"/>
+      <c r="O61" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T61" s="2">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="U61" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V61" s="1">
         <v>0.0</v>
@@ -6899,7 +6906,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B62" s="2">
         <v>3.0</v>
@@ -6935,21 +6942,29 @@
         <v>0.0</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="N62" s="5"/>
+      <c r="O62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R62" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S62" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T62" s="2">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="U62" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V62" s="1">
         <v>0.0</v>
@@ -6957,7 +6972,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B63" s="2">
         <v>3.0</v>
@@ -6992,22 +7007,30 @@
       <c r="L63" s="2">
         <v>32.0</v>
       </c>
-      <c r="M63" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
+      <c r="M63" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N63" s="5"/>
+      <c r="O63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S63" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T63" s="2">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="U63" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="V63" s="1">
         <v>0.0</v>
@@ -7015,7 +7038,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B64" s="2">
         <v>1.0</v>
@@ -7050,22 +7073,30 @@
       <c r="L64" s="2">
         <v>1.0</v>
       </c>
-      <c r="M64" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
+      <c r="M64" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="N64" s="4"/>
+      <c r="O64" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T64" s="2">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="U64" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V64" s="1">
         <v>0.0</v>
@@ -7073,7 +7104,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B65" s="2">
         <v>1.0</v>
@@ -7109,21 +7140,29 @@
         <v>0.0</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="N65" s="5"/>
+      <c r="O65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T65" s="2">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="U65" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V65" s="1">
         <v>0.0</v>
@@ -7131,7 +7170,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
@@ -7167,18 +7206,26 @@
         <v>0.0</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N66" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="N66" s="4"/>
+      <c r="O66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S66" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T66" s="2">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="U66" s="1">
         <v>4.0</v>
@@ -7189,7 +7236,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B67" s="2">
         <v>1.0</v>
@@ -7225,21 +7272,29 @@
         <v>6.0</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="T67" s="2">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="U67" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="V67" s="1">
         <v>0.0</v>
@@ -7247,7 +7302,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B68" s="2">
         <v>1.0</v>
@@ -7282,22 +7337,30 @@
       <c r="L68" s="2">
         <v>6.0</v>
       </c>
-      <c r="M68" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="N68" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
+      <c r="M68" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R68" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S68" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T68" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="U68" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V68" s="1">
         <v>0.0</v>
@@ -7305,7 +7368,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B69" s="2">
         <v>3.0</v>
@@ -7341,21 +7404,31 @@
         <v>0.0</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T69" s="2">
         <v>1.0</v>
       </c>
       <c r="U69" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="V69" s="1">
         <v>0.0</v>
@@ -7363,7 +7436,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B70" s="2">
         <v>3.0</v>
@@ -7398,19 +7471,27 @@
       <c r="L70" s="2">
         <v>0.0</v>
       </c>
-      <c r="M70" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="N70" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
+      <c r="M70" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="N70" s="5"/>
+      <c r="O70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="R70" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S70" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T70" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U70" s="1">
         <v>5.0</v>
@@ -7421,7 +7502,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B71" s="2">
         <v>1.0</v>
@@ -7457,21 +7538,29 @@
         <v>9.0</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="N71" s="4"/>
+      <c r="O71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S71" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T71" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="U71" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V71" s="1">
         <v>0.0</v>
@@ -7479,7 +7568,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B72" s="2">
         <v>6.0</v>
@@ -7515,21 +7604,29 @@
         <v>0.0</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="N72" s="5"/>
+      <c r="O72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S72" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T72" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U72" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V72" s="1">
         <v>0.0</v>
@@ -7537,7 +7634,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B73" s="2">
         <v>3.0</v>
@@ -7573,21 +7670,29 @@
         <v>0.0</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="N73" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="N73" s="4"/>
+      <c r="O73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R73" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T73" s="2">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="U73" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V73" s="1">
         <v>0.0</v>
@@ -7595,7 +7700,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B74" s="2">
         <v>1.0</v>
@@ -7631,21 +7736,29 @@
         <v>0.0</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="N74" s="5"/>
+      <c r="O74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S74" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T74" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="U74" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V74" s="1">
         <v>0.0</v>
@@ -7653,7 +7766,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B75" s="2">
         <v>3.0</v>
@@ -7689,21 +7802,29 @@
         <v>15.0</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="N75" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="N75" s="5"/>
+      <c r="O75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R75" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S75" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T75" s="2">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="U75" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V75" s="1">
         <v>0.0</v>
@@ -7711,7 +7832,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B76" s="2">
         <v>2.0</v>
@@ -7746,22 +7867,30 @@
       <c r="L76" s="2">
         <v>0.0</v>
       </c>
-      <c r="M76" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="N76" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
+      <c r="M76" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="N76" s="5"/>
+      <c r="O76" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S76" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T76" s="2">
         <v>1.0</v>
       </c>
       <c r="U76" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="V76" s="1">
         <v>0.0</v>
@@ -7769,7 +7898,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B77" s="2">
         <v>4.0</v>
@@ -7804,22 +7933,32 @@
       <c r="L77" s="2">
         <v>0.0</v>
       </c>
-      <c r="M77" s="5" t="s">
-        <v>261</v>
+      <c r="M77" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S77" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T77" s="2">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="U77" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V77" s="1">
         <v>0.0</v>
@@ -7827,7 +7966,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="B78" s="2">
         <v>3.0</v>
@@ -7862,22 +8001,30 @@
       <c r="L78" s="2">
         <v>0.0</v>
       </c>
-      <c r="M78" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="N78" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
+      <c r="M78" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="N78" s="5"/>
+      <c r="O78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R78" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S78" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T78" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="U78" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="V78" s="1">
         <v>0.0</v>
@@ -7885,10 +8032,13 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B79" s="2">
         <v>3.0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>120.0</v>
       </c>
       <c r="D79" s="3">
         <v>6.0</v>
@@ -7917,22 +8067,30 @@
       <c r="L79" s="2">
         <v>0.0</v>
       </c>
-      <c r="M79" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="N79" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
+      <c r="M79" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="N79" s="5"/>
+      <c r="O79" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R79" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S79" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T79" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="U79" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="V79" s="1">
         <v>0.0</v>
@@ -7940,7 +8098,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B80" s="2">
         <v>1.0</v>
@@ -7976,10 +8134,10 @@
         <v>0.0</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -7987,10 +8145,10 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="2">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="U80" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V80" s="1">
         <v>0.0</v>
@@ -7998,7 +8156,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B81" s="2">
         <v>1.0</v>
@@ -8033,11 +8191,11 @@
       <c r="L81" s="2">
         <v>38.0</v>
       </c>
-      <c r="M81" s="4" t="s">
-        <v>273</v>
+      <c r="M81" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -8045,10 +8203,10 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="2">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="U81" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V81" s="1">
         <v>0.0</v>
@@ -8056,7 +8214,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B82" s="2">
         <v>4.0</v>
@@ -8091,11 +8249,11 @@
       <c r="L82" s="2">
         <v>8.0</v>
       </c>
-      <c r="M82" s="5" t="s">
-        <v>276</v>
+      <c r="M82" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -8103,10 +8261,10 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="2">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="U82" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V82" s="1">
         <v>0.0</v>
@@ -8114,7 +8272,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B83" s="2">
         <v>1.0</v>
@@ -8137,7 +8295,7 @@
       <c r="H83" s="2">
         <v>2.0</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I83" s="11">
         <v>45508.0</v>
       </c>
       <c r="J83" s="2">
@@ -8149,11 +8307,11 @@
       <c r="L83" s="2">
         <v>0.0</v>
       </c>
-      <c r="M83" s="4" t="s">
-        <v>279</v>
+      <c r="M83" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -8161,10 +8319,10 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U83" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V83" s="1">
         <v>0.0</v>
@@ -8172,7 +8330,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="B84" s="2">
         <v>1.0</v>
@@ -8207,11 +8365,11 @@
       <c r="L84" s="2">
         <v>8.0</v>
       </c>
-      <c r="M84" s="5" t="s">
-        <v>282</v>
+      <c r="M84" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -8219,7 +8377,7 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="U84" s="1">
         <v>4.0</v>
@@ -8230,7 +8388,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="B85" s="2">
         <v>2.0</v>
@@ -8266,10 +8424,10 @@
         <v>0.0</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -8280,7 +8438,7 @@
         <v>7.0</v>
       </c>
       <c r="U85" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V85" s="1">
         <v>0.0</v>
@@ -8288,7 +8446,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B86" s="2">
         <v>1.0</v>
@@ -8324,10 +8482,10 @@
         <v>0.0</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>289</v>
+        <v>269</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -8335,10 +8493,10 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="2">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="U86" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="V86" s="1">
         <v>0.0</v>
@@ -8346,7 +8504,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B87" s="2">
         <v>1.0</v>
@@ -8382,10 +8540,10 @@
         <v>10.0</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="N87" s="4" t="s">
-        <v>292</v>
+        <v>272</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -8393,10 +8551,10 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U87" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="V87" s="1">
         <v>0.0</v>
@@ -8404,7 +8562,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="B88" s="2">
         <v>8.0</v>
@@ -8440,10 +8598,10 @@
         <v>29.0</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -8451,7 +8609,7 @@
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="2">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="U88" s="1">
         <v>3.0</v>
@@ -8462,7 +8620,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B89" s="2">
         <v>4.0</v>
@@ -8498,10 +8656,10 @@
         <v>0.0</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -8509,10 +8667,10 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="U89" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V89" s="1">
         <v>0.0</v>
@@ -8520,7 +8678,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="B90" s="2">
         <v>1.0</v>
@@ -8555,11 +8713,11 @@
       <c r="L90" s="2">
         <v>38.0</v>
       </c>
-      <c r="M90" s="4" t="s">
-        <v>299</v>
+      <c r="M90" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
@@ -8567,10 +8725,10 @@
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="U90" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V90" s="1">
         <v>0.0</v>
@@ -8578,7 +8736,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B91" s="2">
         <v>1.0</v>
@@ -8614,10 +8772,10 @@
         <v>0.0</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -8628,7 +8786,7 @@
         <v>2.0</v>
       </c>
       <c r="U91" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V91" s="1">
         <v>0.0</v>
@@ -8636,7 +8794,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B92" s="2">
         <v>1.0</v>
@@ -8671,11 +8829,11 @@
       <c r="L92" s="2">
         <v>0.0</v>
       </c>
-      <c r="M92" s="5" t="s">
-        <v>305</v>
+      <c r="M92" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -8683,10 +8841,10 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="U92" s="1">
         <v>2.0</v>
-      </c>
-      <c r="U92" s="1">
-        <v>3.0</v>
       </c>
       <c r="V92" s="1">
         <v>0.0</v>
@@ -8694,7 +8852,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B93" s="2">
         <v>6.0</v>
@@ -8729,11 +8887,11 @@
       <c r="L93" s="2">
         <v>0.0</v>
       </c>
-      <c r="M93" s="4" t="s">
-        <v>308</v>
+      <c r="M93" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -8741,10 +8899,10 @@
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U93" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="V93" s="1">
         <v>0.0</v>
@@ -8752,7 +8910,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="B94" s="2">
         <v>1.0</v>
@@ -8787,11 +8945,11 @@
       <c r="L94" s="2">
         <v>0.0</v>
       </c>
-      <c r="M94" s="5" t="s">
-        <v>311</v>
+      <c r="M94" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -8799,10 +8957,10 @@
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U94" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V94" s="1">
         <v>0.0</v>
@@ -8810,7 +8968,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B95" s="2">
         <v>8.0</v>
@@ -8846,10 +9004,10 @@
         <v>11.0</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -8868,7 +9026,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="B96" s="2">
         <v>4.0</v>
@@ -8903,11 +9061,11 @@
       <c r="L96" s="2">
         <v>0.0</v>
       </c>
-      <c r="M96" s="4" t="s">
-        <v>317</v>
+      <c r="M96" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -8915,18 +9073,18 @@
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="U96" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V96" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="B97" s="2">
         <v>4.0</v>
@@ -8962,10 +9120,10 @@
         <v>6.0</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -8973,18 +9131,18 @@
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="2">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="U97" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V97" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="B98" s="2">
         <v>1.0</v>
@@ -9019,11 +9177,11 @@
       <c r="L98" s="2">
         <v>0.0</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>323</v>
+      <c r="M98" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -9033,16 +9191,16 @@
       <c r="T98" s="2">
         <v>11.0</v>
       </c>
-      <c r="U98" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V98" s="1">
-        <v>0.0</v>
+      <c r="U98" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="V98" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B99" s="2">
         <v>4.0</v>
@@ -9077,11 +9235,11 @@
       <c r="L99" s="2">
         <v>0.0</v>
       </c>
-      <c r="M99" s="4" t="s">
-        <v>326</v>
+      <c r="M99" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -9089,18 +9247,18 @@
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U99" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="V99" s="2">
-        <v>1.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="U99" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="V99" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="B100" s="2">
         <v>1.0</v>
@@ -9135,11 +9293,11 @@
       <c r="L100" s="2">
         <v>0.0</v>
       </c>
-      <c r="M100" s="5" t="s">
-        <v>329</v>
+      <c r="M100" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -9147,10 +9305,10 @@
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="2">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="U100" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V100" s="1">
         <v>0.0</v>
@@ -9158,7 +9316,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B101" s="2">
         <v>1.0</v>
@@ -9194,10 +9352,10 @@
         <v>0.0</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -9205,7 +9363,7 @@
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="2">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="U101" s="1">
         <v>4.0</v>
@@ -9216,7 +9374,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B102" s="2">
         <v>4.0</v>
@@ -9252,10 +9410,10 @@
         <v>8.0</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -9263,10 +9421,10 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U102" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="V102" s="1">
         <v>0.0</v>
@@ -9274,7 +9432,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="B103" s="2">
         <v>4.0</v>
@@ -9310,10 +9468,10 @@
         <v>0.0</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -9324,7 +9482,7 @@
         <v>3.0</v>
       </c>
       <c r="U103" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="V103" s="1">
         <v>0.0</v>
@@ -9332,7 +9490,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="B104" s="2">
         <v>1.0</v>
@@ -9341,7 +9499,7 @@
         <v>150.0</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="E104" s="2">
         <v>4.0</v>
@@ -9368,10 +9526,10 @@
         <v>0.0</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -9379,10 +9537,10 @@
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U104" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="V104" s="1">
         <v>0.0</v>
@@ -9390,7 +9548,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="B105" s="2">
         <v>1.0</v>
@@ -9426,10 +9584,10 @@
         <v>3.0</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -9437,10 +9595,10 @@
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U105" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="V105" s="1">
         <v>0.0</v>
@@ -9448,7 +9606,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="B106" s="2">
         <v>1.0</v>
@@ -9484,10 +9642,10 @@
         <v>1.0</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
@@ -9495,10 +9653,10 @@
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U106" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V106" s="1">
         <v>0.0</v>
@@ -9506,7 +9664,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B107" s="2">
         <v>6.0</v>
@@ -9542,10 +9700,10 @@
         <v>0.0</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="N107" s="5" t="s">
-        <v>352</v>
+        <v>332</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -9553,18 +9711,18 @@
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="2">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="U107" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V107" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B108" s="2">
         <v>1.0</v>
@@ -9600,10 +9758,10 @@
         <v>0.0</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
@@ -9614,15 +9772,15 @@
         <v>11.0</v>
       </c>
       <c r="U108" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V108" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B109" s="2">
         <v>1.0</v>
@@ -9658,10 +9816,10 @@
         <v>0.0</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
@@ -9669,7 +9827,7 @@
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="2">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="U109" s="1">
         <v>4.0</v>
@@ -9680,7 +9838,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B110" s="2">
         <v>1.0</v>
@@ -9716,10 +9874,10 @@
         <v>41.0</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="N110" s="4" t="s">
-        <v>361</v>
+        <v>341</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
@@ -9727,10 +9885,10 @@
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="U110" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="V110" s="1">
         <v>0.0</v>
@@ -9738,7 +9896,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B111" s="2">
         <v>4.0</v>
@@ -9774,10 +9932,10 @@
         <v>0.0</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
@@ -9785,10 +9943,10 @@
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="U111" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="V111" s="1">
         <v>0.0</v>
@@ -9796,7 +9954,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="B112" s="2">
         <v>1.0</v>
@@ -9831,11 +9989,11 @@
       <c r="L112" s="2">
         <v>0.0</v>
       </c>
-      <c r="M112" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="N112" s="5" t="s">
-        <v>367</v>
+      <c r="M112" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
@@ -9854,7 +10012,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B113" s="2">
         <v>1.0</v>
@@ -9889,11 +10047,11 @@
       <c r="L113" s="2">
         <v>46.0</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>370</v>
+      <c r="M113" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
@@ -9901,10 +10059,10 @@
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="U113" s="1">
         <v>5.0</v>
-      </c>
-      <c r="U113" s="1">
-        <v>3.0</v>
       </c>
       <c r="V113" s="1">
         <v>0.0</v>
@@ -9912,7 +10070,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="B114" s="2">
         <v>1.0</v>
@@ -9948,10 +10106,10 @@
         <v>0.0</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
@@ -9959,10 +10117,10 @@
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="2">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="U114" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V114" s="1">
         <v>0.0</v>
@@ -9970,7 +10128,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B115" s="2">
         <v>3.0</v>
@@ -10006,10 +10164,10 @@
         <v>8.0</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
@@ -10017,10 +10175,10 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="U115" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V115" s="1">
         <v>0.0</v>
@@ -10028,7 +10186,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B116" s="2">
         <v>6.0</v>
@@ -10063,11 +10221,11 @@
       <c r="L116" s="2">
         <v>0.0</v>
       </c>
-      <c r="M116" s="4" t="s">
-        <v>378</v>
+      <c r="M116" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
@@ -10075,10 +10233,10 @@
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="2">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="U116" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V116" s="1">
         <v>0.0</v>
@@ -10086,7 +10244,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B117" s="2">
         <v>3.0</v>
@@ -10121,11 +10279,11 @@
       <c r="L117" s="2">
         <v>0.0</v>
       </c>
-      <c r="M117" s="5" t="s">
-        <v>354</v>
+      <c r="M117" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
@@ -10133,7 +10291,7 @@
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="U117" s="1">
         <v>4.0</v>
@@ -10144,7 +10302,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B118" s="2">
         <v>3.0</v>
@@ -10180,10 +10338,10 @@
         <v>0.0</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
@@ -10191,10 +10349,10 @@
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
       <c r="T118" s="2">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="U118" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V118" s="1">
         <v>0.0</v>
@@ -10202,7 +10360,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B119" s="2">
         <v>7.0</v>
@@ -10237,11 +10395,11 @@
       <c r="L119" s="2">
         <v>0.0</v>
       </c>
-      <c r="M119" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="N119" s="5" t="s">
-        <v>387</v>
+      <c r="M119" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
@@ -10249,7 +10407,7 @@
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
       <c r="T119" s="2">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="U119" s="1">
         <v>3.0</v>
@@ -10260,7 +10418,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B120" s="2">
         <v>1.0</v>
@@ -10295,11 +10453,11 @@
       <c r="L120" s="2">
         <v>0.0</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>389</v>
+      <c r="M120" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
@@ -10307,10 +10465,10 @@
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
       <c r="T120" s="2">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="U120" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V120" s="1">
         <v>0.0</v>
@@ -10318,7 +10476,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="B121" s="2">
         <v>1.0</v>
@@ -10353,11 +10511,11 @@
       <c r="L121" s="2">
         <v>0.0</v>
       </c>
-      <c r="M121" s="4" t="s">
+      <c r="M121" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="N121" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="N121" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
@@ -10365,10 +10523,10 @@
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
       <c r="T121" s="2">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="U121" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="V121" s="1">
         <v>0.0</v>
@@ -10376,7 +10534,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="B122" s="2">
         <v>3.0</v>
@@ -10411,11 +10569,11 @@
       <c r="L122" s="2">
         <v>20.0</v>
       </c>
-      <c r="M122" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="N122" s="5" t="s">
-        <v>394</v>
+      <c r="M122" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
@@ -10423,10 +10581,10 @@
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
       <c r="T122" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="U122" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="V122" s="1">
         <v>0.0</v>
@@ -10434,7 +10592,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="B123" s="2">
         <v>1.0</v>
@@ -10470,10 +10628,10 @@
         <v>0.0</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
@@ -10484,7 +10642,7 @@
         <v>1.0</v>
       </c>
       <c r="U123" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V123" s="1">
         <v>0.0</v>
@@ -10492,7 +10650,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="B124" s="2">
         <v>1.0</v>
@@ -10527,11 +10685,11 @@
       <c r="L124" s="2">
         <v>0.0</v>
       </c>
-      <c r="M124" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="N124" s="4" t="s">
-        <v>400</v>
+      <c r="M124" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
@@ -10539,7 +10697,7 @@
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
       <c r="T124" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U124" s="1">
         <v>3.0</v>
@@ -10550,7 +10708,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="B125" s="2">
         <v>5.0</v>
@@ -10585,11 +10743,11 @@
       <c r="L125" s="2">
         <v>0.0</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>402</v>
+      <c r="M125" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
@@ -10597,10 +10755,10 @@
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="U125" s="1">
         <v>2.0</v>
-      </c>
-      <c r="U125" s="1">
-        <v>3.0</v>
       </c>
       <c r="V125" s="1">
         <v>0.0</v>
@@ -10608,7 +10766,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="B126" s="2">
         <v>6.0</v>
@@ -10644,10 +10802,10 @@
         <v>0.0</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="N126" s="5" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
@@ -10658,7 +10816,7 @@
         <v>3.0</v>
       </c>
       <c r="U126" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V126" s="1">
         <v>0.0</v>
@@ -10666,7 +10824,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="B127" s="2">
         <v>6.0</v>
@@ -10702,10 +10860,10 @@
         <v>0.0</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="N127" s="5" t="s">
-        <v>408</v>
+        <v>234</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
@@ -10713,7 +10871,7 @@
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
       <c r="T127" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U127" s="1">
         <v>3.0</v>
@@ -10724,7 +10882,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="B128" s="2">
         <v>1.0</v>
@@ -10759,11 +10917,11 @@
       <c r="L128" s="2">
         <v>0.0</v>
       </c>
-      <c r="M128" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="N128" s="4" t="s">
-        <v>410</v>
+      <c r="M128" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
@@ -10774,7 +10932,7 @@
         <v>1.0</v>
       </c>
       <c r="U128" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V128" s="1">
         <v>0.0</v>
@@ -10782,7 +10940,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="B129" s="2">
         <v>1.0</v>
@@ -10817,11 +10975,11 @@
       <c r="L129" s="2">
         <v>0.0</v>
       </c>
-      <c r="M129" s="5" t="s">
-        <v>412</v>
+      <c r="M129" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="N129" s="5" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
@@ -10829,7 +10987,7 @@
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="2">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="U129" s="1">
         <v>4.0</v>
@@ -10840,7 +10998,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B130" s="2">
         <v>1.0</v>
@@ -10876,10 +11034,10 @@
         <v>9.0</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -10887,10 +11045,10 @@
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
       <c r="T130" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="U130" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="V130" s="1">
         <v>0.0</v>
@@ -10898,7 +11056,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="B131" s="2">
         <v>4.0</v>
@@ -10934,10 +11092,10 @@
         <v>37.0</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
@@ -10945,10 +11103,10 @@
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
       <c r="T131" s="2">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="U131" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V131" s="1">
         <v>0.0</v>
@@ -10956,7 +11114,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B132" s="2">
         <v>1.0</v>
@@ -10992,10 +11150,10 @@
         <v>0.0</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>421</v>
+        <v>175</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
@@ -11003,10 +11161,10 @@
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="2">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="U132" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V132" s="1">
         <v>0.0</v>
@@ -11014,7 +11172,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="B133" s="2">
         <v>1.0</v>
@@ -11050,10 +11208,10 @@
         <v>0.0</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>175</v>
+        <v>404</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
@@ -11072,7 +11230,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="B134" s="2">
         <v>1.0</v>
@@ -11108,10 +11266,10 @@
         <v>0.0</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
@@ -11119,10 +11277,10 @@
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
       <c r="T134" s="2">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="U134" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V134" s="1">
         <v>0.0</v>
@@ -11130,7 +11288,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B135" s="2">
         <v>1.0</v>
@@ -11165,11 +11323,11 @@
       <c r="L135" s="2">
         <v>0.0</v>
       </c>
-      <c r="M135" s="4" t="s">
-        <v>426</v>
+      <c r="M135" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
@@ -11177,7 +11335,7 @@
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="2">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="U135" s="1">
         <v>4.0</v>
@@ -11188,7 +11346,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="B136" s="2">
         <v>7.0</v>
@@ -11223,11 +11381,11 @@
       <c r="L136" s="2">
         <v>0.0</v>
       </c>
-      <c r="M136" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="N136" s="5" t="s">
-        <v>431</v>
+      <c r="M136" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
@@ -11235,10 +11393,10 @@
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="2">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="U136" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V136" s="1">
         <v>0.0</v>
@@ -11246,7 +11404,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="B137" s="2">
         <v>1.0</v>
@@ -11282,10 +11440,10 @@
         <v>0.0</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
@@ -11293,10 +11451,10 @@
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
       <c r="T137" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="U137" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V137" s="1">
         <v>0.0</v>
@@ -11304,7 +11462,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="B138" s="2">
         <v>1.0</v>
@@ -11340,10 +11498,10 @@
         <v>0.0</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="N138" s="4" t="s">
-        <v>437</v>
+        <v>417</v>
+      </c>
+      <c r="N138" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
@@ -11354,7 +11512,7 @@
         <v>13.0</v>
       </c>
       <c r="U138" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="V138" s="1">
         <v>0.0</v>
@@ -11362,7 +11520,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="B139" s="2">
         <v>5.0</v>
@@ -11398,10 +11556,10 @@
         <v>0.0</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
@@ -11409,10 +11567,10 @@
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
       <c r="T139" s="2">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="U139" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="V139" s="1">
         <v>0.0</v>
@@ -11420,7 +11578,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="B140" s="2">
         <v>1.0</v>
@@ -11456,10 +11614,10 @@
         <v>0.0</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="N140" s="5" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
@@ -11467,10 +11625,10 @@
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
       <c r="T140" s="2">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="U140" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="V140" s="1">
         <v>0.0</v>
@@ -11478,7 +11636,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="B141" s="2">
         <v>1.0</v>
@@ -11514,10 +11672,10 @@
         <v>0.0</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
@@ -11525,10 +11683,10 @@
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
       <c r="T141" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="U141" s="1">
         <v>2.0</v>
-      </c>
-      <c r="U141" s="1">
-        <v>4.0</v>
       </c>
       <c r="V141" s="1">
         <v>0.0</v>
@@ -11536,7 +11694,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="B142" s="2">
         <v>4.0</v>
@@ -11572,10 +11730,10 @@
         <v>0.0</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="N142" s="5" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
@@ -11583,10 +11741,10 @@
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
       <c r="T142" s="2">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="U142" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V142" s="1">
         <v>0.0</v>
@@ -11594,7 +11752,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="B143" s="2">
         <v>1.0</v>
@@ -11630,10 +11788,10 @@
         <v>0.0</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="N143" s="5" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
@@ -11641,10 +11799,10 @@
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
       <c r="T143" s="2">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="U143" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="V143" s="1">
         <v>0.0</v>
@@ -11652,7 +11810,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B144" s="2">
         <v>1.0</v>
@@ -11688,10 +11846,10 @@
         <v>3.0</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="N144" s="5" t="s">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
@@ -11699,10 +11857,10 @@
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
       <c r="T144" s="2">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="U144" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="V144" s="1">
         <v>0.0</v>
@@ -11710,7 +11868,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="B145" s="2">
         <v>8.0</v>
@@ -11746,10 +11904,10 @@
         <v>0.0</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="N145" s="5" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
@@ -11757,10 +11915,10 @@
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
       <c r="T145" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U145" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V145" s="1">
         <v>0.0</v>
@@ -11768,7 +11926,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="B146" s="2">
         <v>1.0</v>
@@ -11804,10 +11962,10 @@
         <v>50.0</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="N146" s="5" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
@@ -11815,7 +11973,7 @@
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="U146" s="1">
         <v>3.0</v>
@@ -11826,7 +11984,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="B147" s="2">
         <v>1.0</v>
@@ -11862,10 +12020,10 @@
         <v>41.0</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="N147" s="5" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
@@ -11873,7 +12031,7 @@
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="2">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="U147" s="1">
         <v>3.0</v>
@@ -11884,7 +12042,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="B148" s="2">
         <v>4.0</v>
@@ -11920,10 +12078,10 @@
         <v>0.0</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="N148" s="5" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
@@ -11931,10 +12089,10 @@
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="2">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="U148" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V148" s="1">
         <v>0.0</v>
@@ -11942,7 +12100,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="B149" s="2">
         <v>2.0</v>
@@ -11978,10 +12136,10 @@
         <v>0.0</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="N149" s="5" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
@@ -11992,7 +12150,7 @@
         <v>5.0</v>
       </c>
       <c r="U149" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V149" s="1">
         <v>0.0</v>
@@ -12000,7 +12158,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="B150" s="2">
         <v>2.0</v>
@@ -12036,10 +12194,10 @@
         <v>6.0</v>
       </c>
       <c r="M150" s="4" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="N150" s="5" t="s">
-        <v>471</v>
+        <v>281</v>
       </c>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
@@ -12047,10 +12205,10 @@
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="2">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="U150" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="V150" s="1">
         <v>0.0</v>
@@ -12058,7 +12216,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="B151" s="2">
         <v>3.0</v>
@@ -12093,11 +12251,11 @@
       <c r="L151" s="2">
         <v>0.0</v>
       </c>
-      <c r="M151" s="4" t="s">
-        <v>473</v>
+      <c r="M151" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="N151" s="5" t="s">
-        <v>303</v>
+        <v>454</v>
       </c>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
@@ -12105,10 +12263,10 @@
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
       <c r="T151" s="2">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="U151" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="V151" s="1">
         <v>0.0</v>
@@ -12116,7 +12274,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="B152" s="2">
         <v>2.0</v>
@@ -12152,10 +12310,10 @@
         <v>0.0</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="N152" s="5" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
@@ -12163,10 +12321,10 @@
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="2">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="U152" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="V152" s="1">
         <v>0.0</v>
@@ -12174,7 +12332,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="B153" s="2">
         <v>1.0</v>
@@ -12209,11 +12367,11 @@
       <c r="L153" s="2">
         <v>50.0</v>
       </c>
-      <c r="M153" s="5" t="s">
-        <v>478</v>
+      <c r="M153" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="N153" s="5" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
@@ -12221,7 +12379,7 @@
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="2">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="U153" s="1">
         <v>2.0</v>
@@ -12232,7 +12390,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="B154" s="2">
         <v>1.0</v>
@@ -12268,10 +12426,10 @@
         <v>0.0</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="N154" s="5" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
@@ -12279,10 +12437,10 @@
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
       <c r="T154" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U154" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V154" s="1">
         <v>0.0</v>
@@ -12290,7 +12448,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="B155" s="2">
         <v>9.0</v>
@@ -12326,10 +12484,10 @@
         <v>0.0</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="N155" s="5" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
@@ -12337,10 +12495,10 @@
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="2">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="U155" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="V155" s="1">
         <v>0.0</v>
@@ -12348,7 +12506,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="B156" s="2">
         <v>5.0</v>
@@ -12383,11 +12541,11 @@
       <c r="L156" s="2">
         <v>37.0</v>
       </c>
-      <c r="M156" s="4" t="s">
-        <v>487</v>
+      <c r="M156" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="N156" s="5" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
@@ -12395,10 +12553,10 @@
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="2">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="U156" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V156" s="1">
         <v>0.0</v>
@@ -12406,7 +12564,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="B157" s="2">
         <v>1.0</v>
@@ -12441,11 +12599,11 @@
       <c r="L157" s="2">
         <v>8.0</v>
       </c>
-      <c r="M157" s="5" t="s">
-        <v>490</v>
+      <c r="M157" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="N157" s="5" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
@@ -12453,7 +12611,7 @@
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
       <c r="T157" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U157" s="1">
         <v>4.0</v>
@@ -12464,7 +12622,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="B158" s="2">
         <v>4.0</v>
@@ -12500,10 +12658,10 @@
         <v>3.0</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="N158" s="5" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
@@ -12511,10 +12669,10 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U158" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="V158" s="1">
         <v>0.0</v>
@@ -12522,7 +12680,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="B159" s="2">
         <v>4.0</v>
@@ -12558,10 +12716,10 @@
         <v>0.0</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="N159" s="5" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
@@ -12572,7 +12730,7 @@
         <v>3.0</v>
       </c>
       <c r="U159" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V159" s="1">
         <v>0.0</v>
@@ -12580,7 +12738,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="B160" s="2">
         <v>6.0</v>
@@ -12616,10 +12774,10 @@
         <v>0.0</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="N160" s="5" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
@@ -12627,18 +12785,18 @@
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U160" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V160" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="B161" s="2">
         <v>3.0</v>
@@ -12674,10 +12832,10 @@
         <v>10.0</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="N161" s="5" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
@@ -12685,10 +12843,10 @@
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
       <c r="T161" s="2">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="U161" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V161" s="1">
         <v>1.0</v>
@@ -12696,7 +12854,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="B162" s="2">
         <v>1.0</v>
@@ -12732,10 +12890,10 @@
         <v>52.0</v>
       </c>
       <c r="M162" s="4" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="N162" s="5" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
@@ -12743,18 +12901,18 @@
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
       <c r="T162" s="2">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="U162" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V162" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="B163" s="2">
         <v>1.0</v>
@@ -12790,10 +12948,10 @@
         <v>0.0</v>
       </c>
       <c r="M163" s="4" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
@@ -12801,10 +12959,10 @@
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="U163" s="1">
         <v>2.0</v>
-      </c>
-      <c r="U163" s="1">
-        <v>3.0</v>
       </c>
       <c r="V163" s="1">
         <v>0.0</v>
@@ -12812,7 +12970,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="B164" s="2">
         <v>5.0</v>
@@ -12848,10 +13006,10 @@
         <v>37.0</v>
       </c>
       <c r="M164" s="4" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="N164" s="5" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
@@ -12859,7 +13017,7 @@
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
       <c r="T164" s="2">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="U164" s="1">
         <v>2.0</v>
@@ -12870,7 +13028,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="B165" s="2">
         <v>1.0</v>
@@ -12905,11 +13063,11 @@
       <c r="L165" s="2">
         <v>0.0</v>
       </c>
-      <c r="M165" s="4" t="s">
-        <v>514</v>
+      <c r="M165" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="N165" s="5" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
@@ -12917,10 +13075,10 @@
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
       <c r="T165" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U165" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V165" s="1">
         <v>0.0</v>
@@ -12928,7 +13086,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="B166" s="2">
         <v>1.0</v>
@@ -12963,11 +13121,11 @@
       <c r="L166" s="2">
         <v>0.0</v>
       </c>
-      <c r="M166" s="5" t="s">
-        <v>517</v>
+      <c r="M166" s="4" t="s">
+        <v>498</v>
       </c>
       <c r="N166" s="5" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
@@ -12975,10 +13133,10 @@
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
       <c r="T166" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="U166" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V166" s="1">
         <v>0.0</v>
@@ -12986,7 +13144,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="B167" s="2">
         <v>1.0</v>
@@ -13022,10 +13180,10 @@
         <v>0.0</v>
       </c>
       <c r="M167" s="4" t="s">
-        <v>520</v>
+        <v>404</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>521</v>
+        <v>405</v>
       </c>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
@@ -13033,7 +13191,7 @@
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
       <c r="T167" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="U167" s="1">
         <v>3.0</v>
@@ -13044,7 +13202,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="B168" s="2">
         <v>5.0</v>
@@ -13079,11 +13237,11 @@
       <c r="L168" s="2">
         <v>0.0</v>
       </c>
-      <c r="M168" s="4" t="s">
-        <v>426</v>
+      <c r="M168" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="N168" s="5" t="s">
-        <v>427</v>
+        <v>503</v>
       </c>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
@@ -13091,18 +13249,18 @@
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
       <c r="T168" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="U168" s="1">
         <v>4.0</v>
       </c>
-      <c r="U168" s="1">
-        <v>3.0</v>
-      </c>
       <c r="V168" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="B169" s="2">
         <v>1.0</v>
@@ -13137,11 +13295,11 @@
       <c r="L169" s="2">
         <v>52.0</v>
       </c>
-      <c r="M169" s="5" t="s">
-        <v>524</v>
+      <c r="M169" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="N169" s="5" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
@@ -13149,10 +13307,10 @@
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
       <c r="T169" s="2">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="U169" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="V169" s="1">
         <v>1.0</v>
@@ -13160,7 +13318,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="B170" s="2">
         <v>7.0</v>
@@ -13196,10 +13354,10 @@
         <v>52.0</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="N170" s="5" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
@@ -13207,18 +13365,18 @@
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
       <c r="T170" s="2">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="U170" s="1">
         <v>2.0</v>
       </c>
       <c r="V170" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="B171" s="2">
         <v>6.0</v>
@@ -13254,10 +13412,10 @@
         <v>0.0</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="N171" s="5" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
@@ -13265,10 +13423,10 @@
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
       <c r="T171" s="2">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="U171" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V171" s="1">
         <v>0.0</v>
@@ -13276,7 +13434,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="B172" s="2">
         <v>1.0</v>
@@ -13312,10 +13470,10 @@
         <v>11.0</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="N172" s="5" t="s">
-        <v>534</v>
+        <v>324</v>
       </c>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
@@ -13323,10 +13481,10 @@
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="2">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="U172" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V172" s="1">
         <v>0.0</v>
@@ -13334,7 +13492,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="B173" s="2">
         <v>6.0</v>
@@ -13370,10 +13528,10 @@
         <v>0.0</v>
       </c>
       <c r="M173" s="4" t="s">
-        <v>536</v>
+        <v>332</v>
       </c>
       <c r="N173" s="5" t="s">
-        <v>346</v>
+        <v>516</v>
       </c>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
@@ -13381,18 +13539,18 @@
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
       <c r="T173" s="2">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="U173" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="V173" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="B174" s="2">
         <v>1.0</v>
@@ -13428,10 +13586,10 @@
         <v>52.0</v>
       </c>
       <c r="M174" s="4" t="s">
-        <v>354</v>
+        <v>518</v>
       </c>
       <c r="N174" s="5" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
@@ -13439,18 +13597,18 @@
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
       <c r="T174" s="2">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="U174" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="V174" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="B175" s="2">
         <v>1.0</v>
@@ -13486,10 +13644,10 @@
         <v>0.0</v>
       </c>
       <c r="M175" s="4" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="N175" s="5" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
@@ -13497,7 +13655,7 @@
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
       <c r="T175" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="U175" s="1">
         <v>4.0</v>
@@ -13508,7 +13666,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="B176" s="2">
         <v>1.0</v>
@@ -13544,10 +13702,10 @@
         <v>0.0</v>
       </c>
       <c r="M176" s="4" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="N176" s="5" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
@@ -13555,18 +13713,18 @@
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
       <c r="T176" s="2">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="U176" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V176" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="B177" s="2">
         <v>1.0</v>
@@ -13602,10 +13760,10 @@
         <v>38.0</v>
       </c>
       <c r="M177" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="N177" s="5" t="s">
-        <v>547</v>
+        <v>527</v>
+      </c>
+      <c r="N177" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
@@ -13613,18 +13771,18 @@
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
       <c r="T177" s="2">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="U177" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V177" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="B178" s="2">
         <v>1.0</v>
@@ -13660,10 +13818,10 @@
         <v>1.0</v>
       </c>
       <c r="M178" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="N178" s="4" t="s">
-        <v>550</v>
+        <v>530</v>
+      </c>
+      <c r="N178" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
@@ -13671,10 +13829,10 @@
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
       <c r="T178" s="2">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="U178" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="V178" s="1">
         <v>0.0</v>
@@ -13682,7 +13840,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="B179" s="2">
         <v>6.0</v>
@@ -13718,10 +13876,10 @@
         <v>0.0</v>
       </c>
       <c r="M179" s="4" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="N179" s="5" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
@@ -13729,10 +13887,10 @@
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
       <c r="T179" s="2">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="U179" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="V179" s="1">
         <v>0.0</v>
@@ -13740,7 +13898,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="B180" s="2">
         <v>10.0</v>
@@ -13776,10 +13934,10 @@
         <v>0.0</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="N180" s="5" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
@@ -13787,10 +13945,10 @@
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
       <c r="T180" s="2">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="U180" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V180" s="1">
         <v>0.0</v>
@@ -13798,7 +13956,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="B181" s="2">
         <v>1.0</v>
@@ -13834,10 +13992,10 @@
         <v>0.0</v>
       </c>
       <c r="M181" s="4" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="N181" s="5" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
@@ -13845,10 +14003,10 @@
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
       <c r="T181" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="U181" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V181" s="1">
         <v>0.0</v>
@@ -13856,7 +14014,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="B182" s="2">
         <v>4.0</v>
@@ -13891,18 +14049,22 @@
       <c r="L182" s="2">
         <v>0.0</v>
       </c>
-      <c r="M182" s="4"/>
-      <c r="N182" s="5"/>
+      <c r="M182" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="N182" s="5" t="s">
+        <v>543</v>
+      </c>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
       <c r="T182" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="U182" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V182" s="1">
         <v>0.0</v>
@@ -13910,7 +14072,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="B183" s="2">
         <v>1.0</v>
@@ -13946,10 +14108,10 @@
         <v>0.0</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="N183" s="5" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
@@ -13957,10 +14119,10 @@
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
       <c r="T183" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="U183" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="V183" s="1">
         <v>0.0</v>
@@ -13968,7 +14130,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="B184" s="2">
         <v>1.0</v>
@@ -14003,11 +14165,11 @@
       <c r="L184" s="2">
         <v>0.0</v>
       </c>
-      <c r="M184" s="4" t="s">
-        <v>565</v>
+      <c r="M184" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="N184" s="5" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
@@ -14015,7 +14177,7 @@
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
       <c r="T184" s="2">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="U184" s="1">
         <v>4.0</v>
@@ -14026,7 +14188,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="B185" s="2">
         <v>4.0</v>
@@ -14062,10 +14224,10 @@
         <v>0.0</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="N185" s="5" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
@@ -14073,10 +14235,10 @@
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
       <c r="T185" s="2">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="U185" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="V185" s="1">
         <v>0.0</v>
@@ -14084,7 +14246,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="B186" s="2">
         <v>1.0</v>
@@ -14119,11 +14281,11 @@
       <c r="L186" s="2">
         <v>3.0</v>
       </c>
-      <c r="M186" s="5" t="s">
-        <v>571</v>
+      <c r="M186" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="N186" s="5" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
@@ -14131,10 +14293,10 @@
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
       <c r="T186" s="2">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="U186" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V186" s="1">
         <v>0.0</v>
@@ -14142,7 +14304,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="B187" s="2">
         <v>1.0</v>
@@ -14178,10 +14340,10 @@
         <v>0.0</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="N187" s="5" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
@@ -14189,10 +14351,10 @@
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
       <c r="T187" s="2">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
       <c r="U187" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V187" s="1">
         <v>0.0</v>
@@ -14200,7 +14362,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="B188" s="2">
         <v>10.0</v>
@@ -14236,10 +14398,10 @@
         <v>5.0</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>415</v>
+        <v>559</v>
       </c>
       <c r="N188" s="5" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
@@ -14247,10 +14409,10 @@
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
       <c r="T188" s="2">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="U188" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V188" s="1">
         <v>0.0</v>
@@ -14258,7 +14420,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B189" s="2">
         <v>6.0</v>
@@ -14294,10 +14456,10 @@
         <v>0.0</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>579</v>
+        <v>332</v>
       </c>
       <c r="N189" s="5" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
@@ -14308,7 +14470,7 @@
         <v>3.0</v>
       </c>
       <c r="U189" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V189" s="1">
         <v>0.0</v>
@@ -14316,7 +14478,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="B190" s="2">
         <v>6.0</v>
@@ -14352,10 +14514,10 @@
         <v>0.0</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="N190" s="5" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
@@ -14363,18 +14525,18 @@
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
       <c r="T190" s="2">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="U190" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="V190" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="B191" s="2">
         <v>1.0</v>
@@ -14410,10 +14572,10 @@
         <v>0.0</v>
       </c>
       <c r="M191" s="4" t="s">
-        <v>354</v>
+        <v>567</v>
       </c>
       <c r="N191" s="5" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
@@ -14421,18 +14583,18 @@
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
       <c r="T191" s="2">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="U191" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V191" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="B192" s="2">
         <v>1.0</v>
@@ -14468,10 +14630,10 @@
         <v>3.0</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="N192" s="5" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
@@ -14479,18 +14641,18 @@
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
       <c r="T192" s="2">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="U192" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V192" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="B193" s="2">
         <v>1.0</v>
@@ -14526,10 +14688,10 @@
         <v>52.0</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="N193" s="5" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
@@ -14537,18 +14699,18 @@
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
       <c r="T193" s="2">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="U193" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V193" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="B194" s="2">
         <v>4.0</v>
@@ -14584,10 +14746,10 @@
         <v>0.0</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="N194" s="5" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
@@ -14595,10 +14757,10 @@
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
       <c r="T194" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U194" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V194" s="1">
         <v>0.0</v>
@@ -14606,7 +14768,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="B195" s="2">
         <v>6.0</v>
@@ -14641,11 +14803,11 @@
       <c r="L195" s="2">
         <v>0.0</v>
       </c>
-      <c r="M195" s="4" t="s">
-        <v>596</v>
+      <c r="M195" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="N195" s="5" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
@@ -14653,10 +14815,10 @@
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
       <c r="T195" s="2">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="U195" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V195" s="1">
         <v>0.0</v>
@@ -14664,7 +14826,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="B196" s="2">
         <v>1.0</v>
@@ -14700,10 +14862,10 @@
         <v>29.0</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="N196" s="5" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
@@ -14711,10 +14873,10 @@
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
       <c r="T196" s="2">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="U196" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V196" s="1">
         <v>0.0</v>
@@ -14722,7 +14884,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B197" s="2">
         <v>1.0</v>
@@ -14757,11 +14919,11 @@
       <c r="L197" s="2">
         <v>0.0</v>
       </c>
-      <c r="M197" s="5" t="s">
-        <v>354</v>
+      <c r="M197" s="4" t="s">
+        <v>584</v>
       </c>
       <c r="N197" s="5" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
@@ -14769,10 +14931,10 @@
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
       <c r="T197" s="2">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="U197" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V197" s="1">
         <v>0.0</v>
@@ -14780,7 +14942,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="B198" s="2">
         <v>8.0</v>
@@ -14816,10 +14978,10 @@
         <v>0.0</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="N198" s="5" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
@@ -14827,7 +14989,7 @@
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
       <c r="T198" s="2">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
       <c r="U198" s="1">
         <v>2.0</v>
@@ -14838,7 +15000,7 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="B199" s="2">
         <v>1.0</v>
@@ -14874,10 +15036,10 @@
         <v>0.0</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="N199" s="5" t="s">
-        <v>608</v>
+        <v>590</v>
+      </c>
+      <c r="N199" s="4" t="s">
+        <v>591</v>
       </c>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
@@ -14896,7 +15058,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="B200" s="2">
         <v>6.0</v>
@@ -14932,10 +15094,10 @@
         <v>0.0</v>
       </c>
       <c r="M200" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="N200" s="5" t="s">
-        <v>611</v>
+        <v>332</v>
+      </c>
+      <c r="N200" s="4" t="s">
+        <v>593</v>
       </c>
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
@@ -14943,10 +15105,10 @@
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
       <c r="T200" s="2">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="U200" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V200" s="1">
         <v>0.0</v>
@@ -14954,7 +15116,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="B201" s="2">
         <v>1.0</v>
@@ -14989,11 +15151,11 @@
       <c r="L201" s="2">
         <v>0.0</v>
       </c>
-      <c r="M201" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="N201" s="4" t="s">
-        <v>614</v>
+      <c r="M201" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="N201" s="5" t="s">
+        <v>596</v>
       </c>
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
@@ -15001,7 +15163,7 @@
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
       <c r="T201" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="U201" s="1">
         <v>3.0</v>
@@ -15012,7 +15174,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B202" s="2">
         <v>1.0</v>
@@ -15048,10 +15210,10 @@
         <v>0.0</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="N202" s="4" t="s">
-        <v>616</v>
+        <v>598</v>
+      </c>
+      <c r="N202" s="5" t="s">
+        <v>599</v>
       </c>
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
@@ -15059,10 +15221,10 @@
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
       <c r="T202" s="2">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="U202" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="V202" s="1">
         <v>0.0</v>
@@ -15070,7 +15232,7 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="B203" s="2">
         <v>1.0</v>
@@ -15105,11 +15267,11 @@
       <c r="L203" s="2">
         <v>0.0</v>
       </c>
-      <c r="M203" s="5" t="s">
-        <v>618</v>
+      <c r="M203" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="N203" s="5" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
@@ -15117,7 +15279,7 @@
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
       <c r="T203" s="2">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="U203" s="1">
         <v>3.0</v>
@@ -15128,7 +15290,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="B204" s="2">
         <v>6.0</v>
@@ -15164,10 +15326,10 @@
         <v>0.0</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="N204" s="5" t="s">
-        <v>622</v>
+        <v>332</v>
+      </c>
+      <c r="N204" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
@@ -15175,10 +15337,10 @@
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
       <c r="T204" s="2">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="U204" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V204" s="1">
         <v>0.0</v>
@@ -15186,7 +15348,7 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="B205" s="2">
         <v>11.0</v>
@@ -15222,10 +15384,10 @@
         <v>0.0</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="N205" s="5" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
@@ -15233,18 +15395,18 @@
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
       <c r="T205" s="2">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="U205" s="1">
         <v>3.0</v>
       </c>
       <c r="V205" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="B206" s="2">
         <v>1.0</v>
@@ -15280,10 +15442,10 @@
         <v>0.0</v>
       </c>
       <c r="M206" s="4" t="s">
-        <v>354</v>
+        <v>608</v>
       </c>
       <c r="N206" s="4" t="s">
-        <v>534</v>
+        <v>609</v>
       </c>
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
@@ -15291,10 +15453,10 @@
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
       <c r="T206" s="2">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="U206" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V206" s="1">
         <v>0.0</v>
@@ -15302,7 +15464,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="B207" s="2">
         <v>1.0</v>
@@ -15338,10 +15500,10 @@
         <v>0.0</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="N207" s="5" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
@@ -15349,18 +15511,18 @@
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
       <c r="T207" s="2">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="U207" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V207" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="B208" s="2">
         <v>6.0</v>
@@ -15396,10 +15558,10 @@
         <v>5.0</v>
       </c>
       <c r="M208" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="N208" s="4" t="s">
-        <v>632</v>
+        <v>614</v>
+      </c>
+      <c r="N208" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
@@ -15407,10 +15569,10 @@
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
       <c r="T208" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U208" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V208" s="1">
         <v>0.0</v>
@@ -15418,7 +15580,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="B209" s="2">
         <v>1.0</v>
@@ -15454,10 +15616,10 @@
         <v>0.0</v>
       </c>
       <c r="M209" s="4" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="N209" s="5" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
@@ -15465,10 +15627,10 @@
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
       <c r="T209" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U209" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V209" s="1">
         <v>0.0</v>
@@ -15476,7 +15638,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="B210" s="2">
         <v>1.0</v>
@@ -15512,10 +15674,10 @@
         <v>0.0</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="N210" s="5" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
@@ -15523,18 +15685,18 @@
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
       <c r="T210" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="U210" s="1">
         <v>5.0</v>
       </c>
-      <c r="U210" s="1">
-        <v>4.0</v>
-      </c>
       <c r="V210" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="B211" s="2">
         <v>1.0</v>
@@ -15570,10 +15732,10 @@
         <v>0.0</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="N211" s="5" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
@@ -15581,18 +15743,18 @@
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
       <c r="T211" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="U211" s="1">
         <v>5.0</v>
       </c>
-      <c r="U211" s="1">
-        <v>3.0</v>
-      </c>
       <c r="V211" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="B212" s="2">
         <v>1.0</v>
@@ -15627,11 +15789,11 @@
       <c r="L212" s="2">
         <v>3.0</v>
       </c>
-      <c r="M212" s="4" t="s">
-        <v>643</v>
+      <c r="M212" s="5" t="s">
+        <v>626</v>
       </c>
       <c r="N212" s="5" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
@@ -15639,18 +15801,18 @@
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
       <c r="T212" s="2">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="U212" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V212" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="B213" s="2">
         <v>1.0</v>
@@ -15686,10 +15848,10 @@
         <v>3.0</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="N213" s="5" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
@@ -15697,18 +15859,18 @@
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
       <c r="T213" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="U213" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V213" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="B214" s="2">
         <v>1.0</v>
@@ -15743,11 +15905,11 @@
       <c r="L214" s="2">
         <v>0.0</v>
       </c>
-      <c r="M214" s="5" t="s">
-        <v>649</v>
+      <c r="M214" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="N214" s="5" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
@@ -15755,10 +15917,10 @@
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
       <c r="T214" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="U214" s="1">
         <v>5.0</v>
-      </c>
-      <c r="U214" s="1">
-        <v>3.0</v>
       </c>
       <c r="V214" s="1">
         <v>0.0</v>
@@ -15766,7 +15928,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="B215" s="2">
         <v>12.0</v>
@@ -15802,10 +15964,10 @@
         <v>0.0</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="N215" s="5" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
@@ -15813,10 +15975,10 @@
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
       <c r="T215" s="2">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="U215" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V215" s="1">
         <v>0.0</v>
@@ -15824,7 +15986,7 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="B216" s="2">
         <v>1.0</v>
@@ -15860,10 +16022,10 @@
         <v>0.0</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="N216" s="5" t="s">
-        <v>654</v>
+        <v>636</v>
+      </c>
+      <c r="N216" s="4" t="s">
+        <v>637</v>
       </c>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
@@ -15882,7 +16044,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="B217" s="2">
         <v>1.0</v>
@@ -15917,30 +16079,25 @@
       <c r="L217" s="2">
         <v>0.0</v>
       </c>
-      <c r="M217" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="N217" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-      <c r="S217" s="1"/>
-      <c r="T217" s="2">
-        <v>12.0</v>
+      <c r="M217" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="N217" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="T217" s="3">
+        <v>13.0</v>
       </c>
       <c r="U217" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="V217" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="B218" s="2">
         <v>1.0</v>
@@ -15975,71 +16132,36 @@
       <c r="L218" s="2">
         <v>0.0</v>
       </c>
-      <c r="M218" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="N218" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-      <c r="S218" s="1"/>
-      <c r="T218" s="2">
-        <v>12.0</v>
+      <c r="M218" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="N218" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="T218" s="3">
+        <v>2.0</v>
       </c>
       <c r="U218" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="V218" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="B219" s="2">
         <v>5.0</v>
       </c>
-      <c r="M219" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="N219" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="T219" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="U219" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V219" s="1">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="B220" s="2">
         <v>3.0</v>
-      </c>
-      <c r="M220" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="N220" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="T220" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="U220" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V220" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
@@ -16066,21 +16188,21 @@
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U229" s="1">
         <v>2.0</v>
       </c>
-      <c r="V229" s="12">
+      <c r="V229" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="B230" s="2">
         <v>14.0</v>
@@ -16088,27 +16210,27 @@
       <c r="U230" s="1">
         <v>4.0</v>
       </c>
-      <c r="V230" s="12">
+      <c r="V230" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="U231" s="1">
         <v>4.0</v>
       </c>
-      <c r="V231" s="12">
+      <c r="V231" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="B232" s="2">
         <v>14.0</v>
@@ -16116,13 +16238,13 @@
       <c r="U232" s="1">
         <v>4.0</v>
       </c>
-      <c r="V232" s="12">
+      <c r="V232" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="B233" s="2">
         <v>14.0</v>
@@ -16130,13 +16252,13 @@
       <c r="U233" s="1">
         <v>4.0</v>
       </c>
-      <c r="V233" s="12">
+      <c r="V233" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="B234" s="2">
         <v>14.0</v>
@@ -16144,1000 +16266,1000 @@
       <c r="U234" s="1">
         <v>4.0</v>
       </c>
-      <c r="V234" s="12">
+      <c r="V234" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="U235" s="1">
         <v>5.0</v>
       </c>
-      <c r="V235" s="12">
+      <c r="V235" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="U236" s="1">
         <v>5.0</v>
       </c>
-      <c r="V236" s="12">
+      <c r="V236" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="U237" s="1">
         <v>5.0</v>
       </c>
-      <c r="V237" s="12">
+      <c r="V237" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="U238" s="1">
         <v>5.0</v>
       </c>
-      <c r="V238" s="12">
+      <c r="V238" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U239" s="1">
         <v>3.0</v>
       </c>
-      <c r="V239" s="12">
+      <c r="V239" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U240" s="1">
         <v>4.0</v>
       </c>
-      <c r="V240" s="12">
+      <c r="V240" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U241" s="1">
         <v>3.0</v>
       </c>
-      <c r="V241" s="12">
+      <c r="V241" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U242" s="1">
         <v>3.0</v>
       </c>
-      <c r="V242" s="12">
+      <c r="V242" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="U243" s="1">
         <v>4.0</v>
       </c>
-      <c r="V243" s="12">
+      <c r="V243" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U244" s="1">
         <v>5.0</v>
       </c>
-      <c r="V244" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="W244" s="11"/>
+      <c r="V244" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="W244" s="12"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="U245" s="1">
         <v>4.0</v>
       </c>
-      <c r="V245" s="12">
+      <c r="V245" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="U246" s="1">
         <v>5.0</v>
       </c>
-      <c r="V246" s="12">
+      <c r="V246" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U247" s="1">
         <v>4.0</v>
       </c>
-      <c r="V247" s="12">
+      <c r="V247" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U248" s="1">
         <v>4.0</v>
       </c>
-      <c r="V248" s="12">
+      <c r="V248" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U249" s="1">
         <v>3.0</v>
       </c>
-      <c r="V249" s="12">
+      <c r="V249" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U250" s="1">
         <v>3.0</v>
       </c>
-      <c r="V250" s="12">
+      <c r="V250" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="11" t="s">
+      <c r="A251" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="B251" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="B251" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="C251" s="11"/>
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
-      <c r="F251" s="11"/>
-      <c r="G251" s="11"/>
-      <c r="H251" s="11"/>
-      <c r="I251" s="11"/>
-      <c r="J251" s="11"/>
-      <c r="K251" s="11"/>
-      <c r="L251" s="11"/>
-      <c r="M251" s="11"/>
-      <c r="N251" s="11"/>
-      <c r="O251" s="11"/>
-      <c r="P251" s="11"/>
-      <c r="Q251" s="11"/>
-      <c r="R251" s="11"/>
-      <c r="S251" s="11"/>
-      <c r="T251" s="14">
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12"/>
+      <c r="G251" s="12"/>
+      <c r="H251" s="12"/>
+      <c r="I251" s="12"/>
+      <c r="J251" s="12"/>
+      <c r="K251" s="12"/>
+      <c r="L251" s="12"/>
+      <c r="M251" s="12"/>
+      <c r="N251" s="12"/>
+      <c r="O251" s="12"/>
+      <c r="P251" s="12"/>
+      <c r="Q251" s="12"/>
+      <c r="R251" s="12"/>
+      <c r="S251" s="12"/>
+      <c r="T251" s="10">
         <v>2.0</v>
       </c>
-      <c r="U251" s="13">
+      <c r="U251" s="14">
         <v>4.0</v>
       </c>
-      <c r="V251" s="12">
+      <c r="V251" s="13">
         <v>1.0</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="U252" s="1">
         <v>4.0</v>
       </c>
-      <c r="V252" s="12">
+      <c r="V252" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="U253" s="1">
         <v>4.0</v>
       </c>
-      <c r="V253" s="12">
+      <c r="V253" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="U254" s="1">
         <v>4.0</v>
       </c>
-      <c r="V254" s="12">
+      <c r="V254" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="U255" s="1">
         <v>5.0</v>
       </c>
-      <c r="V255" s="12">
+      <c r="V255" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="U256" s="1">
         <v>4.0</v>
       </c>
-      <c r="V256" s="12">
+      <c r="V256" s="13">
         <v>1.0</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="U257" s="1">
         <v>5.0</v>
       </c>
-      <c r="V257" s="12">
+      <c r="V257" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="U258" s="1">
         <v>5.0</v>
       </c>
-      <c r="V258" s="12">
+      <c r="V258" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="U259" s="1">
         <v>4.0</v>
       </c>
-      <c r="V259" s="12">
+      <c r="V259" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="U260" s="1">
         <v>4.0</v>
       </c>
-      <c r="V260" s="12">
+      <c r="V260" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="U261" s="1">
         <v>4.0</v>
       </c>
-      <c r="V261" s="12">
+      <c r="V261" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="U262" s="1">
         <v>3.0</v>
       </c>
-      <c r="V262" s="12">
+      <c r="V262" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="U263" s="1">
         <v>3.0</v>
       </c>
-      <c r="V263" s="12">
+      <c r="V263" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="U264" s="1">
         <v>3.0</v>
       </c>
-      <c r="V264" s="12">
+      <c r="V264" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="U265" s="1">
         <v>3.0</v>
       </c>
-      <c r="V265" s="12">
+      <c r="V265" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="U266" s="1">
         <v>5.0</v>
       </c>
-      <c r="V266" s="12">
+      <c r="V266" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="U267" s="1">
         <v>5.0</v>
       </c>
-      <c r="V267" s="12">
+      <c r="V267" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="U268" s="1">
         <v>5.0</v>
       </c>
-      <c r="V268" s="12">
+      <c r="V268" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="U269" s="1">
         <v>5.0</v>
       </c>
-      <c r="V269" s="12">
+      <c r="V269" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="U270" s="1">
         <v>5.0</v>
       </c>
-      <c r="V270" s="12">
+      <c r="V270" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="U271" s="1">
         <v>5.0</v>
       </c>
-      <c r="V271" s="12">
+      <c r="V271" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="U272" s="1">
         <v>2.0</v>
       </c>
-      <c r="V272" s="12">
+      <c r="V272" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U273" s="1">
         <v>3.0</v>
       </c>
-      <c r="V273" s="12">
+      <c r="V273" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U274" s="1">
         <v>3.0</v>
       </c>
-      <c r="V274" s="12">
+      <c r="V274" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="1" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U275" s="1">
         <v>3.0</v>
       </c>
-      <c r="V275" s="12">
+      <c r="V275" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U276" s="1">
         <v>3.0</v>
       </c>
-      <c r="V276" s="12">
+      <c r="V276" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U277" s="1">
         <v>3.0</v>
       </c>
-      <c r="V277" s="12">
+      <c r="V277" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="U278" s="1">
         <v>5.0</v>
       </c>
-      <c r="V278" s="12">
+      <c r="V278" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="U279" s="1">
         <v>4.0</v>
       </c>
-      <c r="V279" s="12">
+      <c r="V279" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="1" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="U280" s="1">
         <v>4.0</v>
       </c>
-      <c r="V280" s="12">
+      <c r="V280" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="U281" s="1">
         <v>4.0</v>
       </c>
-      <c r="V281" s="12">
+      <c r="V281" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="1" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U282" s="1">
         <v>4.0</v>
       </c>
-      <c r="V282" s="12">
+      <c r="V282" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="1" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U283" s="1">
         <v>3.0</v>
       </c>
-      <c r="V283" s="12">
+      <c r="V283" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="1" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U284" s="1">
         <v>3.0</v>
       </c>
-      <c r="V284" s="12">
+      <c r="V284" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="U285" s="1">
         <v>4.0</v>
       </c>
-      <c r="V285" s="12">
+      <c r="V285" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="U286" s="1">
         <v>4.0</v>
       </c>
-      <c r="V286" s="12">
+      <c r="V286" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="1" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="U287" s="1">
         <v>5.0</v>
       </c>
-      <c r="V287" s="12">
+      <c r="V287" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="U288" s="1">
         <v>4.0</v>
       </c>
-      <c r="V288" s="12">
+      <c r="V288" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="1" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="U289" s="1">
         <v>4.0</v>
       </c>
-      <c r="V289" s="12">
+      <c r="V289" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="U290" s="1">
         <v>4.0</v>
       </c>
-      <c r="V290" s="12">
+      <c r="V290" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="1" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="U291" s="1">
         <v>3.0</v>
       </c>
-      <c r="V291" s="12">
+      <c r="V291" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="U292" s="1">
         <v>4.0</v>
       </c>
-      <c r="V292" s="12">
+      <c r="V292" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="1" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U293" s="1">
         <v>5.0</v>
       </c>
-      <c r="V293" s="12">
+      <c r="V293" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="1" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="U294" s="1">
         <v>5.0</v>
       </c>
-      <c r="V294" s="12">
+      <c r="V294" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="1" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="U295" s="1">
         <v>4.0</v>
       </c>
-      <c r="V295" s="12">
+      <c r="V295" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="1" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="U296" s="1">
         <v>5.0</v>
       </c>
-      <c r="V296" s="12">
+      <c r="V296" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="1" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="U297" s="1">
         <v>5.0</v>
       </c>
-      <c r="V297" s="12">
+      <c r="V297" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="1" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="U298" s="1">
         <v>3.0</v>
       </c>
-      <c r="V298" s="12">
+      <c r="V298" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="1" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="U299" s="1">
         <v>5.0</v>
       </c>
-      <c r="V299" s="12">
+      <c r="V299" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="1" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="U300" s="1">
         <v>3.0</v>
       </c>
-      <c r="V300" s="12">
+      <c r="V300" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="1" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="U301" s="1">
         <v>4.0</v>
       </c>
-      <c r="V301" s="12">
+      <c r="V301" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="1" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="U302" s="1">
         <v>4.0</v>
       </c>
-      <c r="V302" s="12">
+      <c r="V302" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="1" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="U303" s="1">
         <v>5.0</v>
       </c>
-      <c r="V303" s="12">
+      <c r="V303" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="1" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="B304" s="2">
         <v>14.0</v>
@@ -17145,13 +17267,13 @@
       <c r="U304" s="1">
         <v>3.0</v>
       </c>
-      <c r="V304" s="12">
+      <c r="V304" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="B305" s="2">
         <v>14.0</v>
@@ -17159,55 +17281,55 @@
       <c r="U305" s="1">
         <v>4.0</v>
       </c>
-      <c r="V305" s="12">
+      <c r="V305" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="1" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="U306" s="1">
         <v>5.0</v>
       </c>
-      <c r="V306" s="12">
+      <c r="V306" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="1" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U307" s="1">
         <v>4.0</v>
       </c>
-      <c r="V307" s="12">
+      <c r="V307" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="1" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U308" s="1">
         <v>3.0</v>
       </c>
-      <c r="V308" s="12">
+      <c r="V308" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="B309" s="2">
         <v>14.0</v>
@@ -17215,27 +17337,27 @@
       <c r="U309" s="1">
         <v>4.0</v>
       </c>
-      <c r="V309" s="12">
+      <c r="V309" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="U310" s="1">
         <v>4.0</v>
       </c>
-      <c r="V310" s="13">
+      <c r="V310" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="B311" s="2">
         <v>14.0</v>
@@ -17243,77 +17365,77 @@
       <c r="U311" s="1">
         <v>4.0</v>
       </c>
-      <c r="V311" s="13">
+      <c r="V311" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U312" s="1">
         <v>4.0</v>
       </c>
-      <c r="V312" s="13">
+      <c r="V312" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="1" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U313" s="1">
         <v>5.0</v>
       </c>
-      <c r="V313" s="13">
+      <c r="V313" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="1" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U314" s="1">
         <v>5.0</v>
       </c>
-      <c r="V314" s="13">
+      <c r="V314" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="U315" s="1">
         <v>5.0</v>
       </c>
-      <c r="V315" s="13">
+      <c r="V315" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="1" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="U316" s="1">
         <v>4.0</v>
       </c>
-      <c r="V316" s="13">
+      <c r="V316" s="14">
         <v>0.0</v>
       </c>
     </row>

--- a/Condensed Music Data Keys and Time Coded CURRENT.xlsx
+++ b/Condensed Music Data Keys and Time Coded CURRENT.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="otx6eVdSUlDPI/9xMQKLJq3hTxZgJC9wmfKCn4lhTAg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="cT/PlRQEjSrArxVM05KejqABdmcHk4hPcIHx5TMcvTY="/>
     </ext>
   </extLst>
 </workbook>
@@ -2300,7 +2300,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2316,6 +2316,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2336,13 +2339,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2577,11 +2580,11 @@
     <col customWidth="1" min="17" max="17" width="7.25"/>
     <col customWidth="1" min="18" max="18" width="7.13"/>
     <col customWidth="1" min="19" max="19" width="6.63"/>
-    <col customWidth="1" min="20" max="20" width="3.5"/>
-    <col customWidth="1" min="21" max="21" width="3.63"/>
-    <col customWidth="1" min="22" max="22" width="3.5"/>
-    <col customWidth="1" min="27" max="27" width="14.38"/>
-    <col customWidth="1" min="29" max="29" width="4.75"/>
+    <col customWidth="1" min="20" max="20" width="7.0"/>
+    <col customWidth="1" min="21" max="22" width="9.88"/>
+    <col customWidth="1" min="23" max="23" width="3.5"/>
+    <col customWidth="1" min="28" max="28" width="14.38"/>
+    <col customWidth="1" min="30" max="30" width="4.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2648,10 +2651,11 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2711,13 +2715,10 @@
       <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V2" s="1">
+      <c r="T2" s="2"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -2779,13 +2780,10 @@
       <c r="S3" s="2">
         <v>0.0</v>
       </c>
-      <c r="T3" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V3" s="1">
+      <c r="T3" s="2"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -2845,13 +2843,10 @@
       <c r="S4" s="2">
         <v>0.0</v>
       </c>
-      <c r="T4" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V4" s="1">
+      <c r="T4" s="2"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -2911,13 +2906,10 @@
       <c r="S5" s="2">
         <v>0.0</v>
       </c>
-      <c r="T5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V5" s="1">
+      <c r="T5" s="2"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -2977,13 +2969,10 @@
       <c r="S6" s="2">
         <v>0.0</v>
       </c>
-      <c r="T6" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V6" s="1">
+      <c r="T6" s="2"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3043,13 +3032,10 @@
       <c r="S7" s="2">
         <v>0.0</v>
       </c>
-      <c r="T7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V7" s="1">
+      <c r="T7" s="2"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3109,19 +3095,16 @@
       <c r="S8" s="2">
         <v>0.0</v>
       </c>
-      <c r="T8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA8" s="3" t="s">
+      <c r="T8" s="2"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3181,13 +3164,10 @@
       <c r="S9" s="2">
         <v>0.0</v>
       </c>
-      <c r="T9" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V9" s="1">
+      <c r="T9" s="2"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3247,19 +3227,16 @@
       <c r="S10" s="2">
         <v>0.0</v>
       </c>
-      <c r="T10" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA10" s="3" t="s">
+      <c r="T10" s="2"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AB10" s="6" t="s">
+      <c r="AC10" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3319,19 +3296,16 @@
       <c r="S11" s="2">
         <v>0.0</v>
       </c>
-      <c r="T11" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA11" s="3" t="s">
+      <c r="T11" s="2"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AB11" s="6" t="s">
+      <c r="AC11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3383,19 +3357,16 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA12" s="3" t="s">
+      <c r="T12" s="2"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3455,19 +3426,16 @@
       <c r="S13" s="2">
         <v>0.0</v>
       </c>
-      <c r="T13" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA13" s="3" t="s">
+      <c r="T13" s="2"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AC13" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3527,22 +3495,19 @@
       <c r="S14" s="2">
         <v>0.0</v>
       </c>
-      <c r="T14" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="T14" s="2"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -3602,19 +3567,16 @@
       <c r="S15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T15" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U15" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB15" s="3" t="s">
+      <c r="T15" s="2"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>2.0</v>
       </c>
     </row>
@@ -3674,19 +3636,16 @@
       <c r="S16" s="2">
         <v>0.0</v>
       </c>
-      <c r="T16" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB16" s="3" t="s">
+      <c r="T16" s="2"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AD16" s="3">
         <v>3.0</v>
       </c>
     </row>
@@ -3746,19 +3705,16 @@
       <c r="S17" s="2">
         <v>0.0</v>
       </c>
-      <c r="T17" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB17" s="3" t="s">
+      <c r="T17" s="2"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4.0</v>
       </c>
     </row>
@@ -3818,19 +3774,16 @@
       <c r="S18" s="2">
         <v>0.0</v>
       </c>
-      <c r="T18" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U18" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB18" s="3" t="s">
+      <c r="T18" s="2"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>5.0</v>
       </c>
     </row>
@@ -3890,19 +3843,16 @@
       <c r="S19" s="2">
         <v>0.0</v>
       </c>
-      <c r="T19" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="U19" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB19" s="3" t="s">
+      <c r="T19" s="2"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AD19" s="3">
         <v>6.0</v>
       </c>
     </row>
@@ -3962,19 +3912,16 @@
       <c r="S20" s="2">
         <v>0.0</v>
       </c>
-      <c r="T20" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB20" s="3" t="s">
+      <c r="T20" s="2"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>7.0</v>
       </c>
     </row>
@@ -4034,19 +3981,16 @@
       <c r="S21" s="2">
         <v>0.0</v>
       </c>
-      <c r="T21" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB21" s="3" t="s">
+      <c r="T21" s="2"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>8.0</v>
       </c>
     </row>
@@ -4106,19 +4050,16 @@
       <c r="S22" s="2">
         <v>0.0</v>
       </c>
-      <c r="T22" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB22" s="3" t="s">
+      <c r="T22" s="2"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>9.0</v>
       </c>
     </row>
@@ -4178,19 +4119,16 @@
       <c r="S23" s="2">
         <v>0.0</v>
       </c>
-      <c r="T23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB23" s="3" t="s">
+      <c r="T23" s="2"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>10.0</v>
       </c>
     </row>
@@ -4250,19 +4188,16 @@
       <c r="S24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T24" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB24" s="3" t="s">
+      <c r="T24" s="2"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>11.0</v>
       </c>
     </row>
@@ -4322,19 +4257,16 @@
       <c r="S25" s="2">
         <v>0.0</v>
       </c>
-      <c r="T25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB25" s="3" t="s">
+      <c r="T25" s="2"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AD25" s="3">
         <v>12.0</v>
       </c>
     </row>
@@ -4394,19 +4326,16 @@
       <c r="S26" s="2">
         <v>0.0</v>
       </c>
-      <c r="T26" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U26" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB26" s="3" t="s">
+      <c r="T26" s="2"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>13.0</v>
       </c>
     </row>
@@ -4466,19 +4395,16 @@
       <c r="S27" s="2">
         <v>0.0</v>
       </c>
-      <c r="T27" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="U27" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB27" s="3" t="s">
+      <c r="T27" s="2"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC27" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>14.0</v>
       </c>
     </row>
@@ -4538,19 +4464,16 @@
       <c r="S28" s="2">
         <v>0.0</v>
       </c>
-      <c r="T28" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U28" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB28" s="3" t="s">
+      <c r="T28" s="2"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AD28" s="3">
         <v>15.0</v>
       </c>
     </row>
@@ -4610,19 +4533,16 @@
       <c r="S29" s="2">
         <v>0.0</v>
       </c>
-      <c r="T29" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U29" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB29" s="3" t="s">
+      <c r="T29" s="2"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>16.0</v>
       </c>
     </row>
@@ -4682,19 +4602,16 @@
       <c r="S30" s="2">
         <v>0.0</v>
       </c>
-      <c r="T30" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U30" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB30" s="3" t="s">
+      <c r="T30" s="2"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC30" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="AD30" s="3">
         <v>17.0</v>
       </c>
     </row>
@@ -4754,19 +4671,16 @@
       <c r="S31" s="2">
         <v>0.0</v>
       </c>
-      <c r="T31" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U31" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB31" s="3" t="s">
+      <c r="T31" s="2"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC31" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AC31" s="3">
+      <c r="AD31" s="3">
         <v>18.0</v>
       </c>
     </row>
@@ -4826,19 +4740,16 @@
       <c r="S32" s="2">
         <v>0.0</v>
       </c>
-      <c r="T32" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U32" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB32" s="3" t="s">
+      <c r="T32" s="2"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC32" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -4898,19 +4809,16 @@
       <c r="S33" s="2">
         <v>0.0</v>
       </c>
-      <c r="T33" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U33" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB33" s="3" t="s">
+      <c r="T33" s="2"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC33" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -4972,19 +4880,16 @@
       <c r="S34" s="2">
         <v>0.0</v>
       </c>
-      <c r="T34" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U34" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB34" s="3" t="s">
+      <c r="T34" s="2"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AC34" s="3">
+      <c r="AD34" s="3">
         <v>21.0</v>
       </c>
     </row>
@@ -5044,13 +4949,10 @@
       <c r="S35" s="2">
         <v>0.0</v>
       </c>
-      <c r="T35" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U35" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V35" s="1">
+      <c r="T35" s="2"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -5110,13 +5012,10 @@
       <c r="S36" s="2">
         <v>0.0</v>
       </c>
-      <c r="T36" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="U36" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V36" s="1">
+      <c r="T36" s="2"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -5176,22 +5075,19 @@
       <c r="S37" s="2">
         <v>0.0</v>
       </c>
-      <c r="T37" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U37" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA37" s="7" t="s">
+      <c r="T37" s="2"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB37" s="7" t="s">
+      <c r="AC37" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AC37" s="8">
+      <c r="AD37" s="9">
         <v>1.0</v>
       </c>
     </row>
@@ -5253,20 +5149,17 @@
       <c r="S38" s="2">
         <v>0.0</v>
       </c>
-      <c r="T38" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="U38" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="7" t="s">
+      <c r="T38" s="2"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AC38" s="8">
+      <c r="AD38" s="9">
         <v>2.0</v>
       </c>
     </row>
@@ -5326,20 +5219,17 @@
       <c r="S39" s="2">
         <v>0.0</v>
       </c>
-      <c r="T39" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="U39" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="7" t="s">
+      <c r="T39" s="2"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AC39" s="8">
+      <c r="AD39" s="9">
         <v>3.0</v>
       </c>
     </row>
@@ -5399,20 +5289,17 @@
       <c r="S40" s="2">
         <v>0.0</v>
       </c>
-      <c r="T40" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U40" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V40" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="7" t="s">
+      <c r="T40" s="2"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="AC40" s="8">
+      <c r="AD40" s="9">
         <v>4.0</v>
       </c>
     </row>
@@ -5472,20 +5359,17 @@
       <c r="S41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T41" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U41" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="7" t="s">
+      <c r="T41" s="2"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="AC41" s="8">
+      <c r="AD41" s="9">
         <v>5.0</v>
       </c>
     </row>
@@ -5545,20 +5429,17 @@
       <c r="S42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T42" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="U42" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V42" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="7" t="s">
+      <c r="T42" s="2"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AC42" s="8">
+      <c r="AD42" s="9">
         <v>6.0</v>
       </c>
     </row>
@@ -5618,20 +5499,17 @@
       <c r="S43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T43" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="U43" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="7" t="s">
+      <c r="T43" s="2"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="AC43" s="8">
+      <c r="AD43" s="9">
         <v>7.0</v>
       </c>
     </row>
@@ -5691,20 +5569,17 @@
       <c r="S44" s="2">
         <v>0.0</v>
       </c>
-      <c r="T44" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U44" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="7" t="s">
+      <c r="T44" s="2"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="AC44" s="8">
+      <c r="AD44" s="9">
         <v>8.0</v>
       </c>
     </row>
@@ -5766,20 +5641,17 @@
       <c r="S45" s="2">
         <v>0.0</v>
       </c>
-      <c r="T45" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U45" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="7" t="s">
+      <c r="T45" s="2"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="AC45" s="8">
+      <c r="AD45" s="9">
         <v>9.0</v>
       </c>
     </row>
@@ -5839,20 +5711,17 @@
       <c r="S46" s="2">
         <v>0.0</v>
       </c>
-      <c r="T46" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="U46" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="7" t="s">
+      <c r="T46" s="2"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AC46" s="8">
+      <c r="AD46" s="9">
         <v>10.0</v>
       </c>
     </row>
@@ -5912,20 +5781,17 @@
       <c r="S47" s="2">
         <v>0.0</v>
       </c>
-      <c r="T47" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="7" t="s">
+      <c r="T47" s="2"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AC47" s="8">
+      <c r="AD47" s="9">
         <v>11.0</v>
       </c>
     </row>
@@ -5985,20 +5851,17 @@
       <c r="S48" s="2">
         <v>0.0</v>
       </c>
-      <c r="T48" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="U48" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="7" t="s">
+      <c r="T48" s="2"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="AC48" s="8">
+      <c r="AD48" s="9">
         <v>12.0</v>
       </c>
     </row>
@@ -6058,20 +5921,17 @@
       <c r="S49" s="2">
         <v>0.0</v>
       </c>
-      <c r="T49" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U49" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="7" t="s">
+      <c r="T49" s="2"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="AC49" s="7">
+      <c r="AD49" s="8">
         <v>13.0</v>
       </c>
     </row>
@@ -6131,20 +5991,17 @@
       <c r="S50" s="2">
         <v>0.0</v>
       </c>
-      <c r="T50" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U50" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="7" t="s">
+      <c r="T50" s="2"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AC50" s="7">
+      <c r="AD50" s="8">
         <v>14.0</v>
       </c>
     </row>
@@ -6204,20 +6061,17 @@
       <c r="S51" s="2">
         <v>0.0</v>
       </c>
-      <c r="T51" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U51" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="7" t="s">
+      <c r="T51" s="2"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="AC51" s="7">
+      <c r="AD51" s="8">
         <v>15.0</v>
       </c>
     </row>
@@ -6277,20 +6131,17 @@
       <c r="S52" s="2">
         <v>0.0</v>
       </c>
-      <c r="T52" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U52" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="7" t="s">
+      <c r="T52" s="2"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="AC52" s="7">
+      <c r="AD52" s="8">
         <v>16.0</v>
       </c>
     </row>
@@ -6350,20 +6201,17 @@
       <c r="S53" s="2">
         <v>0.0</v>
       </c>
-      <c r="T53" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="U53" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V53" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="7" t="s">
+      <c r="T53" s="2"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AC53" s="7">
+      <c r="AD53" s="8">
         <v>17.0</v>
       </c>
     </row>
@@ -6423,20 +6271,17 @@
       <c r="S54" s="2">
         <v>0.0</v>
       </c>
-      <c r="T54" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U54" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="7" t="s">
+      <c r="T54" s="2"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC54" s="7">
+      <c r="AD54" s="8">
         <v>18.0</v>
       </c>
     </row>
@@ -6496,13 +6341,10 @@
       <c r="S55" s="2">
         <v>0.0</v>
       </c>
-      <c r="T55" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U55" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V55" s="1">
+      <c r="T55" s="2"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6564,13 +6406,10 @@
       <c r="S56" s="2">
         <v>0.0</v>
       </c>
-      <c r="T56" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U56" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V56" s="1">
+      <c r="T56" s="2"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6611,7 +6450,7 @@
       <c r="L57" s="2">
         <v>0.0</v>
       </c>
-      <c r="M57" s="10" t="s">
+      <c r="M57" s="11" t="s">
         <v>202</v>
       </c>
       <c r="N57" s="4"/>
@@ -6630,13 +6469,10 @@
       <c r="S57" s="2">
         <v>0.0</v>
       </c>
-      <c r="T57" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U57" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V57" s="1">
+      <c r="T57" s="2"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6696,13 +6532,10 @@
       <c r="S58" s="2">
         <v>0.0</v>
       </c>
-      <c r="T58" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U58" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V58" s="1">
+      <c r="T58" s="2"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6762,13 +6595,10 @@
       <c r="S59" s="2">
         <v>0.0</v>
       </c>
-      <c r="T59" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U59" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V59" s="1">
+      <c r="T59" s="2"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6828,13 +6658,10 @@
       <c r="S60" s="2">
         <v>0.0</v>
       </c>
-      <c r="T60" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U60" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V60" s="1">
+      <c r="T60" s="2"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6894,13 +6721,10 @@
       <c r="S61" s="2">
         <v>0.0</v>
       </c>
-      <c r="T61" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U61" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V61" s="1">
+      <c r="T61" s="2"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6960,13 +6784,10 @@
       <c r="S62" s="2">
         <v>0.0</v>
       </c>
-      <c r="T62" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U62" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V62" s="1">
+      <c r="T62" s="2"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7026,13 +6847,10 @@
       <c r="S63" s="2">
         <v>0.0</v>
       </c>
-      <c r="T63" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U63" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V63" s="1">
+      <c r="T63" s="2"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7092,13 +6910,10 @@
       <c r="S64" s="2">
         <v>0.0</v>
       </c>
-      <c r="T64" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="U64" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V64" s="1">
+      <c r="T64" s="2"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7158,13 +6973,10 @@
       <c r="S65" s="2">
         <v>0.0</v>
       </c>
-      <c r="T65" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U65" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V65" s="1">
+      <c r="T65" s="2"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7224,13 +7036,10 @@
       <c r="S66" s="2">
         <v>0.0</v>
       </c>
-      <c r="T66" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U66" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V66" s="1">
+      <c r="T66" s="2"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7290,13 +7099,10 @@
       <c r="S67" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T67" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U67" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V67" s="1">
+      <c r="T67" s="2"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7356,13 +7162,10 @@
       <c r="S68" s="2">
         <v>0.0</v>
       </c>
-      <c r="T68" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U68" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V68" s="1">
+      <c r="T68" s="2"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7424,13 +7227,10 @@
       <c r="S69" s="2">
         <v>0.0</v>
       </c>
-      <c r="T69" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U69" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V69" s="1">
+      <c r="T69" s="2"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7490,13 +7290,10 @@
       <c r="S70" s="2">
         <v>0.0</v>
       </c>
-      <c r="T70" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U70" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V70" s="1">
+      <c r="T70" s="2"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7556,13 +7353,10 @@
       <c r="S71" s="2">
         <v>0.0</v>
       </c>
-      <c r="T71" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U71" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V71" s="1">
+      <c r="T71" s="2"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7622,13 +7416,10 @@
       <c r="S72" s="2">
         <v>0.0</v>
       </c>
-      <c r="T72" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U72" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V72" s="1">
+      <c r="T72" s="2"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7688,13 +7479,10 @@
       <c r="S73" s="2">
         <v>0.0</v>
       </c>
-      <c r="T73" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U73" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V73" s="1">
+      <c r="T73" s="2"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7754,13 +7542,10 @@
       <c r="S74" s="2">
         <v>0.0</v>
       </c>
-      <c r="T74" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U74" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V74" s="1">
+      <c r="T74" s="2"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7820,13 +7605,10 @@
       <c r="S75" s="2">
         <v>0.0</v>
       </c>
-      <c r="T75" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U75" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V75" s="1">
+      <c r="T75" s="2"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7886,13 +7668,10 @@
       <c r="S76" s="2">
         <v>0.0</v>
       </c>
-      <c r="T76" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U76" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V76" s="1">
+      <c r="T76" s="2"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7954,13 +7733,10 @@
       <c r="S77" s="2">
         <v>0.0</v>
       </c>
-      <c r="T77" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="U77" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V77" s="1">
+      <c r="T77" s="2"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8020,13 +7796,10 @@
       <c r="S78" s="2">
         <v>0.0</v>
       </c>
-      <c r="T78" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U78" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V78" s="1">
+      <c r="T78" s="2"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8086,13 +7859,10 @@
       <c r="S79" s="2">
         <v>0.0</v>
       </c>
-      <c r="T79" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U79" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V79" s="1">
+      <c r="T79" s="2"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8144,13 +7914,10 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-      <c r="T80" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="U80" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V80" s="1">
+      <c r="T80" s="2"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8202,13 +7969,10 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
-      <c r="T81" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U81" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V81" s="1">
+      <c r="T81" s="2"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8260,13 +8024,10 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
-      <c r="T82" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U82" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V82" s="1">
+      <c r="T82" s="2"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8295,7 +8056,7 @@
       <c r="H83" s="2">
         <v>2.0</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I83" s="12">
         <v>45508.0</v>
       </c>
       <c r="J83" s="2">
@@ -8318,13 +8079,10 @@
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
-      <c r="T83" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U83" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V83" s="1">
+      <c r="T83" s="2"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8376,13 +8134,10 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
-      <c r="T84" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U84" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V84" s="1">
+      <c r="T84" s="2"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8434,13 +8189,10 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
-      <c r="T85" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U85" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V85" s="1">
+      <c r="T85" s="2"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8492,13 +8244,10 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
-      <c r="T86" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U86" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V86" s="1">
+      <c r="T86" s="2"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8550,13 +8299,10 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
-      <c r="T87" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U87" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V87" s="1">
+      <c r="T87" s="2"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8608,13 +8354,10 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
-      <c r="T88" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="U88" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V88" s="1">
+      <c r="T88" s="2"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8666,13 +8409,10 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
-      <c r="T89" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U89" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V89" s="1">
+      <c r="T89" s="2"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8724,13 +8464,10 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
-      <c r="T90" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U90" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V90" s="1">
+      <c r="T90" s="2"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8782,13 +8519,10 @@
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
-      <c r="T91" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U91" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V91" s="1">
+      <c r="T91" s="2"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8840,13 +8574,10 @@
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
-      <c r="T92" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U92" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V92" s="1">
+      <c r="T92" s="2"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8898,13 +8629,10 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
-      <c r="T93" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U93" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V93" s="1">
+      <c r="T93" s="2"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -8956,13 +8684,10 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
-      <c r="T94" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U94" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V94" s="1">
+      <c r="T94" s="2"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9014,13 +8739,10 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
-      <c r="T95" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U95" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V95" s="1">
+      <c r="T95" s="2"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9072,13 +8794,10 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
-      <c r="T96" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U96" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V96" s="1">
+      <c r="T96" s="2"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -9130,13 +8849,10 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
-      <c r="T97" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U97" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V97" s="1">
+      <c r="T97" s="2"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9188,13 +8904,10 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
-      <c r="T98" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U98" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="V98" s="2">
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -9246,13 +8959,10 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
-      <c r="T99" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="U99" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V99" s="1">
+      <c r="T99" s="2"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9304,13 +9014,10 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
-      <c r="T100" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="U100" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V100" s="1">
+      <c r="T100" s="2"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9362,13 +9069,10 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
-      <c r="T101" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U101" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V101" s="1">
+      <c r="T101" s="2"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9420,13 +9124,10 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
-      <c r="T102" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U102" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V102" s="1">
+      <c r="T102" s="2"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="6"/>
+      <c r="W102" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9478,13 +9179,10 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
-      <c r="T103" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U103" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V103" s="1">
+      <c r="T103" s="2"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9536,13 +9234,10 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
-      <c r="T104" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U104" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V104" s="1">
+      <c r="T104" s="2"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="6"/>
+      <c r="W104" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9594,13 +9289,10 @@
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
-      <c r="T105" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U105" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V105" s="1">
+      <c r="T105" s="2"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="6"/>
+      <c r="W105" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9652,13 +9344,10 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
-      <c r="T106" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U106" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V106" s="1">
+      <c r="T106" s="2"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9710,13 +9399,10 @@
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
-      <c r="T107" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U107" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V107" s="1">
+      <c r="T107" s="2"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="6"/>
+      <c r="W107" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -9768,13 +9454,10 @@
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
-      <c r="T108" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U108" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V108" s="1">
+      <c r="T108" s="2"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="6"/>
+      <c r="W108" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9826,13 +9509,10 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
-      <c r="T109" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U109" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V109" s="1">
+      <c r="T109" s="2"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9884,13 +9564,10 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
-      <c r="T110" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U110" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V110" s="1">
+      <c r="T110" s="2"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="6"/>
+      <c r="W110" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9942,13 +9619,10 @@
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
-      <c r="T111" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U111" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V111" s="1">
+      <c r="T111" s="2"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="6"/>
+      <c r="W111" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10000,13 +9674,10 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
-      <c r="T112" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U112" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V112" s="1">
+      <c r="T112" s="2"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10058,13 +9729,10 @@
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
-      <c r="T113" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U113" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V113" s="1">
+      <c r="T113" s="2"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10116,13 +9784,10 @@
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
-      <c r="T114" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U114" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V114" s="1">
+      <c r="T114" s="2"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10174,13 +9839,10 @@
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
-      <c r="T115" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U115" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V115" s="1">
+      <c r="T115" s="2"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10232,13 +9894,10 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
-      <c r="T116" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="U116" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V116" s="1">
+      <c r="T116" s="2"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="6"/>
+      <c r="W116" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10290,13 +9949,10 @@
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
-      <c r="T117" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U117" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V117" s="1">
+      <c r="T117" s="2"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="6"/>
+      <c r="W117" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10348,13 +10004,10 @@
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
-      <c r="T118" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="U118" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V118" s="1">
+      <c r="T118" s="2"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="6"/>
+      <c r="W118" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10406,13 +10059,10 @@
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
-      <c r="T119" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U119" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V119" s="1">
+      <c r="T119" s="2"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="6"/>
+      <c r="W119" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10464,13 +10114,10 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
-      <c r="T120" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U120" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V120" s="1">
+      <c r="T120" s="2"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="6"/>
+      <c r="W120" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10522,13 +10169,10 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
-      <c r="T121" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U121" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V121" s="1">
+      <c r="T121" s="2"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="6"/>
+      <c r="W121" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10580,13 +10224,10 @@
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
-      <c r="T122" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U122" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V122" s="1">
+      <c r="T122" s="2"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="6"/>
+      <c r="W122" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10638,13 +10279,10 @@
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
-      <c r="T123" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U123" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V123" s="1">
+      <c r="T123" s="2"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="6"/>
+      <c r="W123" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10696,13 +10334,10 @@
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
-      <c r="T124" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U124" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V124" s="1">
+      <c r="T124" s="2"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="6"/>
+      <c r="W124" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10754,13 +10389,10 @@
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
-      <c r="T125" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U125" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V125" s="1">
+      <c r="T125" s="2"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="6"/>
+      <c r="W125" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10812,13 +10444,10 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
-      <c r="T126" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U126" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V126" s="1">
+      <c r="T126" s="2"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="6"/>
+      <c r="W126" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10870,13 +10499,10 @@
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
-      <c r="T127" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U127" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V127" s="1">
+      <c r="T127" s="2"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="6"/>
+      <c r="W127" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10928,13 +10554,10 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
-      <c r="T128" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U128" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V128" s="1">
+      <c r="T128" s="2"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="6"/>
+      <c r="W128" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -10986,13 +10609,10 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
-      <c r="T129" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U129" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V129" s="1">
+      <c r="T129" s="2"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="6"/>
+      <c r="W129" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11044,13 +10664,10 @@
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
-      <c r="T130" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U130" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V130" s="1">
+      <c r="T130" s="2"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="6"/>
+      <c r="W130" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11102,13 +10719,10 @@
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
-      <c r="T131" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="U131" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V131" s="1">
+      <c r="T131" s="2"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="6"/>
+      <c r="W131" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11160,13 +10774,10 @@
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
-      <c r="T132" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U132" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V132" s="1">
+      <c r="T132" s="2"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="6"/>
+      <c r="W132" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11218,13 +10829,10 @@
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
-      <c r="T133" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U133" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V133" s="1">
+      <c r="T133" s="2"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="6"/>
+      <c r="W133" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11276,13 +10884,10 @@
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
-      <c r="T134" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U134" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V134" s="1">
+      <c r="T134" s="2"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="6"/>
+      <c r="W134" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11334,13 +10939,10 @@
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
-      <c r="T135" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U135" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V135" s="1">
+      <c r="T135" s="2"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="6"/>
+      <c r="W135" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11392,13 +10994,10 @@
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
-      <c r="T136" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U136" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V136" s="1">
+      <c r="T136" s="2"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="6"/>
+      <c r="W136" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11450,13 +11049,10 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
-      <c r="T137" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U137" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V137" s="1">
+      <c r="T137" s="2"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="6"/>
+      <c r="W137" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11508,13 +11104,10 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
-      <c r="T138" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U138" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V138" s="1">
+      <c r="T138" s="2"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="6"/>
+      <c r="W138" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11566,13 +11159,10 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
-      <c r="T139" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U139" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V139" s="1">
+      <c r="T139" s="2"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="6"/>
+      <c r="W139" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11624,13 +11214,10 @@
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
-      <c r="T140" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U140" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V140" s="1">
+      <c r="T140" s="2"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="6"/>
+      <c r="W140" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11682,13 +11269,10 @@
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
-      <c r="T141" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U141" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V141" s="1">
+      <c r="T141" s="2"/>
+      <c r="U141" s="1"/>
+      <c r="V141" s="6"/>
+      <c r="W141" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11740,13 +11324,10 @@
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
-      <c r="T142" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="U142" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V142" s="1">
+      <c r="T142" s="2"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="6"/>
+      <c r="W142" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11798,13 +11379,10 @@
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
-      <c r="T143" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U143" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V143" s="1">
+      <c r="T143" s="2"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="6"/>
+      <c r="W143" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11856,15 +11434,7 @@
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
-      <c r="T144" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U144" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V144" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="V144" s="14"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
@@ -11914,13 +11484,10 @@
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
-      <c r="T145" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U145" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V145" s="1">
+      <c r="T145" s="2"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="6"/>
+      <c r="W145" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -11972,13 +11539,10 @@
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
-      <c r="T146" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U146" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V146" s="1">
+      <c r="T146" s="2"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="6"/>
+      <c r="W146" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12030,13 +11594,10 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
-      <c r="T147" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U147" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V147" s="1">
+      <c r="T147" s="2"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="6"/>
+      <c r="W147" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12088,13 +11649,10 @@
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
-      <c r="T148" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U148" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V148" s="1">
+      <c r="T148" s="2"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="6"/>
+      <c r="W148" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12146,13 +11704,10 @@
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
-      <c r="T149" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U149" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V149" s="1">
+      <c r="T149" s="2"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="6"/>
+      <c r="W149" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12204,13 +11759,10 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
-      <c r="T150" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="U150" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V150" s="1">
+      <c r="T150" s="2"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="6"/>
+      <c r="W150" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12262,13 +11814,10 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
-      <c r="T151" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U151" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V151" s="1">
+      <c r="T151" s="2"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="6"/>
+      <c r="W151" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12320,13 +11869,10 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
-      <c r="T152" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U152" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V152" s="1">
+      <c r="T152" s="2"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="6"/>
+      <c r="W152" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12378,13 +11924,10 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
-      <c r="T153" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U153" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V153" s="1">
+      <c r="T153" s="2"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="6"/>
+      <c r="W153" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12436,13 +11979,10 @@
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
-      <c r="T154" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U154" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V154" s="1">
+      <c r="T154" s="2"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="6"/>
+      <c r="W154" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12494,13 +12034,10 @@
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
-      <c r="T155" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U155" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V155" s="1">
+      <c r="T155" s="2"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="6"/>
+      <c r="W155" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12552,15 +12089,7 @@
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
-      <c r="T156" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U156" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V156" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="V156" s="14"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
@@ -12610,15 +12139,7 @@
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
-      <c r="T157" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U157" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V157" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="V157" s="14"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
@@ -12668,13 +12189,10 @@
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
-      <c r="T158" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U158" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V158" s="1">
+      <c r="T158" s="2"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="6"/>
+      <c r="W158" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12726,13 +12244,10 @@
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
-      <c r="T159" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U159" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V159" s="1">
+      <c r="T159" s="2"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="6"/>
+      <c r="W159" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12784,14 +12299,11 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
-      <c r="T160" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U160" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V160" s="1">
-        <v>1.0</v>
+      <c r="T160" s="2"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="6"/>
+      <c r="W160" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
@@ -12842,14 +12354,11 @@
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
-      <c r="T161" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U161" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V161" s="1">
-        <v>1.0</v>
+      <c r="T161" s="2"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="6"/>
+      <c r="W161" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
@@ -12900,14 +12409,11 @@
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
-      <c r="T162" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U162" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V162" s="1">
-        <v>0.0</v>
+      <c r="T162" s="2"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="6"/>
+      <c r="W162" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
@@ -12958,14 +12464,11 @@
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
-      <c r="T163" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U163" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V163" s="1">
-        <v>0.0</v>
+      <c r="T163" s="2"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="6"/>
+      <c r="W163" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
@@ -13016,13 +12519,10 @@
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
-      <c r="T164" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U164" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V164" s="1">
+      <c r="T164" s="2"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="6"/>
+      <c r="W164" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -13074,13 +12574,10 @@
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
-      <c r="T165" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U165" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V165" s="1">
+      <c r="T165" s="2"/>
+      <c r="U165" s="1"/>
+      <c r="V165" s="6"/>
+      <c r="W165" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -13132,13 +12629,10 @@
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
-      <c r="T166" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U166" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V166" s="1">
+      <c r="T166" s="2"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="6"/>
+      <c r="W166" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -13190,13 +12684,10 @@
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
-      <c r="T167" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U167" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V167" s="1">
+      <c r="T167" s="2"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="6"/>
+      <c r="W167" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -13248,14 +12739,11 @@
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
-      <c r="T168" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U168" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V168" s="1">
-        <v>1.0</v>
+      <c r="T168" s="2"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="6"/>
+      <c r="W168" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
@@ -13306,14 +12794,11 @@
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
-      <c r="T169" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U169" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V169" s="1">
-        <v>1.0</v>
+      <c r="T169" s="2"/>
+      <c r="U169" s="1"/>
+      <c r="V169" s="6"/>
+      <c r="W169" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
@@ -13364,14 +12849,11 @@
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
-      <c r="T170" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U170" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V170" s="1">
-        <v>0.0</v>
+      <c r="T170" s="2"/>
+      <c r="U170" s="1"/>
+      <c r="V170" s="6"/>
+      <c r="W170" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
@@ -13422,14 +12904,11 @@
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
-      <c r="T171" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U171" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V171" s="1">
-        <v>0.0</v>
+      <c r="T171" s="2"/>
+      <c r="U171" s="1"/>
+      <c r="V171" s="6"/>
+      <c r="W171" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
@@ -13480,13 +12959,10 @@
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
-      <c r="T172" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U172" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V172" s="1">
+      <c r="T172" s="2"/>
+      <c r="U172" s="1"/>
+      <c r="V172" s="6"/>
+      <c r="W172" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -13538,14 +13014,11 @@
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
-      <c r="T173" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U173" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V173" s="1">
-        <v>1.0</v>
+      <c r="T173" s="2"/>
+      <c r="U173" s="1"/>
+      <c r="V173" s="6"/>
+      <c r="W173" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
@@ -13596,13 +13069,10 @@
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
-      <c r="T174" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U174" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V174" s="1">
+      <c r="T174" s="2"/>
+      <c r="U174" s="1"/>
+      <c r="V174" s="6"/>
+      <c r="W174" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -13654,14 +13124,11 @@
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
-      <c r="T175" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="U175" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V175" s="1">
-        <v>0.0</v>
+      <c r="T175" s="2"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="6"/>
+      <c r="W175" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
@@ -13712,14 +13179,11 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
-      <c r="T176" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U176" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V176" s="1">
-        <v>1.0</v>
+      <c r="T176" s="2"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="6"/>
+      <c r="W176" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
@@ -13770,13 +13234,10 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
-      <c r="T177" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U177" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V177" s="1">
+      <c r="T177" s="2"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="6"/>
+      <c r="W177" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -13828,14 +13289,11 @@
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
-      <c r="T178" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U178" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V178" s="1">
-        <v>0.0</v>
+      <c r="T178" s="2"/>
+      <c r="U178" s="1"/>
+      <c r="V178" s="6"/>
+      <c r="W178" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
@@ -13886,13 +13344,10 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
-      <c r="T179" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U179" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V179" s="1">
+      <c r="T179" s="2"/>
+      <c r="U179" s="1"/>
+      <c r="V179" s="6"/>
+      <c r="W179" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -13944,13 +13399,10 @@
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
-      <c r="T180" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U180" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V180" s="1">
+      <c r="T180" s="2"/>
+      <c r="U180" s="1"/>
+      <c r="V180" s="6"/>
+      <c r="W180" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14002,13 +13454,10 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
-      <c r="T181" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U181" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V181" s="1">
+      <c r="T181" s="2"/>
+      <c r="U181" s="1"/>
+      <c r="V181" s="6"/>
+      <c r="W181" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14060,13 +13509,10 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
-      <c r="T182" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U182" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V182" s="1">
+      <c r="T182" s="2"/>
+      <c r="U182" s="1"/>
+      <c r="V182" s="6"/>
+      <c r="W182" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14118,13 +13564,10 @@
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
-      <c r="T183" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U183" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V183" s="1">
+      <c r="T183" s="2"/>
+      <c r="U183" s="1"/>
+      <c r="V183" s="6"/>
+      <c r="W183" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14176,13 +13619,10 @@
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
-      <c r="T184" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U184" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V184" s="1">
+      <c r="T184" s="2"/>
+      <c r="U184" s="1"/>
+      <c r="V184" s="6"/>
+      <c r="W184" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14234,13 +13674,10 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
-      <c r="T185" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="U185" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V185" s="1">
+      <c r="T185" s="2"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="6"/>
+      <c r="W185" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14292,13 +13729,10 @@
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
-      <c r="T186" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U186" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V186" s="1">
+      <c r="T186" s="2"/>
+      <c r="U186" s="1"/>
+      <c r="V186" s="6"/>
+      <c r="W186" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14350,13 +13784,10 @@
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
-      <c r="T187" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U187" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V187" s="1">
+      <c r="T187" s="2"/>
+      <c r="U187" s="1"/>
+      <c r="V187" s="6"/>
+      <c r="W187" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14408,13 +13839,10 @@
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
-      <c r="T188" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U188" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V188" s="1">
+      <c r="T188" s="2"/>
+      <c r="U188" s="1"/>
+      <c r="V188" s="6"/>
+      <c r="W188" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14466,13 +13894,10 @@
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
-      <c r="T189" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U189" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V189" s="1">
+      <c r="T189" s="2"/>
+      <c r="U189" s="1"/>
+      <c r="V189" s="6"/>
+      <c r="W189" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14524,14 +13949,11 @@
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
-      <c r="T190" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U190" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V190" s="1">
-        <v>1.0</v>
+      <c r="T190" s="2"/>
+      <c r="U190" s="1"/>
+      <c r="V190" s="6"/>
+      <c r="W190" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
@@ -14582,14 +14004,11 @@
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
-      <c r="T191" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U191" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V191" s="1">
-        <v>1.0</v>
+      <c r="T191" s="2"/>
+      <c r="U191" s="1"/>
+      <c r="V191" s="6"/>
+      <c r="W191" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
@@ -14640,14 +14059,11 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
-      <c r="T192" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U192" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V192" s="1">
-        <v>0.0</v>
+      <c r="T192" s="2"/>
+      <c r="U192" s="1"/>
+      <c r="V192" s="6"/>
+      <c r="W192" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
@@ -14698,14 +14114,11 @@
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
-      <c r="T193" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U193" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V193" s="1">
-        <v>0.0</v>
+      <c r="T193" s="2"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="6"/>
+      <c r="W193" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
@@ -14756,13 +14169,10 @@
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
-      <c r="T194" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U194" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V194" s="1">
+      <c r="T194" s="2"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="6"/>
+      <c r="W194" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14814,13 +14224,10 @@
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
-      <c r="T195" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="U195" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V195" s="1">
+      <c r="T195" s="2"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="6"/>
+      <c r="W195" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14872,13 +14279,10 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
-      <c r="T196" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="U196" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V196" s="1">
+      <c r="T196" s="2"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="6"/>
+      <c r="W196" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14930,13 +14334,10 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
-      <c r="T197" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U197" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V197" s="1">
+      <c r="T197" s="2"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="6"/>
+      <c r="W197" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -14988,13 +14389,10 @@
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
-      <c r="T198" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U198" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V198" s="1">
+      <c r="T198" s="2"/>
+      <c r="U198" s="1"/>
+      <c r="V198" s="6"/>
+      <c r="W198" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -15046,13 +14444,10 @@
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
-      <c r="T199" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U199" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V199" s="1">
+      <c r="T199" s="2"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="6"/>
+      <c r="W199" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -15104,13 +14499,10 @@
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
-      <c r="T200" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U200" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V200" s="1">
+      <c r="T200" s="2"/>
+      <c r="U200" s="1"/>
+      <c r="V200" s="6"/>
+      <c r="W200" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -15162,13 +14554,10 @@
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
-      <c r="T201" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U201" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V201" s="1">
+      <c r="T201" s="2"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="6"/>
+      <c r="W201" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -15220,13 +14609,10 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
-      <c r="T202" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U202" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V202" s="1">
+      <c r="T202" s="2"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="6"/>
+      <c r="W202" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -15278,13 +14664,10 @@
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
-      <c r="T203" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="U203" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V203" s="1">
+      <c r="T203" s="2"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="6"/>
+      <c r="W203" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -15336,13 +14719,10 @@
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
-      <c r="T204" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="U204" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V204" s="1">
+      <c r="T204" s="2"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="6"/>
+      <c r="W204" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -15394,14 +14774,11 @@
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
-      <c r="T205" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U205" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V205" s="1">
-        <v>1.0</v>
+      <c r="T205" s="2"/>
+      <c r="U205" s="1"/>
+      <c r="V205" s="6"/>
+      <c r="W205" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
@@ -15452,13 +14829,10 @@
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
-      <c r="T206" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U206" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V206" s="1">
+      <c r="T206" s="2"/>
+      <c r="U206" s="1"/>
+      <c r="V206" s="6"/>
+      <c r="W206" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -15510,14 +14884,11 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
-      <c r="T207" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U207" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V207" s="1">
-        <v>0.0</v>
+      <c r="T207" s="2"/>
+      <c r="U207" s="1"/>
+      <c r="V207" s="6"/>
+      <c r="W207" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
@@ -15568,13 +14939,10 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
-      <c r="T208" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U208" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V208" s="1">
+      <c r="T208" s="2"/>
+      <c r="U208" s="1"/>
+      <c r="V208" s="6"/>
+      <c r="W208" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -15626,13 +14994,10 @@
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
-      <c r="T209" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U209" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V209" s="1">
+      <c r="T209" s="2"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="6"/>
+      <c r="W209" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -15684,14 +15049,11 @@
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
-      <c r="T210" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U210" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V210" s="1">
-        <v>1.0</v>
+      <c r="T210" s="2"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="6"/>
+      <c r="W210" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
@@ -15742,14 +15104,11 @@
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
-      <c r="T211" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U211" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V211" s="1">
-        <v>1.0</v>
+      <c r="T211" s="2"/>
+      <c r="U211" s="1"/>
+      <c r="V211" s="6"/>
+      <c r="W211" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
@@ -15800,14 +15159,11 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
-      <c r="T212" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U212" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V212" s="1">
-        <v>0.0</v>
+      <c r="T212" s="2"/>
+      <c r="U212" s="1"/>
+      <c r="V212" s="6"/>
+      <c r="W212" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
@@ -15858,14 +15214,11 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
-      <c r="T213" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="U213" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V213" s="1">
-        <v>0.0</v>
+      <c r="T213" s="2"/>
+      <c r="U213" s="1"/>
+      <c r="V213" s="6"/>
+      <c r="W213" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
@@ -15916,13 +15269,10 @@
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
-      <c r="T214" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="U214" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V214" s="1">
+      <c r="T214" s="2"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="6"/>
+      <c r="W214" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -15974,13 +15324,10 @@
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
-      <c r="T215" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="U215" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V215" s="1">
+      <c r="T215" s="2"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="6"/>
+      <c r="W215" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -16032,13 +15379,10 @@
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
-      <c r="T216" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="U216" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V216" s="1">
+      <c r="T216" s="2"/>
+      <c r="U216" s="1"/>
+      <c r="V216" s="6"/>
+      <c r="W216" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -16079,20 +15423,17 @@
       <c r="L217" s="2">
         <v>0.0</v>
       </c>
-      <c r="M217" s="12" t="s">
+      <c r="M217" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="N217" s="12" t="s">
+      <c r="N217" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="T217" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="U217" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V217" s="1">
-        <v>1.0</v>
+      <c r="T217" s="2"/>
+      <c r="U217" s="1"/>
+      <c r="V217" s="6"/>
+      <c r="W217" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
@@ -16132,20 +15473,17 @@
       <c r="L218" s="2">
         <v>0.0</v>
       </c>
-      <c r="M218" s="12" t="s">
+      <c r="M218" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="N218" s="12" t="s">
+      <c r="N218" s="15" t="s">
         <v>642</v>
       </c>
-      <c r="T218" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="U218" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V218" s="1">
-        <v>1.0</v>
+      <c r="T218" s="2"/>
+      <c r="U218" s="1"/>
+      <c r="V218" s="6"/>
+      <c r="W218" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
@@ -16155,6 +15493,9 @@
       <c r="B219" s="2">
         <v>5.0</v>
       </c>
+      <c r="U219" s="1"/>
+      <c r="V219" s="6"/>
+      <c r="W219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
@@ -16163,28 +15504,40 @@
       <c r="B220" s="2">
         <v>3.0</v>
       </c>
-    </row>
-    <row r="221" ht="15.75" customHeight="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="6"/>
+      <c r="W220" s="1"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="V221" s="14"/>
+    </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="V222" s="1"/>
+      <c r="V222" s="14"/>
+      <c r="W222" s="1"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="V223" s="1"/>
+      <c r="V223" s="14"/>
+      <c r="W223" s="1"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="V224" s="1"/>
+      <c r="V224" s="14"/>
+      <c r="W224" s="1"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="V225" s="1"/>
+      <c r="V225" s="14"/>
+      <c r="W225" s="1"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="V226" s="1"/>
+      <c r="V226" s="14"/>
+      <c r="W226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="V227" s="1"/>
+      <c r="V227" s="14"/>
+      <c r="W227" s="1"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="V228" s="1"/>
+      <c r="V228" s="14"/>
+      <c r="W228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
@@ -16193,12 +15546,9 @@
       <c r="B229" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U229" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V229" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U229" s="1"/>
+      <c r="V229" s="6"/>
+      <c r="W229" s="6"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
@@ -16207,12 +15557,9 @@
       <c r="B230" s="2">
         <v>14.0</v>
       </c>
-      <c r="U230" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V230" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U230" s="1"/>
+      <c r="V230" s="6"/>
+      <c r="W230" s="6"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
@@ -16221,12 +15568,9 @@
       <c r="B231" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="U231" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V231" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U231" s="1"/>
+      <c r="V231" s="6"/>
+      <c r="W231" s="6"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
@@ -16235,12 +15579,9 @@
       <c r="B232" s="2">
         <v>14.0</v>
       </c>
-      <c r="U232" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V232" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U232" s="1"/>
+      <c r="V232" s="6"/>
+      <c r="W232" s="6"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
@@ -16249,12 +15590,9 @@
       <c r="B233" s="2">
         <v>14.0</v>
       </c>
-      <c r="U233" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V233" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U233" s="1"/>
+      <c r="V233" s="6"/>
+      <c r="W233" s="6"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
@@ -16263,12 +15601,9 @@
       <c r="B234" s="2">
         <v>14.0</v>
       </c>
-      <c r="U234" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V234" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U234" s="1"/>
+      <c r="V234" s="6"/>
+      <c r="W234" s="6"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
@@ -16277,12 +15612,9 @@
       <c r="B235" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="U235" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V235" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U235" s="1"/>
+      <c r="V235" s="6"/>
+      <c r="W235" s="6"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
@@ -16291,12 +15623,9 @@
       <c r="B236" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="U236" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V236" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U236" s="1"/>
+      <c r="V236" s="6"/>
+      <c r="W236" s="6"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
@@ -16305,12 +15634,9 @@
       <c r="B237" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="U237" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V237" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U237" s="1"/>
+      <c r="V237" s="6"/>
+      <c r="W237" s="6"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
@@ -16319,12 +15645,9 @@
       <c r="B238" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="U238" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V238" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U238" s="1"/>
+      <c r="V238" s="6"/>
+      <c r="W238" s="6"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
@@ -16333,12 +15656,9 @@
       <c r="B239" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U239" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V239" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U239" s="1"/>
+      <c r="V239" s="6"/>
+      <c r="W239" s="6"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
@@ -16347,12 +15667,9 @@
       <c r="B240" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U240" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V240" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U240" s="1"/>
+      <c r="V240" s="6"/>
+      <c r="W240" s="6"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
@@ -16361,12 +15678,9 @@
       <c r="B241" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U241" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V241" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U241" s="1"/>
+      <c r="V241" s="6"/>
+      <c r="W241" s="6"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
@@ -16375,12 +15689,9 @@
       <c r="B242" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U242" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V242" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U242" s="1"/>
+      <c r="V242" s="6"/>
+      <c r="W242" s="6"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
@@ -16389,12 +15700,9 @@
       <c r="B243" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="U243" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V243" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U243" s="1"/>
+      <c r="V243" s="6"/>
+      <c r="W243" s="6"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
@@ -16403,13 +15711,10 @@
       <c r="B244" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U244" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V244" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W244" s="12"/>
+      <c r="U244" s="1"/>
+      <c r="V244" s="6"/>
+      <c r="W244" s="14"/>
+      <c r="X244" s="15"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
@@ -16418,12 +15723,9 @@
       <c r="B245" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="U245" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V245" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U245" s="1"/>
+      <c r="V245" s="6"/>
+      <c r="W245" s="6"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
@@ -16432,12 +15734,9 @@
       <c r="B246" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="U246" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V246" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U246" s="1"/>
+      <c r="V246" s="6"/>
+      <c r="W246" s="6"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
@@ -16446,12 +15745,9 @@
       <c r="B247" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U247" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V247" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U247" s="1"/>
+      <c r="V247" s="6"/>
+      <c r="W247" s="6"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
@@ -16460,12 +15756,9 @@
       <c r="B248" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U248" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V248" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U248" s="1"/>
+      <c r="V248" s="6"/>
+      <c r="W248" s="6"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
@@ -16474,12 +15767,9 @@
       <c r="B249" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U249" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V249" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U249" s="1"/>
+      <c r="V249" s="6"/>
+      <c r="W249" s="6"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
@@ -16488,46 +15778,38 @@
       <c r="B250" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U250" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V250" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U250" s="1"/>
+      <c r="V250" s="6"/>
+      <c r="W250" s="6"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="12" t="s">
+      <c r="A251" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="B251" s="12" t="s">
+      <c r="B251" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="C251" s="12"/>
-      <c r="D251" s="12"/>
-      <c r="E251" s="12"/>
-      <c r="F251" s="12"/>
-      <c r="G251" s="12"/>
-      <c r="H251" s="12"/>
-      <c r="I251" s="12"/>
-      <c r="J251" s="12"/>
-      <c r="K251" s="12"/>
-      <c r="L251" s="12"/>
-      <c r="M251" s="12"/>
-      <c r="N251" s="12"/>
-      <c r="O251" s="12"/>
-      <c r="P251" s="12"/>
-      <c r="Q251" s="12"/>
-      <c r="R251" s="12"/>
-      <c r="S251" s="12"/>
-      <c r="T251" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="U251" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="V251" s="13">
-        <v>1.0</v>
-      </c>
+      <c r="C251" s="15"/>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="15"/>
+      <c r="H251" s="15"/>
+      <c r="I251" s="15"/>
+      <c r="J251" s="15"/>
+      <c r="K251" s="15"/>
+      <c r="L251" s="15"/>
+      <c r="M251" s="15"/>
+      <c r="N251" s="15"/>
+      <c r="O251" s="15"/>
+      <c r="P251" s="15"/>
+      <c r="Q251" s="15"/>
+      <c r="R251" s="15"/>
+      <c r="S251" s="15"/>
+      <c r="T251" s="11"/>
+      <c r="U251" s="14"/>
+      <c r="V251" s="14"/>
+      <c r="W251" s="6"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
@@ -16536,12 +15818,9 @@
       <c r="B252" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="U252" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V252" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U252" s="1"/>
+      <c r="V252" s="6"/>
+      <c r="W252" s="6"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
@@ -16550,12 +15829,9 @@
       <c r="B253" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="U253" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V253" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U253" s="1"/>
+      <c r="V253" s="6"/>
+      <c r="W253" s="6"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
@@ -16564,12 +15840,9 @@
       <c r="B254" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="U254" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V254" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U254" s="1"/>
+      <c r="V254" s="6"/>
+      <c r="W254" s="6"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
@@ -16578,12 +15851,9 @@
       <c r="B255" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U255" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V255" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U255" s="1"/>
+      <c r="V255" s="6"/>
+      <c r="W255" s="6"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
@@ -16592,12 +15862,9 @@
       <c r="B256" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="U256" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V256" s="13">
-        <v>1.0</v>
-      </c>
+      <c r="U256" s="1"/>
+      <c r="V256" s="6"/>
+      <c r="W256" s="6"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
@@ -16606,12 +15873,9 @@
       <c r="B257" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U257" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V257" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U257" s="1"/>
+      <c r="V257" s="6"/>
+      <c r="W257" s="6"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
@@ -16620,12 +15884,9 @@
       <c r="B258" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="U258" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V258" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U258" s="1"/>
+      <c r="V258" s="6"/>
+      <c r="W258" s="6"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
@@ -16634,12 +15895,9 @@
       <c r="B259" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U259" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V259" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U259" s="1"/>
+      <c r="V259" s="6"/>
+      <c r="W259" s="6"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
@@ -16648,12 +15906,9 @@
       <c r="B260" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U260" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V260" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U260" s="1"/>
+      <c r="V260" s="6"/>
+      <c r="W260" s="6"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
@@ -16662,12 +15917,9 @@
       <c r="B261" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U261" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V261" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U261" s="1"/>
+      <c r="V261" s="6"/>
+      <c r="W261" s="6"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
@@ -16676,12 +15928,9 @@
       <c r="B262" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="U262" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V262" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U262" s="1"/>
+      <c r="V262" s="6"/>
+      <c r="W262" s="6"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
@@ -16690,12 +15939,9 @@
       <c r="B263" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="U263" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V263" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U263" s="1"/>
+      <c r="V263" s="6"/>
+      <c r="W263" s="6"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="1" t="s">
@@ -16704,12 +15950,9 @@
       <c r="B264" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="U264" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V264" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U264" s="1"/>
+      <c r="V264" s="6"/>
+      <c r="W264" s="6"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="1" t="s">
@@ -16718,12 +15961,9 @@
       <c r="B265" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="U265" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V265" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U265" s="1"/>
+      <c r="V265" s="6"/>
+      <c r="W265" s="6"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="1" t="s">
@@ -16732,12 +15972,9 @@
       <c r="B266" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="U266" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V266" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U266" s="1"/>
+      <c r="V266" s="6"/>
+      <c r="W266" s="6"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="1" t="s">
@@ -16746,12 +15983,9 @@
       <c r="B267" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="U267" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V267" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U267" s="1"/>
+      <c r="V267" s="6"/>
+      <c r="W267" s="6"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="1" t="s">
@@ -16760,12 +15994,9 @@
       <c r="B268" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="U268" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V268" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U268" s="1"/>
+      <c r="V268" s="6"/>
+      <c r="W268" s="6"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="1" t="s">
@@ -16774,12 +16005,9 @@
       <c r="B269" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="U269" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V269" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U269" s="1"/>
+      <c r="V269" s="6"/>
+      <c r="W269" s="6"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="1" t="s">
@@ -16788,12 +16016,9 @@
       <c r="B270" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="U270" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V270" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U270" s="1"/>
+      <c r="V270" s="6"/>
+      <c r="W270" s="6"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="1" t="s">
@@ -16802,12 +16027,9 @@
       <c r="B271" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="U271" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V271" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U271" s="1"/>
+      <c r="V271" s="6"/>
+      <c r="W271" s="6"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="1" t="s">
@@ -16816,12 +16038,9 @@
       <c r="B272" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="U272" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V272" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U272" s="1"/>
+      <c r="V272" s="6"/>
+      <c r="W272" s="6"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="1" t="s">
@@ -16830,12 +16049,9 @@
       <c r="B273" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U273" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V273" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U273" s="1"/>
+      <c r="V273" s="6"/>
+      <c r="W273" s="6"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="1" t="s">
@@ -16844,12 +16060,9 @@
       <c r="B274" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U274" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V274" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U274" s="1"/>
+      <c r="V274" s="6"/>
+      <c r="W274" s="6"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="1" t="s">
@@ -16858,12 +16071,9 @@
       <c r="B275" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U275" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V275" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U275" s="1"/>
+      <c r="V275" s="6"/>
+      <c r="W275" s="6"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="1" t="s">
@@ -16872,12 +16082,9 @@
       <c r="B276" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U276" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V276" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U276" s="1"/>
+      <c r="V276" s="6"/>
+      <c r="W276" s="6"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="1" t="s">
@@ -16886,12 +16093,9 @@
       <c r="B277" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U277" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V277" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U277" s="1"/>
+      <c r="V277" s="6"/>
+      <c r="W277" s="6"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="1" t="s">
@@ -16900,12 +16104,9 @@
       <c r="B278" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="U278" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V278" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U278" s="1"/>
+      <c r="V278" s="6"/>
+      <c r="W278" s="6"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="1" t="s">
@@ -16914,12 +16115,9 @@
       <c r="B279" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U279" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V279" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U279" s="1"/>
+      <c r="V279" s="6"/>
+      <c r="W279" s="6"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="1" t="s">
@@ -16928,12 +16126,9 @@
       <c r="B280" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U280" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V280" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U280" s="1"/>
+      <c r="V280" s="6"/>
+      <c r="W280" s="6"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="1" t="s">
@@ -16942,12 +16137,9 @@
       <c r="B281" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U281" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V281" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U281" s="1"/>
+      <c r="V281" s="6"/>
+      <c r="W281" s="6"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="1" t="s">
@@ -16956,12 +16148,9 @@
       <c r="B282" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U282" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V282" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U282" s="1"/>
+      <c r="V282" s="6"/>
+      <c r="W282" s="6"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="1" t="s">
@@ -16970,12 +16159,9 @@
       <c r="B283" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U283" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V283" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U283" s="1"/>
+      <c r="V283" s="6"/>
+      <c r="W283" s="6"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="1" t="s">
@@ -16984,12 +16170,9 @@
       <c r="B284" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U284" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V284" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U284" s="1"/>
+      <c r="V284" s="6"/>
+      <c r="W284" s="6"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="1" t="s">
@@ -16998,12 +16181,9 @@
       <c r="B285" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U285" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V285" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U285" s="1"/>
+      <c r="V285" s="6"/>
+      <c r="W285" s="6"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
@@ -17012,12 +16192,9 @@
       <c r="B286" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U286" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V286" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U286" s="1"/>
+      <c r="V286" s="6"/>
+      <c r="W286" s="6"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="1" t="s">
@@ -17026,12 +16203,9 @@
       <c r="B287" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U287" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V287" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U287" s="1"/>
+      <c r="V287" s="6"/>
+      <c r="W287" s="6"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
@@ -17040,12 +16214,9 @@
       <c r="B288" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="U288" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V288" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U288" s="1"/>
+      <c r="V288" s="6"/>
+      <c r="W288" s="6"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="1" t="s">
@@ -17054,12 +16225,9 @@
       <c r="B289" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="U289" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V289" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U289" s="1"/>
+      <c r="V289" s="6"/>
+      <c r="W289" s="6"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="1" t="s">
@@ -17068,12 +16236,9 @@
       <c r="B290" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="U290" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V290" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U290" s="1"/>
+      <c r="V290" s="6"/>
+      <c r="W290" s="6"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="1" t="s">
@@ -17082,12 +16247,9 @@
       <c r="B291" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="U291" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V291" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U291" s="1"/>
+      <c r="V291" s="6"/>
+      <c r="W291" s="6"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="1" t="s">
@@ -17096,12 +16258,9 @@
       <c r="B292" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="U292" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V292" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U292" s="1"/>
+      <c r="V292" s="6"/>
+      <c r="W292" s="6"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="1" t="s">
@@ -17110,12 +16269,9 @@
       <c r="B293" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U293" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V293" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U293" s="1"/>
+      <c r="V293" s="6"/>
+      <c r="W293" s="6"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="1" t="s">
@@ -17124,12 +16280,9 @@
       <c r="B294" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="U294" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V294" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U294" s="1"/>
+      <c r="V294" s="6"/>
+      <c r="W294" s="6"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="1" t="s">
@@ -17138,12 +16291,9 @@
       <c r="B295" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="U295" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V295" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U295" s="1"/>
+      <c r="V295" s="6"/>
+      <c r="W295" s="6"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="1" t="s">
@@ -17152,12 +16302,9 @@
       <c r="B296" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="U296" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V296" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U296" s="1"/>
+      <c r="V296" s="6"/>
+      <c r="W296" s="6"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="1" t="s">
@@ -17166,12 +16313,9 @@
       <c r="B297" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="U297" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V297" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U297" s="1"/>
+      <c r="V297" s="6"/>
+      <c r="W297" s="6"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="1" t="s">
@@ -17180,12 +16324,9 @@
       <c r="B298" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="U298" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V298" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U298" s="1"/>
+      <c r="V298" s="6"/>
+      <c r="W298" s="6"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="1" t="s">
@@ -17194,12 +16335,9 @@
       <c r="B299" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="U299" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V299" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U299" s="1"/>
+      <c r="V299" s="6"/>
+      <c r="W299" s="6"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="1" t="s">
@@ -17208,12 +16346,9 @@
       <c r="B300" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="U300" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V300" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U300" s="1"/>
+      <c r="V300" s="6"/>
+      <c r="W300" s="6"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="1" t="s">
@@ -17222,12 +16357,9 @@
       <c r="B301" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="U301" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V301" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U301" s="1"/>
+      <c r="V301" s="6"/>
+      <c r="W301" s="6"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="1" t="s">
@@ -17236,12 +16368,9 @@
       <c r="B302" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="U302" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V302" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U302" s="1"/>
+      <c r="V302" s="6"/>
+      <c r="W302" s="6"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="1" t="s">
@@ -17250,12 +16379,9 @@
       <c r="B303" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="U303" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V303" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U303" s="1"/>
+      <c r="V303" s="6"/>
+      <c r="W303" s="6"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="1" t="s">
@@ -17264,12 +16390,9 @@
       <c r="B304" s="2">
         <v>14.0</v>
       </c>
-      <c r="U304" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V304" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U304" s="1"/>
+      <c r="V304" s="6"/>
+      <c r="W304" s="6"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="1" t="s">
@@ -17278,12 +16401,9 @@
       <c r="B305" s="2">
         <v>14.0</v>
       </c>
-      <c r="U305" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V305" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U305" s="1"/>
+      <c r="V305" s="6"/>
+      <c r="W305" s="6"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="1" t="s">
@@ -17292,12 +16412,9 @@
       <c r="B306" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="U306" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V306" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U306" s="1"/>
+      <c r="V306" s="6"/>
+      <c r="W306" s="6"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="1" t="s">
@@ -17306,12 +16423,9 @@
       <c r="B307" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U307" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V307" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U307" s="1"/>
+      <c r="V307" s="6"/>
+      <c r="W307" s="6"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="1" t="s">
@@ -17320,12 +16434,9 @@
       <c r="B308" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U308" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V308" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U308" s="1"/>
+      <c r="V308" s="6"/>
+      <c r="W308" s="6"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="1" t="s">
@@ -17334,12 +16445,9 @@
       <c r="B309" s="2">
         <v>14.0</v>
       </c>
-      <c r="U309" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V309" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="U309" s="1"/>
+      <c r="V309" s="1"/>
+      <c r="W309" s="6"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="1" t="s">
@@ -17348,12 +16456,9 @@
       <c r="B310" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="U310" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V310" s="14">
-        <v>0.0</v>
-      </c>
+      <c r="U310" s="1"/>
+      <c r="V310" s="1"/>
+      <c r="W310" s="14"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="1" t="s">
@@ -17362,12 +16467,9 @@
       <c r="B311" s="2">
         <v>14.0</v>
       </c>
-      <c r="U311" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V311" s="14">
-        <v>0.0</v>
-      </c>
+      <c r="U311" s="1"/>
+      <c r="V311" s="1"/>
+      <c r="W311" s="14"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="1" t="s">
@@ -17376,12 +16478,9 @@
       <c r="B312" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U312" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V312" s="14">
-        <v>0.0</v>
-      </c>
+      <c r="U312" s="1"/>
+      <c r="V312" s="1"/>
+      <c r="W312" s="14"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="1" t="s">
@@ -17390,12 +16489,9 @@
       <c r="B313" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U313" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V313" s="14">
-        <v>0.0</v>
-      </c>
+      <c r="U313" s="1"/>
+      <c r="V313" s="1"/>
+      <c r="W313" s="14"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="1" t="s">
@@ -17404,12 +16500,9 @@
       <c r="B314" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U314" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V314" s="14">
-        <v>0.0</v>
-      </c>
+      <c r="U314" s="1"/>
+      <c r="V314" s="1"/>
+      <c r="W314" s="14"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="1" t="s">
@@ -17418,12 +16511,9 @@
       <c r="B315" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="U315" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V315" s="14">
-        <v>0.0</v>
-      </c>
+      <c r="U315" s="1"/>
+      <c r="V315" s="1"/>
+      <c r="W315" s="14"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="1" t="s">
@@ -17432,12 +16522,9 @@
       <c r="B316" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="U316" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V316" s="14">
-        <v>0.0</v>
-      </c>
+      <c r="U316" s="1"/>
+      <c r="V316" s="1"/>
+      <c r="W316" s="14"/>
     </row>
     <row r="317" ht="15.75" customHeight="1"/>
     <row r="318" ht="15.75" customHeight="1"/>
